--- a/utils3d/results/results.xlsx
+++ b/utils3d/results/results.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,16 +473,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.157885789871216</v>
+        <v>2.405460834503174</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0001282051380258054</v>
+        <v>0.0001479678903706372</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2893169522285461</v>
+        <v>0.1399458199739456</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -496,16 +496,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.429835557937622</v>
+        <v>1.117986083030701</v>
       </c>
       <c r="B3" t="n">
-        <v>8.264202915597707e-05</v>
+        <v>3.654718238976784e-05</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1491333842277527</v>
+        <v>0.03395802155137062</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -514,29 +514,6 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1.862256169319153</v>
-      </c>
-      <c r="B4" t="n">
-        <v>5.236176366452128e-05</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.06057985126972198</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -576,7 +553,7 @@
         <v>-0.1000000014901161</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0007562139071524143</v>
+        <v>0.009987879544496536</v>
       </c>
     </row>
     <row r="3">
@@ -584,7 +561,7 @@
         <v>-0.09447236359119415</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0003217067569494247</v>
+        <v>0.008686192333698273</v>
       </c>
     </row>
     <row r="4">
@@ -592,7 +569,7 @@
         <v>-0.08894472569227219</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0001138611696660519</v>
+        <v>0.007383683696389198</v>
       </c>
     </row>
     <row r="5">
@@ -600,7 +577,7 @@
         <v>-0.08341708779335022</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0005504556465893984</v>
+        <v>0.006080398336052895</v>
       </c>
     </row>
     <row r="6">
@@ -608,7 +585,7 @@
         <v>-0.07788944989442825</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0009880033321678638</v>
+        <v>0.004776366055011749</v>
       </c>
     </row>
     <row r="7">
@@ -616,7 +593,7 @@
         <v>-0.07236181199550629</v>
       </c>
       <c r="B7" t="n">
-        <v>0.001426465343683958</v>
+        <v>0.003471618518233299</v>
       </c>
     </row>
     <row r="8">
@@ -624,7 +601,7 @@
         <v>-0.06683417409658432</v>
       </c>
       <c r="B8" t="n">
-        <v>0.001865789294242859</v>
+        <v>0.002166181802749634</v>
       </c>
     </row>
     <row r="9">
@@ -632,7 +609,7 @@
         <v>-0.06130653247237206</v>
       </c>
       <c r="B9" t="n">
-        <v>0.002305916510522366</v>
+        <v>0.000860121101140976</v>
       </c>
     </row>
     <row r="10">
@@ -640,7 +617,7 @@
         <v>-0.05577889457345009</v>
       </c>
       <c r="B10" t="n">
-        <v>0.002746788319200277</v>
+        <v>-0.0004465579986572266</v>
       </c>
     </row>
     <row r="11">
@@ -648,7 +625,7 @@
         <v>-0.05025125667452812</v>
       </c>
       <c r="B11" t="n">
-        <v>0.003188372356817126</v>
+        <v>-0.001753823831677437</v>
       </c>
     </row>
     <row r="12">
@@ -656,7 +633,7 @@
         <v>-0.04472361877560616</v>
       </c>
       <c r="B12" t="n">
-        <v>0.003630597144365311</v>
+        <v>-0.003061616793274879</v>
       </c>
     </row>
     <row r="13">
@@ -664,7 +641,7 @@
         <v>-0.03919598087668419</v>
       </c>
       <c r="B13" t="n">
-        <v>0.004073403775691986</v>
+        <v>-0.004369935020804405</v>
       </c>
     </row>
     <row r="14">
@@ -672,7 +649,7 @@
         <v>-0.03366834297776222</v>
       </c>
       <c r="B14" t="n">
-        <v>0.004516761749982834</v>
+        <v>-0.005678709596395493</v>
       </c>
     </row>
     <row r="15">
@@ -680,7 +657,7 @@
         <v>-0.02814070321619511</v>
       </c>
       <c r="B15" t="n">
-        <v>0.004960590973496437</v>
+        <v>-0.006987921893596649</v>
       </c>
     </row>
     <row r="16">
@@ -688,7 +665,7 @@
         <v>-0.02261306531727314</v>
       </c>
       <c r="B16" t="n">
-        <v>0.005404860712587833</v>
+        <v>-0.008297557011246681</v>
       </c>
     </row>
     <row r="17">
@@ -696,7 +673,7 @@
         <v>-0.01708542741835117</v>
       </c>
       <c r="B17" t="n">
-        <v>0.00584949366748333</v>
+        <v>-0.009607542306184769</v>
       </c>
     </row>
     <row r="18">
@@ -704,7 +681,7 @@
         <v>-0.01155778858810663</v>
       </c>
       <c r="B18" t="n">
-        <v>0.006294452585279942</v>
+        <v>-0.01091784983873367</v>
       </c>
     </row>
     <row r="19">
@@ -712,7 +689,7 @@
         <v>-0.006030150689184666</v>
       </c>
       <c r="B19" t="n">
-        <v>0.006739683449268341</v>
+        <v>-0.01222848519682884</v>
       </c>
     </row>
     <row r="20">
@@ -720,7 +697,7 @@
         <v>-0.0005025125574320555</v>
       </c>
       <c r="B20" t="n">
-        <v>0.00718512199819088</v>
+        <v>-0.01353936269879341</v>
       </c>
     </row>
     <row r="21">
@@ -728,7 +705,7 @@
         <v>0.005025125574320555</v>
       </c>
       <c r="B21" t="n">
-        <v>0.007630717940628529</v>
+        <v>-0.01485047489404678</v>
       </c>
     </row>
     <row r="22">
@@ -736,7 +713,7 @@
         <v>0.01055276393890381</v>
       </c>
       <c r="B22" t="n">
-        <v>0.008076413534581661</v>
+        <v>-0.01616178080439568</v>
       </c>
     </row>
     <row r="23">
@@ -744,7 +721,7 @@
         <v>0.01608040183782578</v>
       </c>
       <c r="B23" t="n">
-        <v>0.008522153832018375</v>
+        <v>-0.01747323200106621</v>
       </c>
     </row>
     <row r="24">
@@ -752,7 +729,7 @@
         <v>0.02160803973674774</v>
       </c>
       <c r="B24" t="n">
-        <v>0.008967895992100239</v>
+        <v>-0.01878480985760689</v>
       </c>
     </row>
     <row r="25">
@@ -760,7 +737,7 @@
         <v>0.02713567763566971</v>
       </c>
       <c r="B25" t="n">
-        <v>0.009413593448698521</v>
+        <v>-0.02009651809930801</v>
       </c>
     </row>
     <row r="26">
@@ -768,7 +745,7 @@
         <v>0.03266331553459167</v>
       </c>
       <c r="B26" t="n">
-        <v>0.009859145618975163</v>
+        <v>-0.02140824124217033</v>
       </c>
     </row>
     <row r="27">
@@ -776,7 +753,7 @@
         <v>0.03819095343351364</v>
       </c>
       <c r="B27" t="n">
-        <v>0.01030453760176897</v>
+        <v>-0.02271998301148415</v>
       </c>
     </row>
     <row r="28">
@@ -784,7 +761,7 @@
         <v>0.04371859133243561</v>
       </c>
       <c r="B28" t="n">
-        <v>0.01074970979243517</v>
+        <v>-0.02403170615434647</v>
       </c>
     </row>
     <row r="29">
@@ -792,7 +769,7 @@
         <v>0.04924623295664787</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01119461562484503</v>
+        <v>-0.0253433957695961</v>
       </c>
     </row>
     <row r="30">
@@ -800,7 +777,7 @@
         <v>0.05477387085556984</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01163917873054743</v>
+        <v>-0.02665501460433006</v>
       </c>
     </row>
     <row r="31">
@@ -808,7 +785,7 @@
         <v>0.06030150875449181</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01208335254341364</v>
+        <v>-0.02796648815274239</v>
       </c>
     </row>
     <row r="32">
@@ -816,7 +793,7 @@
         <v>0.06582914292812347</v>
       </c>
       <c r="B32" t="n">
-        <v>0.01252707932144403</v>
+        <v>-0.02927779778838158</v>
       </c>
     </row>
     <row r="33">
@@ -824,7 +801,7 @@
         <v>0.07135678082704544</v>
       </c>
       <c r="B33" t="n">
-        <v>0.01297034043818712</v>
+        <v>-0.03058892861008644</v>
       </c>
     </row>
     <row r="34">
@@ -832,7 +809,7 @@
         <v>0.07688441872596741</v>
       </c>
       <c r="B34" t="n">
-        <v>0.01341303158551455</v>
+        <v>-0.03189980983734131</v>
       </c>
     </row>
     <row r="35">
@@ -840,7 +817,7 @@
         <v>0.08241205662488937</v>
       </c>
       <c r="B35" t="n">
-        <v>0.01385513041168451</v>
+        <v>-0.03321044892072678</v>
       </c>
     </row>
     <row r="36">
@@ -848,7 +825,7 @@
         <v>0.08793970197439194</v>
       </c>
       <c r="B36" t="n">
-        <v>0.01429658848792315</v>
+        <v>-0.03452083468437195</v>
       </c>
     </row>
     <row r="37">
@@ -856,7 +833,7 @@
         <v>0.0934673398733139</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01473732758313417</v>
+        <v>-0.03583085164427757</v>
       </c>
     </row>
     <row r="38">
@@ -864,7 +841,7 @@
         <v>0.09899497777223587</v>
       </c>
       <c r="B38" t="n">
-        <v>0.01517731044441462</v>
+        <v>-0.03714049980044365</v>
       </c>
     </row>
     <row r="39">
@@ -872,7 +849,7 @@
         <v>0.1045226156711578</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01561647746711969</v>
+        <v>-0.03844975680112839</v>
       </c>
     </row>
     <row r="40">
@@ -880,7 +857,7 @@
         <v>0.1100502535700798</v>
       </c>
       <c r="B40" t="n">
-        <v>0.01605478674173355</v>
+        <v>-0.03975857794284821</v>
       </c>
     </row>
     <row r="41">
@@ -888,7 +865,7 @@
         <v>0.1155778914690018</v>
       </c>
       <c r="B41" t="n">
-        <v>0.01649218797683716</v>
+        <v>-0.04106695950031281</v>
       </c>
     </row>
     <row r="42">
@@ -896,7 +873,7 @@
         <v>0.1211055293679237</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01692862436175346</v>
+        <v>-0.04237479716539383</v>
       </c>
     </row>
     <row r="43">
@@ -904,7 +881,7 @@
         <v>0.1266331672668457</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0173640139400959</v>
+        <v>-0.04368211701512337</v>
       </c>
     </row>
     <row r="44">
@@ -912,7 +889,7 @@
         <v>0.1321607977151871</v>
       </c>
       <c r="B44" t="n">
-        <v>0.01779838278889656</v>
+        <v>-0.04498885571956635</v>
       </c>
     </row>
     <row r="45">
@@ -920,7 +897,7 @@
         <v>0.1376884430646896</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0182315930724144</v>
+        <v>-0.04629501700401306</v>
       </c>
     </row>
     <row r="46">
@@ -928,7 +905,7 @@
         <v>0.143216073513031</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01866365969181061</v>
+        <v>-0.04760053008794785</v>
       </c>
     </row>
     <row r="47">
@@ -936,7 +913,7 @@
         <v>0.1487437188625336</v>
       </c>
       <c r="B47" t="n">
-        <v>0.01909447088837624</v>
+        <v>-0.0489053837954998</v>
       </c>
     </row>
     <row r="48">
@@ -944,7 +921,7 @@
         <v>0.1542713642120361</v>
       </c>
       <c r="B48" t="n">
-        <v>0.01952405273914337</v>
+        <v>-0.05020948871970177</v>
       </c>
     </row>
     <row r="49">
@@ -952,7 +929,7 @@
         <v>0.1597989946603775</v>
       </c>
       <c r="B49" t="n">
-        <v>0.01995228230953217</v>
+        <v>-0.05151285603642464</v>
       </c>
     </row>
     <row r="50">
@@ -960,7 +937,7 @@
         <v>0.1653266400098801</v>
       </c>
       <c r="B50" t="n">
-        <v>0.02037915587425232</v>
+        <v>-0.05281547456979752</v>
       </c>
     </row>
     <row r="51">
@@ -968,7 +945,7 @@
         <v>0.1708542704582214</v>
       </c>
       <c r="B51" t="n">
-        <v>0.02080462872982025</v>
+        <v>-0.05411727353930473</v>
       </c>
     </row>
     <row r="52">
@@ -976,7 +953,7 @@
         <v>0.176381915807724</v>
       </c>
       <c r="B52" t="n">
-        <v>0.02122863754630089</v>
+        <v>-0.05541824176907539</v>
       </c>
     </row>
     <row r="53">
@@ -984,7 +961,7 @@
         <v>0.1819095462560654</v>
       </c>
       <c r="B53" t="n">
-        <v>0.02165111526846886</v>
+        <v>-0.05671832710504532</v>
       </c>
     </row>
     <row r="54">
@@ -992,7 +969,7 @@
         <v>0.1874371916055679</v>
       </c>
       <c r="B54" t="n">
-        <v>0.02207203209400177</v>
+        <v>-0.05801751837134361</v>
       </c>
     </row>
     <row r="55">
@@ -1000,7 +977,7 @@
         <v>0.1929648220539093</v>
       </c>
       <c r="B55" t="n">
-        <v>0.02249135822057724</v>
+        <v>-0.05931572243571281</v>
       </c>
     </row>
     <row r="56">
@@ -1008,7 +985,7 @@
         <v>0.1984924674034119</v>
       </c>
       <c r="B56" t="n">
-        <v>0.022909015417099</v>
+        <v>-0.06061297282576561</v>
       </c>
     </row>
     <row r="57">
@@ -1016,7 +993,7 @@
         <v>0.2040200978517532</v>
       </c>
       <c r="B57" t="n">
-        <v>0.02332498878240585</v>
+        <v>-0.06190925464034081</v>
       </c>
     </row>
     <row r="58">
@@ -1024,7 +1001,7 @@
         <v>0.2095477432012558</v>
       </c>
       <c r="B58" t="n">
-        <v>0.02373926341533661</v>
+        <v>-0.06320448219776154</v>
       </c>
     </row>
     <row r="59">
@@ -1032,7 +1009,7 @@
         <v>0.2150753736495972</v>
       </c>
       <c r="B59" t="n">
-        <v>0.02415166795253754</v>
+        <v>-0.06449857354164124</v>
       </c>
     </row>
     <row r="60">
@@ -1040,7 +1017,7 @@
         <v>0.2206030189990997</v>
       </c>
       <c r="B60" t="n">
-        <v>0.02456226199865341</v>
+        <v>-0.06579160690307617</v>
       </c>
     </row>
     <row r="61">
@@ -1048,7 +1025,7 @@
         <v>0.2261306494474411</v>
       </c>
       <c r="B61" t="n">
-        <v>0.02497099339962006</v>
+        <v>-0.06708347797393799</v>
       </c>
     </row>
     <row r="62">
@@ -1056,7 +1033,7 @@
         <v>0.2316582947969437</v>
       </c>
       <c r="B62" t="n">
-        <v>0.02537783235311508</v>
+        <v>-0.06837423145771027</v>
       </c>
     </row>
     <row r="63">
@@ -1064,7 +1041,7 @@
         <v>0.237185925245285</v>
       </c>
       <c r="B63" t="n">
-        <v>0.02578266710042953</v>
+        <v>-0.06966370344161987</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1049,7 @@
         <v>0.2427135705947876</v>
       </c>
       <c r="B64" t="n">
-        <v>0.02618550509214401</v>
+        <v>-0.07095201313495636</v>
       </c>
     </row>
     <row r="65">
@@ -1080,7 +1057,7 @@
         <v>0.248241201043129</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02658629417419434</v>
+        <v>-0.07223901152610779</v>
       </c>
     </row>
     <row r="66">
@@ -1088,7 +1065,7 @@
         <v>0.2537688314914703</v>
       </c>
       <c r="B66" t="n">
-        <v>0.02698498219251633</v>
+        <v>-0.07352469861507416</v>
       </c>
     </row>
     <row r="67">
@@ -1096,7 +1073,7 @@
         <v>0.2592964768409729</v>
       </c>
       <c r="B67" t="n">
-        <v>0.02738156914710999</v>
+        <v>-0.07480910420417786</v>
       </c>
     </row>
     <row r="68">
@@ -1104,7 +1081,7 @@
         <v>0.2648241221904755</v>
       </c>
       <c r="B68" t="n">
-        <v>0.02777597308158875</v>
+        <v>-0.07609209418296814</v>
       </c>
     </row>
     <row r="69">
@@ -1112,7 +1089,7 @@
         <v>0.270351767539978</v>
       </c>
       <c r="B69" t="n">
-        <v>0.02816815674304962</v>
+        <v>-0.07737371325492859</v>
       </c>
     </row>
     <row r="70">
@@ -1120,7 +1097,7 @@
         <v>0.2758793830871582</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02855809777975082</v>
+        <v>-0.07865390926599503</v>
       </c>
     </row>
     <row r="71">
@@ -1128,7 +1105,7 @@
         <v>0.2814070284366608</v>
       </c>
       <c r="B71" t="n">
-        <v>0.02894574403762817</v>
+        <v>-0.07993263006210327</v>
       </c>
     </row>
     <row r="72">
@@ -1136,7 +1113,7 @@
         <v>0.2869346737861633</v>
       </c>
       <c r="B72" t="n">
-        <v>0.02933109551668167</v>
+        <v>-0.08120988309383392</v>
       </c>
     </row>
     <row r="73">
@@ -1144,7 +1121,7 @@
         <v>0.2924623191356659</v>
       </c>
       <c r="B73" t="n">
-        <v>0.02971407771110535</v>
+        <v>-0.08248564600944519</v>
       </c>
     </row>
     <row r="74">
@@ -1152,7 +1129,7 @@
         <v>0.2979899644851685</v>
       </c>
       <c r="B74" t="n">
-        <v>0.03009464591741562</v>
+        <v>-0.08375973999500275</v>
       </c>
     </row>
     <row r="75">
@@ -1160,7 +1137,7 @@
         <v>0.3035175800323486</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0304727703332901</v>
+        <v>-0.08503234386444092</v>
       </c>
     </row>
     <row r="76">
@@ -1168,7 +1145,7 @@
         <v>0.3090452253818512</v>
       </c>
       <c r="B76" t="n">
-        <v>0.030848428606987</v>
+        <v>-0.08630330860614777</v>
       </c>
     </row>
     <row r="77">
@@ -1176,7 +1153,7 @@
         <v>0.3145728707313538</v>
       </c>
       <c r="B77" t="n">
-        <v>0.03122158348560333</v>
+        <v>-0.08757266402244568</v>
       </c>
     </row>
     <row r="78">
@@ -1184,7 +1161,7 @@
         <v>0.3201005160808563</v>
       </c>
       <c r="B78" t="n">
-        <v>0.03159217536449432</v>
+        <v>-0.08884032070636749</v>
       </c>
     </row>
     <row r="79">
@@ -1192,7 +1169,7 @@
         <v>0.3256281316280365</v>
       </c>
       <c r="B79" t="n">
-        <v>0.03196026384830475</v>
+        <v>-0.0901063084602356</v>
       </c>
     </row>
     <row r="80">
@@ -1200,7 +1177,7 @@
         <v>0.3311557769775391</v>
       </c>
       <c r="B80" t="n">
-        <v>0.03232570737600327</v>
+        <v>-0.09137049317359924</v>
       </c>
     </row>
     <row r="81">
@@ -1208,7 +1185,7 @@
         <v>0.3366834223270416</v>
       </c>
       <c r="B81" t="n">
-        <v>0.03268847614526749</v>
+        <v>-0.09263299405574799</v>
       </c>
     </row>
     <row r="82">
@@ -1216,7 +1193,7 @@
         <v>0.3422110676765442</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0330486074090004</v>
+        <v>-0.0938936173915863</v>
       </c>
     </row>
     <row r="83">
@@ -1224,7 +1201,7 @@
         <v>0.3477386832237244</v>
       </c>
       <c r="B83" t="n">
-        <v>0.03340604156255722</v>
+        <v>-0.09515254199504852</v>
       </c>
     </row>
     <row r="84">
@@ -1232,7 +1209,7 @@
         <v>0.3532663285732269</v>
       </c>
       <c r="B84" t="n">
-        <v>0.03376071900129318</v>
+        <v>-0.09640951454639435</v>
       </c>
     </row>
     <row r="85">
@@ -1240,7 +1217,7 @@
         <v>0.3587939739227295</v>
       </c>
       <c r="B85" t="n">
-        <v>0.03411266207695007</v>
+        <v>-0.09766468405723572</v>
       </c>
     </row>
     <row r="86">
@@ -1248,7 +1225,7 @@
         <v>0.3643216192722321</v>
       </c>
       <c r="B86" t="n">
-        <v>0.03446180373430252</v>
+        <v>-0.09891793131828308</v>
       </c>
     </row>
     <row r="87">
@@ -1256,7 +1233,7 @@
         <v>0.3698492348194122</v>
       </c>
       <c r="B87" t="n">
-        <v>0.03480813652276993</v>
+        <v>-0.1001692116260529</v>
       </c>
     </row>
     <row r="88">
@@ -1264,7 +1241,7 @@
         <v>0.3753768801689148</v>
       </c>
       <c r="B88" t="n">
-        <v>0.03515157848596573</v>
+        <v>-0.1014185547828674</v>
       </c>
     </row>
     <row r="89">
@@ -1272,7 +1249,7 @@
         <v>0.3809045255184174</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0354921892285347</v>
+        <v>-0.1026658564805984</v>
       </c>
     </row>
     <row r="90">
@@ -1280,7 +1257,7 @@
         <v>0.3864321708679199</v>
       </c>
       <c r="B90" t="n">
-        <v>0.03582989424467087</v>
+        <v>-0.1039111763238907</v>
       </c>
     </row>
     <row r="91">
@@ -1288,7 +1265,7 @@
         <v>0.3919597864151001</v>
       </c>
       <c r="B91" t="n">
-        <v>0.03616463392972946</v>
+        <v>-0.1051544845104218</v>
       </c>
     </row>
     <row r="92">
@@ -1296,7 +1273,7 @@
         <v>0.3974874317646027</v>
       </c>
       <c r="B92" t="n">
-        <v>0.03649646043777466</v>
+        <v>-0.1063957065343857</v>
       </c>
     </row>
     <row r="93">
@@ -1304,7 +1281,7 @@
         <v>0.4030150771141052</v>
       </c>
       <c r="B93" t="n">
-        <v>0.03682532161474228</v>
+        <v>-0.1076348125934601</v>
       </c>
     </row>
     <row r="94">
@@ -1312,7 +1289,7 @@
         <v>0.4085427224636078</v>
       </c>
       <c r="B94" t="n">
-        <v>0.03715115040540695</v>
+        <v>-0.1088718175888062</v>
       </c>
     </row>
     <row r="95">
@@ -1320,7 +1297,7 @@
         <v>0.414070338010788</v>
       </c>
       <c r="B95" t="n">
-        <v>0.03747394680976868</v>
+        <v>-0.1101066470146179</v>
       </c>
     </row>
     <row r="96">
@@ -1328,7 +1305,7 @@
         <v>0.4195979833602905</v>
       </c>
       <c r="B96" t="n">
-        <v>0.03779373317956924</v>
+        <v>-0.111339271068573</v>
       </c>
     </row>
     <row r="97">
@@ -1336,7 +1313,7 @@
         <v>0.4251256287097931</v>
       </c>
       <c r="B97" t="n">
-        <v>0.03811041265726089</v>
+        <v>-0.1125697046518326</v>
       </c>
     </row>
     <row r="98">
@@ -1344,7 +1321,7 @@
         <v>0.4306532740592957</v>
       </c>
       <c r="B98" t="n">
-        <v>0.03842402994632721</v>
+        <v>-0.1137980073690414</v>
       </c>
     </row>
     <row r="99">
@@ -1352,7 +1329,7 @@
         <v>0.4361809194087982</v>
       </c>
       <c r="B99" t="n">
-        <v>0.03873449563980103</v>
+        <v>-0.1150238960981369</v>
       </c>
     </row>
     <row r="100">
@@ -1360,7 +1337,7 @@
         <v>0.4417085349559784</v>
       </c>
       <c r="B100" t="n">
-        <v>0.03904186189174652</v>
+        <v>-0.1162475198507309</v>
       </c>
     </row>
     <row r="101">
@@ -1368,7 +1345,7 @@
         <v>0.447236180305481</v>
       </c>
       <c r="B101" t="n">
-        <v>0.03934603929519653</v>
+        <v>-0.1174689084291458</v>
       </c>
     </row>
     <row r="102">
@@ -1376,7 +1353,7 @@
         <v>0.4527638256549835</v>
       </c>
       <c r="B102" t="n">
-        <v>0.03964705020189285</v>
+        <v>-0.1186879128217697</v>
       </c>
     </row>
     <row r="103">
@@ -1384,7 +1361,7 @@
         <v>0.4582914710044861</v>
       </c>
       <c r="B103" t="n">
-        <v>0.03994489461183548</v>
+        <v>-0.1199045926332474</v>
       </c>
     </row>
     <row r="104">
@@ -1392,7 +1369,7 @@
         <v>0.4638190865516663</v>
       </c>
       <c r="B104" t="n">
-        <v>0.04023952037096024</v>
+        <v>-0.1211189329624176</v>
       </c>
     </row>
     <row r="105">
@@ -1400,7 +1377,7 @@
         <v>0.4693467319011688</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0405309721827507</v>
+        <v>-0.1223307400941849</v>
       </c>
     </row>
     <row r="106">
@@ -1408,7 +1385,7 @@
         <v>0.4748743772506714</v>
       </c>
       <c r="B106" t="n">
-        <v>0.04081911593675613</v>
+        <v>-0.1235401928424835</v>
       </c>
     </row>
     <row r="107">
@@ -1416,7 +1393,7 @@
         <v>0.480402022600174</v>
       </c>
       <c r="B107" t="n">
-        <v>0.04110408574342728</v>
+        <v>-0.1247472018003464</v>
       </c>
     </row>
     <row r="108">
@@ -1424,7 +1401,7 @@
         <v>0.4859296381473541</v>
       </c>
       <c r="B108" t="n">
-        <v>0.04138567298650742</v>
+        <v>-0.1259517222642899</v>
       </c>
     </row>
     <row r="109">
@@ -1432,7 +1409,7 @@
         <v>0.4914572834968567</v>
       </c>
       <c r="B109" t="n">
-        <v>0.04166410118341446</v>
+        <v>-0.1271536648273468</v>
       </c>
     </row>
     <row r="110">
@@ -1440,7 +1417,7 @@
         <v>0.4969849288463593</v>
       </c>
       <c r="B110" t="n">
-        <v>0.04193913191556931</v>
+        <v>-0.1283531486988068</v>
       </c>
     </row>
     <row r="111">
@@ -1448,7 +1425,7 @@
         <v>0.5025125741958618</v>
       </c>
       <c r="B111" t="n">
-        <v>0.04221091419458389</v>
+        <v>-0.1295501440763474</v>
       </c>
     </row>
     <row r="112">
@@ -1456,7 +1433,7 @@
         <v>0.508040189743042</v>
       </c>
       <c r="B112" t="n">
-        <v>0.04247928410768509</v>
+        <v>-0.130744531750679</v>
       </c>
     </row>
     <row r="113">
@@ -1464,7 +1441,7 @@
         <v>0.5135678648948669</v>
       </c>
       <c r="B113" t="n">
-        <v>0.04274442046880722</v>
+        <v>-0.1319362074136734</v>
       </c>
     </row>
     <row r="114">
@@ -1472,7 +1449,7 @@
         <v>0.5190954804420471</v>
       </c>
       <c r="B114" t="n">
-        <v>0.04300615936517715</v>
+        <v>-0.1331254243850708</v>
       </c>
     </row>
     <row r="115">
@@ -1480,7 +1457,7 @@
         <v>0.5246230959892273</v>
       </c>
       <c r="B115" t="n">
-        <v>0.04326453059911728</v>
+        <v>-0.1343118250370026</v>
       </c>
     </row>
     <row r="116">
@@ -1488,7 +1465,7 @@
         <v>0.5301507711410522</v>
       </c>
       <c r="B116" t="n">
-        <v>0.04351957887411118</v>
+        <v>-0.1354957073926926</v>
       </c>
     </row>
     <row r="117">
@@ -1496,7 +1473,7 @@
         <v>0.5356783866882324</v>
       </c>
       <c r="B117" t="n">
-        <v>0.04377119988203049</v>
+        <v>-0.1366768181324005</v>
       </c>
     </row>
     <row r="118">
@@ -1504,7 +1481,7 @@
         <v>0.5412060022354126</v>
       </c>
       <c r="B118" t="n">
-        <v>0.04401940852403641</v>
+        <v>-0.1378553360700607</v>
       </c>
     </row>
     <row r="119">
@@ -1512,7 +1489,7 @@
         <v>0.5467336773872375</v>
       </c>
       <c r="B119" t="n">
-        <v>0.04426432400941849</v>
+        <v>-0.1390310227870941</v>
       </c>
     </row>
     <row r="120">
@@ -1520,7 +1497,7 @@
         <v>0.5522612929344177</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0445057675242424</v>
+        <v>-0.1402040272951126</v>
       </c>
     </row>
     <row r="121">
@@ -1528,7 +1505,7 @@
         <v>0.5577889680862427</v>
       </c>
       <c r="B121" t="n">
-        <v>0.04474388808012009</v>
+        <v>-0.1413741856813431</v>
       </c>
     </row>
     <row r="122">
@@ -1536,7 +1513,7 @@
         <v>0.5633165836334229</v>
       </c>
       <c r="B122" t="n">
-        <v>0.04497846215963364</v>
+        <v>-0.1425416469573975</v>
       </c>
     </row>
     <row r="123">
@@ -1544,7 +1521,7 @@
         <v>0.568844199180603</v>
       </c>
       <c r="B123" t="n">
-        <v>0.04520965367555618</v>
+        <v>-0.143706277012825</v>
       </c>
     </row>
     <row r="124">
@@ -1552,7 +1529,7 @@
         <v>0.574371874332428</v>
       </c>
       <c r="B124" t="n">
-        <v>0.04543747752904892</v>
+        <v>-0.1448680907487869</v>
       </c>
     </row>
     <row r="125">
@@ -1560,7 +1537,7 @@
         <v>0.5798994898796082</v>
       </c>
       <c r="B125" t="n">
-        <v>0.04566185921430588</v>
+        <v>-0.1460269391536713</v>
       </c>
     </row>
     <row r="126">
@@ -1568,7 +1545,7 @@
         <v>0.5854271650314331</v>
       </c>
       <c r="B126" t="n">
-        <v>0.04588272422552109</v>
+        <v>-0.1471830010414124</v>
       </c>
     </row>
     <row r="127">
@@ -1576,7 +1553,7 @@
         <v>0.5909547805786133</v>
       </c>
       <c r="B127" t="n">
-        <v>0.04610023647546768</v>
+        <v>-0.1483362168073654</v>
       </c>
     </row>
     <row r="128">
@@ -1584,7 +1561,7 @@
         <v>0.5964823961257935</v>
       </c>
       <c r="B128" t="n">
-        <v>0.04631423205137253</v>
+        <v>-0.1494864970445633</v>
       </c>
     </row>
     <row r="129">
@@ -1592,7 +1569,7 @@
         <v>0.6020100712776184</v>
       </c>
       <c r="B129" t="n">
-        <v>0.04652480036020279</v>
+        <v>-0.150633841753006</v>
       </c>
     </row>
     <row r="130">
@@ -1600,7 +1577,7 @@
         <v>0.6075376868247986</v>
       </c>
       <c r="B130" t="n">
-        <v>0.04673194140195847</v>
+        <v>-0.1517782509326935</v>
       </c>
     </row>
     <row r="131">
@@ -1608,7 +1585,7 @@
         <v>0.6130653023719788</v>
       </c>
       <c r="B131" t="n">
-        <v>0.04693568497896194</v>
+        <v>-0.1529196500778198</v>
       </c>
     </row>
     <row r="132">
@@ -1616,7 +1593,7 @@
         <v>0.6185929775238037</v>
       </c>
       <c r="B132" t="n">
-        <v>0.04713591188192368</v>
+        <v>-0.1540581434965134</v>
       </c>
     </row>
     <row r="133">
@@ -1624,7 +1601,7 @@
         <v>0.6241205930709839</v>
       </c>
       <c r="B133" t="n">
-        <v>0.04733266681432724</v>
+        <v>-0.1551936268806458</v>
       </c>
     </row>
     <row r="134">
@@ -1632,7 +1609,7 @@
         <v>0.6296482682228088</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0475260391831398</v>
+        <v>-0.1563260555267334</v>
       </c>
     </row>
     <row r="135">
@@ -1640,7 +1617,7 @@
         <v>0.635175883769989</v>
       </c>
       <c r="B135" t="n">
-        <v>0.047715924680233</v>
+        <v>-0.1574555039405823</v>
       </c>
     </row>
     <row r="136">
@@ -1648,7 +1625,7 @@
         <v>0.6407034993171692</v>
       </c>
       <c r="B136" t="n">
-        <v>0.04790236800909042</v>
+        <v>-0.1585818827152252</v>
       </c>
     </row>
     <row r="137">
@@ -1656,7 +1633,7 @@
         <v>0.6462311744689941</v>
       </c>
       <c r="B137" t="n">
-        <v>0.04808538407087326</v>
+        <v>-0.1597051620483398</v>
       </c>
     </row>
     <row r="138">
@@ -1664,7 +1641,7 @@
         <v>0.6517587900161743</v>
       </c>
       <c r="B138" t="n">
-        <v>0.04826492816209793</v>
+        <v>-0.1608254760503769</v>
       </c>
     </row>
     <row r="139">
@@ -1672,7 +1649,7 @@
         <v>0.6572864055633545</v>
       </c>
       <c r="B139" t="n">
-        <v>0.04844098538160324</v>
+        <v>-0.1619425714015961</v>
       </c>
     </row>
     <row r="140">
@@ -1680,7 +1657,7 @@
         <v>0.6628140807151794</v>
       </c>
       <c r="B140" t="n">
-        <v>0.04861366003751755</v>
+        <v>-0.1630566418170929</v>
       </c>
     </row>
     <row r="141">
@@ -1688,7 +1665,7 @@
         <v>0.6683416962623596</v>
       </c>
       <c r="B141" t="n">
-        <v>0.04878289252519608</v>
+        <v>-0.1641674339771271</v>
       </c>
     </row>
     <row r="142">
@@ -1696,7 +1673,7 @@
         <v>0.6738693714141846</v>
       </c>
       <c r="B142" t="n">
-        <v>0.04894868284463882</v>
+        <v>-0.1652752161026001</v>
       </c>
     </row>
     <row r="143">
@@ -1704,7 +1681,7 @@
         <v>0.6793969869613647</v>
       </c>
       <c r="B143" t="n">
-        <v>0.04911095649003983</v>
+        <v>-0.1663798093795776</v>
       </c>
     </row>
     <row r="144">
@@ -1712,7 +1689,7 @@
         <v>0.6849246025085449</v>
       </c>
       <c r="B144" t="n">
-        <v>0.04926996678113937</v>
+        <v>-0.1674811989068985</v>
       </c>
     </row>
     <row r="145">
@@ -1720,7 +1697,7 @@
         <v>0.6904522776603699</v>
       </c>
       <c r="B145" t="n">
-        <v>0.04942547529935837</v>
+        <v>-0.1685794293880463</v>
       </c>
     </row>
     <row r="146">
@@ -1728,7 +1705,7 @@
         <v>0.69597989320755</v>
       </c>
       <c r="B146" t="n">
-        <v>0.049577496945858</v>
+        <v>-0.1696743369102478</v>
       </c>
     </row>
     <row r="147">
@@ -1736,7 +1713,7 @@
         <v>0.7015075087547302</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0497262105345726</v>
+        <v>-0.1707662343978882</v>
       </c>
     </row>
     <row r="148">
@@ -1744,7 +1721,7 @@
         <v>0.7070351839065552</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0498715415596962</v>
+        <v>-0.1718547493219376</v>
       </c>
     </row>
     <row r="149">
@@ -1752,7 +1729,7 @@
         <v>0.7125627994537354</v>
       </c>
       <c r="B149" t="n">
-        <v>0.05001334100961685</v>
+        <v>-0.1729400157928467</v>
       </c>
     </row>
     <row r="150">
@@ -1760,7 +1737,7 @@
         <v>0.7180904746055603</v>
       </c>
       <c r="B150" t="n">
-        <v>0.05015195161104202</v>
+        <v>-0.1740221679210663</v>
       </c>
     </row>
     <row r="151">
@@ -1768,7 +1745,7 @@
         <v>0.7236180901527405</v>
       </c>
       <c r="B151" t="n">
-        <v>0.05028709024190903</v>
+        <v>-0.1751009076833725</v>
       </c>
     </row>
     <row r="152">
@@ -1776,7 +1753,7 @@
         <v>0.7291457056999207</v>
       </c>
       <c r="B152" t="n">
-        <v>0.05041883140802383</v>
+        <v>-0.1761763691902161</v>
       </c>
     </row>
     <row r="153">
@@ -1784,7 +1761,7 @@
         <v>0.7346733808517456</v>
       </c>
       <c r="B153" t="n">
-        <v>0.05054714530706406</v>
+        <v>-0.1772486418485641</v>
       </c>
     </row>
     <row r="154">
@@ -1792,7 +1769,7 @@
         <v>0.7402009963989258</v>
       </c>
       <c r="B154" t="n">
-        <v>0.05067219585180283</v>
+        <v>-0.1783175319433212</v>
       </c>
     </row>
     <row r="155">
@@ -1800,7 +1777,7 @@
         <v>0.7457286715507507</v>
       </c>
       <c r="B155" t="n">
-        <v>0.05079393833875656</v>
+        <v>-0.1793830394744873</v>
       </c>
     </row>
     <row r="156">
@@ -1808,7 +1785,7 @@
         <v>0.7512562870979309</v>
       </c>
       <c r="B156" t="n">
-        <v>0.05091225355863571</v>
+        <v>-0.1804452687501907</v>
       </c>
     </row>
     <row r="157">
@@ -1816,7 +1793,7 @@
         <v>0.7567839026451111</v>
       </c>
       <c r="B157" t="n">
-        <v>0.05102721601724625</v>
+        <v>-0.1815041899681091</v>
       </c>
     </row>
     <row r="158">
@@ -1824,7 +1801,7 @@
         <v>0.762311577796936</v>
       </c>
       <c r="B158" t="n">
-        <v>0.05113903433084488</v>
+        <v>-0.1825597286224365</v>
       </c>
     </row>
     <row r="159">
@@ -1832,7 +1809,7 @@
         <v>0.7678391933441162</v>
       </c>
       <c r="B159" t="n">
-        <v>0.05124733597040176</v>
+        <v>-0.1836118698120117</v>
       </c>
     </row>
     <row r="160">
@@ -1840,7 +1817,7 @@
         <v>0.7733668088912964</v>
       </c>
       <c r="B160" t="n">
-        <v>0.05135249346494675</v>
+        <v>-0.1846605241298676</v>
       </c>
     </row>
     <row r="161">
@@ -1848,7 +1825,7 @@
         <v>0.7788944840431213</v>
       </c>
       <c r="B161" t="n">
-        <v>0.05145437270402908</v>
+        <v>-0.1857059448957443</v>
       </c>
     </row>
     <row r="162">
@@ -1856,7 +1833,7 @@
         <v>0.7844220995903015</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0515528991818428</v>
+        <v>-0.1867479979991913</v>
       </c>
     </row>
     <row r="163">
@@ -1864,7 +1841,7 @@
         <v>0.7899497747421265</v>
       </c>
       <c r="B163" t="n">
-        <v>0.05164816230535507</v>
+        <v>-0.1877864897251129</v>
       </c>
     </row>
     <row r="164">
@@ -1872,7 +1849,7 @@
         <v>0.7954773902893066</v>
       </c>
       <c r="B164" t="n">
-        <v>0.05174019187688828</v>
+        <v>-0.1888216435909271</v>
       </c>
     </row>
     <row r="165">
@@ -1880,7 +1857,7 @@
         <v>0.8010050058364868</v>
       </c>
       <c r="B165" t="n">
-        <v>0.05182913690805435</v>
+        <v>-0.1898534297943115</v>
       </c>
     </row>
     <row r="166">
@@ -1888,7 +1865,7 @@
         <v>0.8065326809883118</v>
       </c>
       <c r="B166" t="n">
-        <v>0.05191456526517868</v>
+        <v>-0.190881609916687</v>
       </c>
     </row>
     <row r="167">
@@ -1896,7 +1873,7 @@
         <v>0.8120602965354919</v>
       </c>
       <c r="B167" t="n">
-        <v>0.05199701339006424</v>
+        <v>-0.1919064074754715</v>
       </c>
     </row>
     <row r="168">
@@ -1904,7 +1881,7 @@
         <v>0.8175879120826721</v>
       </c>
       <c r="B168" t="n">
-        <v>0.05207622796297073</v>
+        <v>-0.1929278075695038</v>
       </c>
     </row>
     <row r="169">
@@ -1912,7 +1889,7 @@
         <v>0.8231155872344971</v>
       </c>
       <c r="B169" t="n">
-        <v>0.05215223878622055</v>
+        <v>-0.1939456462860107</v>
       </c>
     </row>
     <row r="170">
@@ -1920,7 +1897,7 @@
         <v>0.8286432027816772</v>
       </c>
       <c r="B170" t="n">
-        <v>0.05222500115633011</v>
+        <v>-0.1949601620435715</v>
       </c>
     </row>
     <row r="171">
@@ -1928,7 +1905,7 @@
         <v>0.8341708779335022</v>
       </c>
       <c r="B171" t="n">
-        <v>0.05229473859071732</v>
+        <v>-0.1959710419178009</v>
       </c>
     </row>
     <row r="172">
@@ -1936,7 +1913,7 @@
         <v>0.8396984934806824</v>
       </c>
       <c r="B172" t="n">
-        <v>0.05236131697893143</v>
+        <v>-0.196978360414505</v>
       </c>
     </row>
     <row r="173">
@@ -1944,7 +1921,7 @@
         <v>0.8452261090278625</v>
       </c>
       <c r="B173" t="n">
-        <v>0.05242467671632767</v>
+        <v>-0.1979822814464569</v>
       </c>
     </row>
     <row r="174">
@@ -1952,7 +1929,7 @@
         <v>0.8507537841796875</v>
       </c>
       <c r="B174" t="n">
-        <v>0.05248507112264633</v>
+        <v>-0.198982760310173</v>
       </c>
     </row>
     <row r="175">
@@ -1960,7 +1937,7 @@
         <v>0.8562813997268677</v>
       </c>
       <c r="B175" t="n">
-        <v>0.05254223197698593</v>
+        <v>-0.1999796330928802</v>
       </c>
     </row>
     <row r="176">
@@ -1968,7 +1945,7 @@
         <v>0.8618090748786926</v>
       </c>
       <c r="B176" t="n">
-        <v>0.05259647220373154</v>
+        <v>-0.2009729892015457</v>
       </c>
     </row>
     <row r="177">
@@ -1976,7 +1953,7 @@
         <v>0.8673366904258728</v>
       </c>
       <c r="B177" t="n">
-        <v>0.05264750868082047</v>
+        <v>-0.201962798833847</v>
       </c>
     </row>
     <row r="178">
@@ -1984,7 +1961,7 @@
         <v>0.872864305973053</v>
       </c>
       <c r="B178" t="n">
-        <v>0.05269552022218704</v>
+        <v>-0.2029491066932678</v>
       </c>
     </row>
     <row r="179">
@@ -1992,7 +1969,7 @@
         <v>0.8783919811248779</v>
       </c>
       <c r="B179" t="n">
-        <v>0.05274058133363724</v>
+        <v>-0.2039318084716797</v>
       </c>
     </row>
     <row r="180">
@@ -2000,7 +1977,7 @@
         <v>0.8839195966720581</v>
       </c>
       <c r="B180" t="n">
-        <v>0.05278261750936508</v>
+        <v>-0.2049111127853394</v>
       </c>
     </row>
     <row r="181">
@@ -2008,7 +1985,7 @@
         <v>0.8894472122192383</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0528215691447258</v>
+        <v>-0.2058866918087006</v>
       </c>
     </row>
     <row r="182">
@@ -2016,7 +1993,7 @@
         <v>0.8949748873710632</v>
       </c>
       <c r="B182" t="n">
-        <v>0.05285754054784775</v>
+        <v>-0.2068587839603424</v>
       </c>
     </row>
     <row r="183">
@@ -2024,7 +2001,7 @@
         <v>0.9005025029182434</v>
       </c>
       <c r="B183" t="n">
-        <v>0.05289065092802048</v>
+        <v>-0.2078272700309753</v>
       </c>
     </row>
     <row r="184">
@@ -2032,7 +2009,7 @@
         <v>0.9060301780700684</v>
       </c>
       <c r="B184" t="n">
-        <v>0.05292076617479324</v>
+        <v>-0.2087921947240829</v>
       </c>
     </row>
     <row r="185">
@@ -2040,7 +2017,7 @@
         <v>0.9115577936172485</v>
       </c>
       <c r="B185" t="n">
-        <v>0.05294790118932724</v>
+        <v>-0.2097535878419876</v>
       </c>
     </row>
     <row r="186">
@@ -2048,7 +2025,7 @@
         <v>0.9170854091644287</v>
       </c>
       <c r="B186" t="n">
-        <v>0.05297219008207321</v>
+        <v>-0.2107113301753998</v>
       </c>
     </row>
     <row r="187">
@@ -2056,7 +2033,7 @@
         <v>0.9226130843162537</v>
       </c>
       <c r="B187" t="n">
-        <v>0.05299358814954758</v>
+        <v>-0.2116654813289642</v>
       </c>
     </row>
     <row r="188">
@@ -2064,7 +2041,7 @@
         <v>0.9281406998634338</v>
       </c>
       <c r="B188" t="n">
-        <v>0.05301212519407272</v>
+        <v>-0.2126160562038422</v>
       </c>
     </row>
     <row r="189">
@@ -2072,7 +2049,7 @@
         <v>0.933668315410614</v>
       </c>
       <c r="B189" t="n">
-        <v>0.05302780121564865</v>
+        <v>-0.21356301009655</v>
       </c>
     </row>
     <row r="190">
@@ -2080,7 +2057,7 @@
         <v>0.939195990562439</v>
       </c>
       <c r="B190" t="n">
-        <v>0.05304060131311417</v>
+        <v>-0.2145063877105713</v>
       </c>
     </row>
     <row r="191">
@@ -2088,7 +2065,7 @@
         <v>0.9447236061096191</v>
       </c>
       <c r="B191" t="n">
-        <v>0.05305058509111404</v>
+        <v>-0.2154462337493896</v>
       </c>
     </row>
     <row r="192">
@@ -2096,7 +2073,7 @@
         <v>0.9502512812614441</v>
       </c>
       <c r="B192" t="n">
-        <v>0.05305784195661545</v>
+        <v>-0.2163823544979095</v>
       </c>
     </row>
     <row r="193">
@@ -2104,7 +2081,7 @@
         <v>0.9557788968086243</v>
       </c>
       <c r="B193" t="n">
-        <v>0.05306216329336166</v>
+        <v>-0.2173148691654205</v>
       </c>
     </row>
     <row r="194">
@@ -2112,7 +2089,7 @@
         <v>0.9613065123558044</v>
       </c>
       <c r="B194" t="n">
-        <v>0.05306384712457657</v>
+        <v>-0.2182438224554062</v>
       </c>
     </row>
     <row r="195">
@@ -2120,7 +2097,7 @@
         <v>0.9668341875076294</v>
       </c>
       <c r="B195" t="n">
-        <v>0.05306277424097061</v>
+        <v>-0.219169020652771</v>
       </c>
     </row>
     <row r="196">
@@ -2128,7 +2105,7 @@
         <v>0.9723618030548096</v>
       </c>
       <c r="B196" t="n">
-        <v>0.05305898934602737</v>
+        <v>-0.2200907766819</v>
       </c>
     </row>
     <row r="197">
@@ -2136,7 +2113,7 @@
         <v>0.9778894186019897</v>
       </c>
       <c r="B197" t="n">
-        <v>0.05305243283510208</v>
+        <v>-0.221008837223053</v>
       </c>
     </row>
     <row r="198">
@@ -2144,7 +2121,7 @@
         <v>0.9834170937538147</v>
       </c>
       <c r="B198" t="n">
-        <v>0.05304326862096786</v>
+        <v>-0.2219231575727463</v>
       </c>
     </row>
     <row r="199">
@@ -2152,7 +2129,7 @@
         <v>0.9889447093009949</v>
       </c>
       <c r="B199" t="n">
-        <v>0.05303130298852921</v>
+        <v>-0.2228340357542038</v>
       </c>
     </row>
     <row r="200">
@@ -2160,7 +2137,7 @@
         <v>0.9944723844528198</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0530167892575264</v>
+        <v>-0.2237411439418793</v>
       </c>
     </row>
     <row r="201">
@@ -2168,7 +2145,7 @@
         <v>1</v>
       </c>
       <c r="B201" t="n">
-        <v>0.05299969762563705</v>
+        <v>-0.2246447056531906</v>
       </c>
     </row>
     <row r="202">
@@ -2176,7 +2153,7 @@
         <v>1</v>
       </c>
       <c r="B202" t="n">
-        <v>0.05856632813811302</v>
+        <v>-0.09638112038373947</v>
       </c>
     </row>
     <row r="203">
@@ -2184,7 +2161,7 @@
         <v>1.045226097106934</v>
       </c>
       <c r="B203" t="n">
-        <v>0.05970117822289467</v>
+        <v>-0.0960395559668541</v>
       </c>
     </row>
     <row r="204">
@@ -2192,7 +2169,7 @@
         <v>1.090452313423157</v>
       </c>
       <c r="B204" t="n">
-        <v>0.06083336099982262</v>
+        <v>-0.09569792449474335</v>
       </c>
     </row>
     <row r="205">
@@ -2200,7 +2177,7 @@
         <v>1.13567841053009</v>
       </c>
       <c r="B205" t="n">
-        <v>0.06196275725960732</v>
+        <v>-0.09535623341798782</v>
       </c>
     </row>
     <row r="206">
@@ -2208,7 +2185,7 @@
         <v>1.180904507637024</v>
       </c>
       <c r="B206" t="n">
-        <v>0.06308935582637787</v>
+        <v>-0.09501456469297409</v>
       </c>
     </row>
     <row r="207">
@@ -2216,7 +2193,7 @@
         <v>1.226130604743958</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0642131045460701</v>
+        <v>-0.09467291086912155</v>
       </c>
     </row>
     <row r="208">
@@ -2224,7 +2201,7 @@
         <v>1.271356821060181</v>
       </c>
       <c r="B208" t="n">
-        <v>0.06533395498991013</v>
+        <v>-0.09433139860630035</v>
       </c>
     </row>
     <row r="209">
@@ -2232,7 +2209,7 @@
         <v>1.316582918167114</v>
       </c>
       <c r="B209" t="n">
-        <v>0.06645185500383377</v>
+        <v>-0.09399000555276871</v>
       </c>
     </row>
     <row r="210">
@@ -2240,7 +2217,7 @@
         <v>1.361809015274048</v>
       </c>
       <c r="B210" t="n">
-        <v>0.06756671518087387</v>
+        <v>-0.09364881366491318</v>
       </c>
     </row>
     <row r="211">
@@ -2248,7 +2225,7 @@
         <v>1.407035231590271</v>
       </c>
       <c r="B211" t="n">
-        <v>0.06867853552103043</v>
+        <v>-0.09330784529447556</v>
       </c>
     </row>
     <row r="212">
@@ -2256,7 +2233,7 @@
         <v>1.452261328697205</v>
       </c>
       <c r="B212" t="n">
-        <v>0.06978727132081985</v>
+        <v>-0.09296717494726181</v>
       </c>
     </row>
     <row r="213">
@@ -2264,7 +2241,7 @@
         <v>1.497487425804138</v>
       </c>
       <c r="B213" t="n">
-        <v>0.0708928108215332</v>
+        <v>-0.09262681752443314</v>
       </c>
     </row>
     <row r="214">
@@ -2272,7 +2249,7 @@
         <v>1.542713522911072</v>
       </c>
       <c r="B214" t="n">
-        <v>0.07199516892433167</v>
+        <v>-0.09228683263063431</v>
       </c>
     </row>
     <row r="215">
@@ -2280,7 +2257,7 @@
         <v>1.587939739227295</v>
       </c>
       <c r="B215" t="n">
-        <v>0.07309431582689285</v>
+        <v>-0.09194720536470413</v>
       </c>
     </row>
     <row r="216">
@@ -2288,7 +2265,7 @@
         <v>1.633165836334229</v>
       </c>
       <c r="B216" t="n">
-        <v>0.07419005781412125</v>
+        <v>-0.09160808473825455</v>
       </c>
     </row>
     <row r="217">
@@ -2296,7 +2273,7 @@
         <v>1.678391933441162</v>
       </c>
       <c r="B217" t="n">
-        <v>0.07528256624937057</v>
+        <v>-0.09126941114664078</v>
       </c>
     </row>
     <row r="218">
@@ -2304,7 +2281,7 @@
         <v>1.723618149757385</v>
       </c>
       <c r="B218" t="n">
-        <v>0.07637161761522293</v>
+        <v>-0.09093132615089417</v>
       </c>
     </row>
     <row r="219">
@@ -2312,7 +2289,7 @@
         <v>1.768844246864319</v>
       </c>
       <c r="B219" t="n">
-        <v>0.0774572566151619</v>
+        <v>-0.09059377014636993</v>
       </c>
     </row>
     <row r="220">
@@ -2320,7 +2297,7 @@
         <v>1.814070343971252</v>
       </c>
       <c r="B220" t="n">
-        <v>0.07853939384222031</v>
+        <v>-0.09025685489177704</v>
       </c>
     </row>
     <row r="221">
@@ -2328,7 +2305,7 @@
         <v>1.859296441078186</v>
       </c>
       <c r="B221" t="n">
-        <v>0.07961804419755936</v>
+        <v>-0.08992060273885727</v>
       </c>
     </row>
     <row r="222">
@@ -2336,7 +2313,7 @@
         <v>1.904522657394409</v>
       </c>
       <c r="B222" t="n">
-        <v>0.08069310337305069</v>
+        <v>-0.08958502113819122</v>
       </c>
     </row>
     <row r="223">
@@ -2344,7 +2321,7 @@
         <v>1.949748754501343</v>
       </c>
       <c r="B223" t="n">
-        <v>0.08176450431346893</v>
+        <v>-0.08925017714500427</v>
       </c>
     </row>
     <row r="224">
@@ -2352,7 +2329,7 @@
         <v>1.994974851608276</v>
       </c>
       <c r="B224" t="n">
-        <v>0.08283229917287827</v>
+        <v>-0.0889161005616188</v>
       </c>
     </row>
     <row r="225">
@@ -2360,7 +2337,7 @@
         <v>2.04020094871521</v>
       </c>
       <c r="B225" t="n">
-        <v>0.08389640599489212</v>
+        <v>-0.0885828360915184</v>
       </c>
     </row>
     <row r="226">
@@ -2368,7 +2345,7 @@
         <v>2.085427045822144</v>
       </c>
       <c r="B226" t="n">
-        <v>0.08495672792196274</v>
+        <v>-0.08825042098760605</v>
       </c>
     </row>
     <row r="227">
@@ -2376,7 +2353,7 @@
         <v>2.130653381347656</v>
       </c>
       <c r="B227" t="n">
-        <v>0.08601329475641251</v>
+        <v>-0.08791886270046234</v>
       </c>
     </row>
     <row r="228">
@@ -2384,7 +2361,7 @@
         <v>2.17587947845459</v>
       </c>
       <c r="B228" t="n">
-        <v>0.08706604689359665</v>
+        <v>-0.08758816868066788</v>
       </c>
     </row>
     <row r="229">
@@ -2392,7 +2369,7 @@
         <v>2.221105575561523</v>
       </c>
       <c r="B229" t="n">
-        <v>0.08811494708061218</v>
+        <v>-0.087258480489254</v>
       </c>
     </row>
     <row r="230">
@@ -2400,7 +2377,7 @@
         <v>2.266331672668457</v>
       </c>
       <c r="B230" t="n">
-        <v>0.08915989100933075</v>
+        <v>-0.08692973107099533</v>
       </c>
     </row>
     <row r="231">
@@ -2408,7 +2385,7 @@
         <v>2.311557769775391</v>
       </c>
       <c r="B231" t="n">
-        <v>0.09020095318555832</v>
+        <v>-0.08660198748111725</v>
       </c>
     </row>
     <row r="232">
@@ -2416,7 +2393,7 @@
         <v>2.356783866882324</v>
       </c>
       <c r="B232" t="n">
-        <v>0.09123801440000534</v>
+        <v>-0.08627528697252274</v>
       </c>
     </row>
     <row r="233">
@@ -2424,7 +2401,7 @@
         <v>2.402009963989258</v>
       </c>
       <c r="B233" t="n">
-        <v>0.09227103739976883</v>
+        <v>-0.08594965189695358</v>
       </c>
     </row>
     <row r="234">
@@ -2432,7 +2409,7 @@
         <v>2.447236299514771</v>
       </c>
       <c r="B234" t="n">
-        <v>0.09330005198717117</v>
+        <v>-0.08562508225440979</v>
       </c>
     </row>
     <row r="235">
@@ -2440,7 +2417,7 @@
         <v>2.492462396621704</v>
       </c>
       <c r="B235" t="n">
-        <v>0.09432492405176163</v>
+        <v>-0.08530168980360031</v>
       </c>
     </row>
     <row r="236">
@@ -2448,7 +2425,7 @@
         <v>2.537688493728638</v>
       </c>
       <c r="B236" t="n">
-        <v>0.09534571319818497</v>
+        <v>-0.08497945219278336</v>
       </c>
     </row>
     <row r="237">
@@ -2456,7 +2433,7 @@
         <v>2.582914590835571</v>
       </c>
       <c r="B237" t="n">
-        <v>0.09636232256889343</v>
+        <v>-0.08465836197137833</v>
       </c>
     </row>
     <row r="238">
@@ -2464,7 +2441,7 @@
         <v>2.628140687942505</v>
       </c>
       <c r="B238" t="n">
-        <v>0.09737474471330643</v>
+        <v>-0.08433847874403</v>
       </c>
     </row>
     <row r="239">
@@ -2472,7 +2449,7 @@
         <v>2.673366785049438</v>
       </c>
       <c r="B239" t="n">
-        <v>0.09838291257619858</v>
+        <v>-0.08401983231306076</v>
       </c>
     </row>
     <row r="240">
@@ -2480,7 +2457,7 @@
         <v>2.718592882156372</v>
       </c>
       <c r="B240" t="n">
-        <v>0.09938686341047287</v>
+        <v>-0.083702452480793</v>
       </c>
     </row>
     <row r="241">
@@ -2488,7 +2465,7 @@
         <v>2.763818979263306</v>
       </c>
       <c r="B241" t="n">
-        <v>0.1003864482045174</v>
+        <v>-0.08338630944490433</v>
       </c>
     </row>
     <row r="242">
@@ -2496,7 +2473,7 @@
         <v>2.809045314788818</v>
       </c>
       <c r="B242" t="n">
-        <v>0.1013818308711052</v>
+        <v>-0.08307153731584549</v>
       </c>
     </row>
     <row r="243">
@@ -2504,7 +2481,7 @@
         <v>2.854271411895752</v>
       </c>
       <c r="B243" t="n">
-        <v>0.1023727059364319</v>
+        <v>-0.08275805413722992</v>
       </c>
     </row>
     <row r="244">
@@ -2512,7 +2489,7 @@
         <v>2.899497509002686</v>
       </c>
       <c r="B244" t="n">
-        <v>0.1033592745661736</v>
+        <v>-0.0824458971619606</v>
       </c>
     </row>
     <row r="245">
@@ -2520,7 +2497,7 @@
         <v>2.944723606109619</v>
       </c>
       <c r="B245" t="n">
-        <v>0.1043413728475571</v>
+        <v>-0.08213511854410172</v>
       </c>
     </row>
     <row r="246">
@@ -2528,7 +2505,7 @@
         <v>2.989949703216553</v>
       </c>
       <c r="B246" t="n">
-        <v>0.1053190901875496</v>
+        <v>-0.08182572573423386</v>
       </c>
     </row>
     <row r="247">
@@ -2536,7 +2513,7 @@
         <v>3.035175800323486</v>
       </c>
       <c r="B247" t="n">
-        <v>0.1062922552227974</v>
+        <v>-0.08151775598526001</v>
       </c>
     </row>
     <row r="248">
@@ -2544,7 +2521,7 @@
         <v>3.08040189743042</v>
       </c>
       <c r="B248" t="n">
-        <v>0.1072609722614288</v>
+        <v>-0.081211157143116</v>
       </c>
     </row>
     <row r="249">
@@ -2552,7 +2529,7 @@
         <v>3.125628232955933</v>
       </c>
       <c r="B249" t="n">
-        <v>0.1082250997424126</v>
+        <v>-0.08090603351593018</v>
       </c>
     </row>
     <row r="250">
@@ -2560,7 +2537,7 @@
         <v>3.170854330062866</v>
       </c>
       <c r="B250" t="n">
-        <v>0.1091847345232964</v>
+        <v>-0.08060231059789658</v>
       </c>
     </row>
     <row r="251">
@@ -2568,7 +2545,7 @@
         <v>3.2160804271698</v>
       </c>
       <c r="B251" t="n">
-        <v>0.1101397052407265</v>
+        <v>-0.08030013740062714</v>
       </c>
     </row>
     <row r="252">
@@ -2576,7 +2553,7 @@
         <v>3.261306524276733</v>
       </c>
       <c r="B252" t="n">
-        <v>0.1110901087522507</v>
+        <v>-0.0799994096159935</v>
       </c>
     </row>
     <row r="253">
@@ -2584,7 +2561,7 @@
         <v>3.306532621383667</v>
       </c>
       <c r="B253" t="n">
-        <v>0.1120358631014824</v>
+        <v>-0.07970020174980164</v>
       </c>
     </row>
     <row r="254">
@@ -2592,7 +2569,7 @@
         <v>3.351758718490601</v>
       </c>
       <c r="B254" t="n">
-        <v>0.1129769533872604</v>
+        <v>-0.07940246164798737</v>
       </c>
     </row>
     <row r="255">
@@ -2600,7 +2577,7 @@
         <v>3.396984815597534</v>
       </c>
       <c r="B255" t="n">
-        <v>0.1139132902026176</v>
+        <v>-0.07910624891519547</v>
       </c>
     </row>
     <row r="256">
@@ -2608,7 +2585,7 @@
         <v>3.442211151123047</v>
       </c>
       <c r="B256" t="n">
-        <v>0.1148449406027794</v>
+        <v>-0.07881159335374832</v>
       </c>
     </row>
     <row r="257">
@@ -2616,7 +2593,7 @@
         <v>3.48743724822998</v>
       </c>
       <c r="B257" t="n">
-        <v>0.1157719492912292</v>
+        <v>-0.07851844280958176</v>
       </c>
     </row>
     <row r="258">
@@ -2624,7 +2601,7 @@
         <v>3.532663345336914</v>
       </c>
       <c r="B258" t="n">
-        <v>0.1166941076517105</v>
+        <v>-0.07822689414024353</v>
       </c>
     </row>
     <row r="259">
@@ -2632,7 +2609,7 @@
         <v>3.577889442443848</v>
       </c>
       <c r="B259" t="n">
-        <v>0.117611475288868</v>
+        <v>-0.07793689519166946</v>
       </c>
     </row>
     <row r="260">
@@ -2640,7 +2617,7 @@
         <v>3.623115539550781</v>
       </c>
       <c r="B260" t="n">
-        <v>0.1185240373015404</v>
+        <v>-0.07764844596385956</v>
       </c>
     </row>
     <row r="261">
@@ -2648,7 +2625,7 @@
         <v>3.668341636657715</v>
       </c>
       <c r="B261" t="n">
-        <v>0.119431845843792</v>
+        <v>-0.0773615762591362</v>
       </c>
     </row>
     <row r="262">
@@ -2656,7 +2633,7 @@
         <v>3.713567733764648</v>
       </c>
       <c r="B262" t="n">
-        <v>0.120334766805172</v>
+        <v>-0.07707629352807999</v>
       </c>
     </row>
     <row r="263">
@@ -2664,7 +2641,7 @@
         <v>3.758794069290161</v>
       </c>
       <c r="B263" t="n">
-        <v>0.1212328299880028</v>
+        <v>-0.07679262012243271</v>
       </c>
     </row>
     <row r="264">
@@ -2672,7 +2649,7 @@
         <v>3.804020166397095</v>
       </c>
       <c r="B264" t="n">
-        <v>0.1221259757876396</v>
+        <v>-0.0765104740858078</v>
       </c>
     </row>
     <row r="265">
@@ -2680,7 +2657,7 @@
         <v>3.849246263504028</v>
       </c>
       <c r="B265" t="n">
-        <v>0.1230142638087273</v>
+        <v>-0.0762299969792366</v>
       </c>
     </row>
     <row r="266">
@@ -2688,7 +2665,7 @@
         <v>3.894472360610962</v>
       </c>
       <c r="B266" t="n">
-        <v>0.1238976493477821</v>
+        <v>-0.07595107704401016</v>
       </c>
     </row>
     <row r="267">
@@ -2696,7 +2673,7 @@
         <v>3.939698457717896</v>
       </c>
       <c r="B267" t="n">
-        <v>0.1247760728001595</v>
+        <v>-0.07567381113767624</v>
       </c>
     </row>
     <row r="268">
@@ -2704,7 +2681,7 @@
         <v>3.984924554824829</v>
       </c>
       <c r="B268" t="n">
-        <v>0.1256495863199234</v>
+        <v>-0.07539806514978409</v>
       </c>
     </row>
     <row r="269">
@@ -2712,7 +2689,7 @@
         <v>4.030150890350342</v>
       </c>
       <c r="B269" t="n">
-        <v>0.1265180855989456</v>
+        <v>-0.07512401789426804</v>
       </c>
     </row>
     <row r="270">
@@ -2720,7 +2697,7 @@
         <v>4.075376987457275</v>
       </c>
       <c r="B270" t="n">
-        <v>0.1273816376924515</v>
+        <v>-0.07485153526067734</v>
       </c>
     </row>
     <row r="271">
@@ -2728,7 +2705,7 @@
         <v>4.120603084564209</v>
       </c>
       <c r="B271" t="n">
-        <v>0.1282401978969574</v>
+        <v>-0.07458063215017319</v>
       </c>
     </row>
     <row r="272">
@@ -2736,7 +2713,7 @@
         <v>4.165829181671143</v>
       </c>
       <c r="B272" t="n">
-        <v>0.1290936768054962</v>
+        <v>-0.07431139796972275</v>
       </c>
     </row>
     <row r="273">
@@ -2744,7 +2721,7 @@
         <v>4.211055278778076</v>
       </c>
       <c r="B273" t="n">
-        <v>0.1299422234296799</v>
+        <v>-0.07404375821352005</v>
       </c>
     </row>
     <row r="274">
@@ -2752,7 +2729,7 @@
         <v>4.25628137588501</v>
       </c>
       <c r="B274" t="n">
-        <v>0.130785658955574</v>
+        <v>-0.0737776979804039</v>
       </c>
     </row>
     <row r="275">
@@ -2760,7 +2737,7 @@
         <v>4.301507472991943</v>
       </c>
       <c r="B275" t="n">
-        <v>0.1316241174936295</v>
+        <v>-0.07351326197385788</v>
       </c>
     </row>
     <row r="276">
@@ -2768,7 +2745,7 @@
         <v>4.346733570098877</v>
       </c>
       <c r="B276" t="n">
-        <v>0.1324574500322342</v>
+        <v>-0.07325046509504318</v>
       </c>
     </row>
     <row r="277">
@@ -2776,7 +2753,7 @@
         <v>4.391959667205811</v>
       </c>
       <c r="B277" t="n">
-        <v>0.1332857459783554</v>
+        <v>-0.07298912853002548</v>
       </c>
     </row>
     <row r="278">
@@ -2784,7 +2761,7 @@
         <v>4.437185764312744</v>
       </c>
       <c r="B278" t="n">
-        <v>0.1341089457273483</v>
+        <v>-0.07272943109273911</v>
       </c>
     </row>
     <row r="279">
@@ -2792,7 +2769,7 @@
         <v>4.482411861419678</v>
       </c>
       <c r="B279" t="n">
-        <v>0.1349271088838577</v>
+        <v>-0.07247138768434525</v>
       </c>
     </row>
     <row r="280">
@@ -2800,7 +2777,7 @@
         <v>4.527637958526611</v>
       </c>
       <c r="B280" t="n">
-        <v>0.1357400864362717</v>
+        <v>-0.07221488654613495</v>
       </c>
     </row>
     <row r="281">
@@ -2808,7 +2785,7 @@
         <v>4.572864532470703</v>
       </c>
       <c r="B281" t="n">
-        <v>0.1365479677915573</v>
+        <v>-0.07196000963449478</v>
       </c>
     </row>
     <row r="282">
@@ -2816,7 +2793,7 @@
         <v>4.618090629577637</v>
       </c>
       <c r="B282" t="n">
-        <v>0.137350782752037</v>
+        <v>-0.0717066153883934</v>
       </c>
     </row>
     <row r="283">
@@ -2824,7 +2801,7 @@
         <v>4.66331672668457</v>
       </c>
       <c r="B283" t="n">
-        <v>0.1381484121084213</v>
+        <v>-0.07145487517118454</v>
       </c>
     </row>
     <row r="284">
@@ -2832,7 +2809,7 @@
         <v>4.708542823791504</v>
       </c>
       <c r="B284" t="n">
-        <v>0.1389409750699997</v>
+        <v>-0.07120459526777267</v>
       </c>
     </row>
     <row r="285">
@@ -2840,7 +2817,7 @@
         <v>4.753768920898438</v>
       </c>
       <c r="B285" t="n">
-        <v>0.1397283226251602</v>
+        <v>-0.07095587998628616</v>
       </c>
     </row>
     <row r="286">
@@ -2848,7 +2825,7 @@
         <v>4.798995018005371</v>
       </c>
       <c r="B286" t="n">
-        <v>0.1405106335878372</v>
+        <v>-0.0707087442278862</v>
       </c>
     </row>
     <row r="287">
@@ -2856,7 +2833,7 @@
         <v>4.844221115112305</v>
       </c>
       <c r="B287" t="n">
-        <v>0.1412877142429352</v>
+        <v>-0.07046309858560562</v>
       </c>
     </row>
     <row r="288">
@@ -2864,7 +2841,7 @@
         <v>4.889447212219238</v>
       </c>
       <c r="B288" t="n">
-        <v>0.1420596987009048</v>
+        <v>-0.07021899521350861</v>
       </c>
     </row>
     <row r="289">
@@ -2872,7 +2849,7 @@
         <v>4.934673309326172</v>
       </c>
       <c r="B289" t="n">
-        <v>0.1428263932466507</v>
+        <v>-0.06997636705636978</v>
       </c>
     </row>
     <row r="290">
@@ -2880,7 +2857,7 @@
         <v>4.979899406433105</v>
       </c>
       <c r="B290" t="n">
-        <v>0.1435880362987518</v>
+        <v>-0.06973528116941452</v>
       </c>
     </row>
     <row r="291">
@@ -2888,7 +2865,7 @@
         <v>5.025125503540039</v>
       </c>
       <c r="B291" t="n">
-        <v>0.1443444639444351</v>
+        <v>-0.06949561834335327</v>
       </c>
     </row>
     <row r="292">
@@ -2896,7 +2873,7 @@
         <v>5.070351600646973</v>
       </c>
       <c r="B292" t="n">
-        <v>0.1450957208871841</v>
+        <v>-0.06925738602876663</v>
       </c>
     </row>
     <row r="293">
@@ -2904,7 +2881,7 @@
         <v>5.115577697753906</v>
       </c>
       <c r="B293" t="n">
-        <v>0.1458418071269989</v>
+        <v>-0.06902066618204117</v>
       </c>
     </row>
     <row r="294">
@@ -2912,7 +2889,7 @@
         <v>5.16080379486084</v>
       </c>
       <c r="B294" t="n">
-        <v>0.1465827077627182</v>
+        <v>-0.06878551095724106</v>
       </c>
     </row>
     <row r="295">
@@ -2920,7 +2897,7 @@
         <v>5.206030368804932</v>
       </c>
       <c r="B295" t="n">
-        <v>0.1473184078931808</v>
+        <v>-0.06855172663927078</v>
       </c>
     </row>
     <row r="296">
@@ -2928,7 +2905,7 @@
         <v>5.251256465911865</v>
       </c>
       <c r="B296" t="n">
-        <v>0.1480490118265152</v>
+        <v>-0.06831925362348557</v>
       </c>
     </row>
     <row r="297">
@@ -2936,7 +2913,7 @@
         <v>5.296482563018799</v>
       </c>
       <c r="B297" t="n">
-        <v>0.1487743705511093</v>
+        <v>-0.06808826327323914</v>
       </c>
     </row>
     <row r="298">
@@ -2944,7 +2921,7 @@
         <v>5.341708660125732</v>
       </c>
       <c r="B298" t="n">
-        <v>0.1494945734739304</v>
+        <v>-0.06785871088504791</v>
       </c>
     </row>
     <row r="299">
@@ -2952,7 +2929,7 @@
         <v>5.386934757232666</v>
       </c>
       <c r="B299" t="n">
-        <v>0.1502095609903336</v>
+        <v>-0.06763051450252533</v>
       </c>
     </row>
     <row r="300">
@@ -2960,7 +2937,7 @@
         <v>5.4321608543396</v>
       </c>
       <c r="B300" t="n">
-        <v>0.1509193927049637</v>
+        <v>-0.06740371137857437</v>
       </c>
     </row>
     <row r="301">
@@ -2968,7 +2945,7 @@
         <v>5.477386951446533</v>
       </c>
       <c r="B301" t="n">
-        <v>0.1516240984201431</v>
+        <v>-0.06717816740274429</v>
       </c>
     </row>
     <row r="302">
@@ -2976,7 +2953,7 @@
         <v>5.522613048553467</v>
       </c>
       <c r="B302" t="n">
-        <v>0.1523235887289047</v>
+        <v>-0.06695402413606644</v>
       </c>
     </row>
     <row r="303">
@@ -2984,7 +2961,7 @@
         <v>5.5678391456604</v>
       </c>
       <c r="B303" t="n">
-        <v>0.1530178040266037</v>
+        <v>-0.06673125922679901</v>
       </c>
     </row>
     <row r="304">
@@ -2992,7 +2969,7 @@
         <v>5.613065242767334</v>
       </c>
       <c r="B304" t="n">
-        <v>0.1537069231271744</v>
+        <v>-0.06650973856449127</v>
       </c>
     </row>
     <row r="305">
@@ -3000,7 +2977,7 @@
         <v>5.658291339874268</v>
       </c>
       <c r="B305" t="n">
-        <v>0.1543909311294556</v>
+        <v>-0.06628956645727158</v>
       </c>
     </row>
     <row r="306">
@@ -3008,7 +2985,7 @@
         <v>5.703517436981201</v>
       </c>
       <c r="B306" t="n">
-        <v>0.1550697237253189</v>
+        <v>-0.06607058644294739</v>
       </c>
     </row>
     <row r="307">
@@ -3016,7 +2993,7 @@
         <v>5.748743534088135</v>
       </c>
       <c r="B307" t="n">
-        <v>0.1557432860136032</v>
+        <v>-0.06585291773080826</v>
       </c>
     </row>
     <row r="308">
@@ -3024,7 +3001,7 @@
         <v>5.793969631195068</v>
       </c>
       <c r="B308" t="n">
-        <v>0.156411811709404</v>
+        <v>-0.06563644856214523</v>
       </c>
     </row>
     <row r="309">
@@ -3032,7 +3009,7 @@
         <v>5.83919620513916</v>
       </c>
       <c r="B309" t="n">
-        <v>0.1570751219987869</v>
+        <v>-0.0654212087392807</v>
       </c>
     </row>
     <row r="310">
@@ -3040,7 +3017,7 @@
         <v>5.884422302246094</v>
       </c>
       <c r="B310" t="n">
-        <v>0.1577333062887192</v>
+        <v>-0.06520725041627884</v>
       </c>
     </row>
     <row r="311">
@@ -3048,7 +3025,7 @@
         <v>5.929648399353027</v>
       </c>
       <c r="B311" t="n">
-        <v>0.1583863198757172</v>
+        <v>-0.0649944394826889</v>
       </c>
     </row>
     <row r="312">
@@ -3056,7 +3033,7 @@
         <v>5.974874496459961</v>
       </c>
       <c r="B312" t="n">
-        <v>0.1590342074632645</v>
+        <v>-0.06478279083967209</v>
       </c>
     </row>
     <row r="313">
@@ -3064,7 +3041,7 @@
         <v>6.020100593566895</v>
       </c>
       <c r="B313" t="n">
-        <v>0.1596768796443939</v>
+        <v>-0.06457225978374481</v>
       </c>
     </row>
     <row r="314">
@@ -3072,7 +3049,7 @@
         <v>6.065326690673828</v>
       </c>
       <c r="B314" t="n">
-        <v>0.1603145897388458</v>
+        <v>-0.06436299532651901</v>
       </c>
     </row>
     <row r="315">
@@ -3080,7 +3057,7 @@
         <v>6.110552787780762</v>
       </c>
       <c r="B315" t="n">
-        <v>0.1609470844268799</v>
+        <v>-0.06415475159883499</v>
       </c>
     </row>
     <row r="316">
@@ -3088,7 +3065,7 @@
         <v>6.155778884887695</v>
       </c>
       <c r="B316" t="n">
-        <v>0.1615744680166245</v>
+        <v>-0.0639476403594017</v>
       </c>
     </row>
     <row r="317">
@@ -3096,7 +3073,7 @@
         <v>6.201004981994629</v>
       </c>
       <c r="B317" t="n">
-        <v>0.1621968150138855</v>
+        <v>-0.06374160200357437</v>
       </c>
     </row>
     <row r="318">
@@ -3104,7 +3081,7 @@
         <v>6.246231079101562</v>
       </c>
       <c r="B318" t="n">
-        <v>0.1628140062093735</v>
+        <v>-0.06353664398193359</v>
       </c>
     </row>
     <row r="319">
@@ -3112,7 +3089,7 @@
         <v>6.291457176208496</v>
       </c>
       <c r="B319" t="n">
-        <v>0.1634261757135391</v>
+        <v>-0.06333279609680176</v>
       </c>
     </row>
     <row r="320">
@@ -3120,7 +3097,7 @@
         <v>6.33668327331543</v>
       </c>
       <c r="B320" t="n">
-        <v>0.1640331745147705</v>
+        <v>-0.06312989443540573</v>
       </c>
     </row>
     <row r="321">
@@ -3128,7 +3105,7 @@
         <v>6.381909370422363</v>
       </c>
       <c r="B321" t="n">
-        <v>0.1646351665258408</v>
+        <v>-0.06292803585529327</v>
       </c>
     </row>
     <row r="322">
@@ -3136,7 +3113,7 @@
         <v>6.427135467529297</v>
       </c>
       <c r="B322" t="n">
-        <v>0.1652320921421051</v>
+        <v>-0.0627271756529808</v>
       </c>
     </row>
     <row r="323">
@@ -3144,7 +3121,7 @@
         <v>6.472362041473389</v>
       </c>
       <c r="B323" t="n">
-        <v>0.1658239513635635</v>
+        <v>-0.06252724677324295</v>
       </c>
     </row>
     <row r="324">
@@ -3152,7 +3129,7 @@
         <v>6.517588138580322</v>
       </c>
       <c r="B324" t="n">
-        <v>0.1664107888936996</v>
+        <v>-0.06232834607362747</v>
       </c>
     </row>
     <row r="325">
@@ -3160,7 +3137,7 @@
         <v>6.562814235687256</v>
       </c>
       <c r="B325" t="n">
-        <v>0.1669926345348358</v>
+        <v>-0.06213032454252243</v>
       </c>
     </row>
     <row r="326">
@@ -3168,7 +3145,7 @@
         <v>6.608040332794189</v>
       </c>
       <c r="B326" t="n">
-        <v>0.1675694137811661</v>
+        <v>-0.0619332566857338</v>
       </c>
     </row>
     <row r="327">
@@ -3176,7 +3153,7 @@
         <v>6.653266429901123</v>
       </c>
       <c r="B327" t="n">
-        <v>0.16814124584198</v>
+        <v>-0.06173709034919739</v>
       </c>
     </row>
     <row r="328">
@@ -3184,7 +3161,7 @@
         <v>6.698492527008057</v>
       </c>
       <c r="B328" t="n">
-        <v>0.1687079817056656</v>
+        <v>-0.06154177337884903</v>
       </c>
     </row>
     <row r="329">
@@ -3192,7 +3169,7 @@
         <v>6.74371862411499</v>
       </c>
       <c r="B329" t="n">
-        <v>0.1692698746919632</v>
+        <v>-0.06134732812643051</v>
       </c>
     </row>
     <row r="330">
@@ -3200,7 +3177,7 @@
         <v>6.788944721221924</v>
       </c>
       <c r="B330" t="n">
-        <v>0.1698266565799713</v>
+        <v>-0.06115376949310303</v>
       </c>
     </row>
     <row r="331">
@@ -3208,7 +3185,7 @@
         <v>6.834170818328857</v>
       </c>
       <c r="B331" t="n">
-        <v>0.1703786104917526</v>
+        <v>-0.06096095591783524</v>
       </c>
     </row>
     <row r="332">
@@ -3216,7 +3193,7 @@
         <v>6.879396915435791</v>
       </c>
       <c r="B332" t="n">
-        <v>0.1709255427122116</v>
+        <v>-0.06076908856630325</v>
       </c>
     </row>
     <row r="333">
@@ -3224,7 +3201,7 @@
         <v>6.924623012542725</v>
       </c>
       <c r="B333" t="n">
-        <v>0.1714675575494766</v>
+        <v>-0.06057780981063843</v>
       </c>
     </row>
     <row r="334">
@@ -3232,7 +3209,7 @@
         <v>6.969849109649658</v>
       </c>
       <c r="B334" t="n">
-        <v>0.1720047146081924</v>
+        <v>-0.06038747727870941</v>
       </c>
     </row>
     <row r="335">
@@ -3240,7 +3217,7 @@
         <v>7.015075206756592</v>
       </c>
       <c r="B335" t="n">
-        <v>0.1725368946790695</v>
+        <v>-0.0601978525519371</v>
       </c>
     </row>
     <row r="336">
@@ -3248,7 +3225,7 @@
         <v>7.060301303863525</v>
       </c>
       <c r="B336" t="n">
-        <v>0.1730642020702362</v>
+        <v>-0.06000887602567673</v>
       </c>
     </row>
     <row r="337">
@@ -3256,7 +3233,7 @@
         <v>7.105527400970459</v>
       </c>
       <c r="B337" t="n">
-        <v>0.1735867112874985</v>
+        <v>-0.0598207488656044</v>
       </c>
     </row>
     <row r="338">
@@ -3264,7 +3241,7 @@
         <v>7.150753974914551</v>
       </c>
       <c r="B338" t="n">
-        <v>0.1741041392087936</v>
+        <v>-0.05963322520256042</v>
       </c>
     </row>
     <row r="339">
@@ -3272,7 +3249,7 @@
         <v>7.195980072021484</v>
       </c>
       <c r="B339" t="n">
-        <v>0.1746169477701187</v>
+        <v>-0.05944638699293137</v>
       </c>
     </row>
     <row r="340">
@@ -3280,7 +3257,7 @@
         <v>7.241206169128418</v>
       </c>
       <c r="B340" t="n">
-        <v>0.1751248389482498</v>
+        <v>-0.05926015973091125</v>
       </c>
     </row>
     <row r="341">
@@ -3288,7 +3265,7 @@
         <v>7.286432266235352</v>
       </c>
       <c r="B341" t="n">
-        <v>0.1756278723478317</v>
+        <v>-0.05907464027404785</v>
       </c>
     </row>
     <row r="342">
@@ -3296,7 +3273,7 @@
         <v>7.331658363342285</v>
       </c>
       <c r="B342" t="n">
-        <v>0.176126167178154</v>
+        <v>-0.05888967961072922</v>
       </c>
     </row>
     <row r="343">
@@ -3304,7 +3281,7 @@
         <v>7.376884460449219</v>
       </c>
       <c r="B343" t="n">
-        <v>0.1766196042299271</v>
+        <v>-0.05870544165372849</v>
       </c>
     </row>
     <row r="344">
@@ -3312,7 +3289,7 @@
         <v>7.422110557556152</v>
       </c>
       <c r="B344" t="n">
-        <v>0.1771083623170853</v>
+        <v>-0.05852167308330536</v>
       </c>
     </row>
     <row r="345">
@@ -3320,7 +3297,7 @@
         <v>7.467336654663086</v>
       </c>
       <c r="B345" t="n">
-        <v>0.1775923222303391</v>
+        <v>-0.0583384782075882</v>
       </c>
     </row>
     <row r="346">
@@ -3328,7 +3305,7 @@
         <v>7.51256275177002</v>
       </c>
       <c r="B346" t="n">
-        <v>0.1780716776847839</v>
+        <v>-0.05815587192773819</v>
       </c>
     </row>
     <row r="347">
@@ -3336,7 +3313,7 @@
         <v>7.557788848876953</v>
       </c>
       <c r="B347" t="n">
-        <v>0.1785460561513901</v>
+        <v>-0.05797374248504639</v>
       </c>
     </row>
     <row r="348">
@@ -3344,7 +3321,7 @@
         <v>7.603014945983887</v>
       </c>
       <c r="B348" t="n">
-        <v>0.1790159642696381</v>
+        <v>-0.05779216438531876</v>
       </c>
     </row>
     <row r="349">
@@ -3352,7 +3329,7 @@
         <v>7.64824104309082</v>
       </c>
       <c r="B349" t="n">
-        <v>0.1794809848070145</v>
+        <v>-0.05761105567216873</v>
       </c>
     </row>
     <row r="350">
@@ -3360,7 +3337,7 @@
         <v>7.693467140197754</v>
       </c>
       <c r="B350" t="n">
-        <v>0.1799415349960327</v>
+        <v>-0.05743038654327393</v>
       </c>
     </row>
     <row r="351">
@@ -3368,7 +3345,7 @@
         <v>7.738693237304688</v>
       </c>
       <c r="B351" t="n">
-        <v>0.1803972274065018</v>
+        <v>-0.05725032836198807</v>
       </c>
     </row>
     <row r="352">
@@ -3376,7 +3353,7 @@
         <v>7.783919811248779</v>
       </c>
       <c r="B352" t="n">
-        <v>0.1808484941720963</v>
+        <v>-0.05707051604986191</v>
       </c>
     </row>
     <row r="353">
@@ -3384,7 +3361,7 @@
         <v>7.829145908355713</v>
       </c>
       <c r="B353" t="n">
-        <v>0.1812950372695923</v>
+        <v>-0.05689119547605515</v>
       </c>
     </row>
     <row r="354">
@@ -3392,7 +3369,7 @@
         <v>7.874372005462646</v>
       </c>
       <c r="B354" t="n">
-        <v>0.1817369610071182</v>
+        <v>-0.05671232938766479</v>
       </c>
     </row>
     <row r="355">
@@ -3400,7 +3377,7 @@
         <v>7.91959810256958</v>
       </c>
       <c r="B355" t="n">
-        <v>0.1821743547916412</v>
+        <v>-0.05653382837772369</v>
       </c>
     </row>
     <row r="356">
@@ -3408,7 +3385,7 @@
         <v>7.964824199676514</v>
       </c>
       <c r="B356" t="n">
-        <v>0.1826072037220001</v>
+        <v>-0.05635570734739304</v>
       </c>
     </row>
     <row r="357">
@@ -3416,7 +3393,7 @@
         <v>8.010049819946289</v>
       </c>
       <c r="B357" t="n">
-        <v>0.1830353289842606</v>
+        <v>-0.05617792159318924</v>
       </c>
     </row>
     <row r="358">
@@ -3424,7 +3401,7 @@
         <v>8.055275917053223</v>
       </c>
       <c r="B358" t="n">
-        <v>0.1834590584039688</v>
+        <v>-0.05600045621395111</v>
       </c>
     </row>
     <row r="359">
@@ -3432,7 +3409,7 @@
         <v>8.100502967834473</v>
       </c>
       <c r="B359" t="n">
-        <v>0.1838783621788025</v>
+        <v>-0.05582335591316223</v>
       </c>
     </row>
     <row r="360">
@@ -3440,7 +3417,7 @@
         <v>8.145729064941406</v>
       </c>
       <c r="B360" t="n">
-        <v>0.1842930465936661</v>
+        <v>-0.05564657598733902</v>
       </c>
     </row>
     <row r="361">
@@ -3448,7 +3425,7 @@
         <v>8.19095516204834</v>
       </c>
       <c r="B361" t="n">
-        <v>0.1847033351659775</v>
+        <v>-0.05546995997428894</v>
       </c>
     </row>
     <row r="362">
@@ -3456,7 +3433,7 @@
         <v>8.236181259155273</v>
       </c>
       <c r="B362" t="n">
-        <v>0.1851091235876083</v>
+        <v>-0.05529367923736572</v>
       </c>
     </row>
     <row r="363">
@@ -3464,7 +3441,7 @@
         <v>8.281407356262207</v>
       </c>
       <c r="B363" t="n">
-        <v>0.1855104267597198</v>
+        <v>-0.05511769652366638</v>
       </c>
     </row>
     <row r="364">
@@ -3472,7 +3449,7 @@
         <v>8.326633453369141</v>
       </c>
       <c r="B364" t="n">
-        <v>0.1859074681997299</v>
+        <v>-0.05494188517332077</v>
       </c>
     </row>
     <row r="365">
@@ -3480,7 +3457,7 @@
         <v>8.371859550476074</v>
       </c>
       <c r="B365" t="n">
-        <v>0.1863000094890594</v>
+        <v>-0.05476631969213486</v>
       </c>
     </row>
     <row r="366">
@@ -3488,7 +3465,7 @@
         <v>8.417085647583008</v>
       </c>
       <c r="B366" t="n">
-        <v>0.186688169836998</v>
+        <v>-0.05459100008010864</v>
       </c>
     </row>
     <row r="367">
@@ -3496,7 +3473,7 @@
         <v>8.462311744689941</v>
       </c>
       <c r="B367" t="n">
-        <v>0.1870720237493515</v>
+        <v>-0.05441591143608093</v>
       </c>
     </row>
     <row r="368">
@@ -3504,7 +3481,7 @@
         <v>8.507537841796875</v>
       </c>
       <c r="B368" t="n">
-        <v>0.1874516159296036</v>
+        <v>-0.0542408749461174</v>
       </c>
     </row>
     <row r="369">
@@ -3512,7 +3489,7 @@
         <v>8.552763938903809</v>
       </c>
       <c r="B369" t="n">
-        <v>0.1878267675638199</v>
+        <v>-0.05406612157821655</v>
       </c>
     </row>
     <row r="370">
@@ -3520,7 +3497,7 @@
         <v>8.597990036010742</v>
       </c>
       <c r="B370" t="n">
-        <v>0.1881976276636124</v>
+        <v>-0.0538913682103157</v>
       </c>
     </row>
     <row r="371">
@@ -3528,7 +3505,7 @@
         <v>8.643216133117676</v>
       </c>
       <c r="B371" t="n">
-        <v>0.1885642558336258</v>
+        <v>-0.05371692031621933</v>
       </c>
     </row>
     <row r="372">
@@ -3536,7 +3513,7 @@
         <v>8.688442230224609</v>
       </c>
       <c r="B372" t="n">
-        <v>0.1889266818761826</v>
+        <v>-0.05354255437850952</v>
       </c>
     </row>
     <row r="373">
@@ -3544,7 +3521,7 @@
         <v>8.733668327331543</v>
       </c>
       <c r="B373" t="n">
-        <v>0.1892847567796707</v>
+        <v>-0.05336819589138031</v>
       </c>
     </row>
     <row r="374">
@@ -3552,7 +3529,7 @@
         <v>8.778894424438477</v>
       </c>
       <c r="B374" t="n">
-        <v>0.1896386593580246</v>
+        <v>-0.05319400131702423</v>
       </c>
     </row>
     <row r="375">
@@ -3560,7 +3537,7 @@
         <v>8.82412052154541</v>
       </c>
       <c r="B375" t="n">
-        <v>0.1899883896112442</v>
+        <v>-0.05301983654499054</v>
       </c>
     </row>
     <row r="376">
@@ -3568,7 +3545,7 @@
         <v>8.869346618652344</v>
       </c>
       <c r="B376" t="n">
-        <v>0.1903339475393295</v>
+        <v>-0.05284567922353745</v>
       </c>
     </row>
     <row r="377">
@@ -3576,7 +3553,7 @@
         <v>8.914572715759277</v>
       </c>
       <c r="B377" t="n">
-        <v>0.1906754076480865</v>
+        <v>-0.05267170071601868</v>
       </c>
     </row>
     <row r="378">
@@ -3584,7 +3561,7 @@
         <v>8.959798812866211</v>
       </c>
       <c r="B378" t="n">
-        <v>0.1910126507282257</v>
+        <v>-0.05249769985675812</v>
       </c>
     </row>
     <row r="379">
@@ -3592,7 +3569,7 @@
         <v>9.005024909973145</v>
       </c>
       <c r="B379" t="n">
-        <v>0.1913457065820694</v>
+        <v>-0.05232375860214233</v>
       </c>
     </row>
     <row r="380">
@@ -3600,7 +3577,7 @@
         <v>9.050251007080078</v>
       </c>
       <c r="B380" t="n">
-        <v>0.1916748434305191</v>
+        <v>-0.05214983224868774</v>
       </c>
     </row>
     <row r="381">
@@ -3608,7 +3585,7 @@
         <v>9.095477104187012</v>
       </c>
       <c r="B381" t="n">
-        <v>0.1919998228549957</v>
+        <v>-0.05197592079639435</v>
       </c>
     </row>
     <row r="382">
@@ -3616,7 +3593,7 @@
         <v>9.140703201293945</v>
       </c>
       <c r="B382" t="n">
-        <v>0.1923207342624664</v>
+        <v>-0.05180197954177856</v>
       </c>
     </row>
     <row r="383">
@@ -3624,7 +3601,7 @@
         <v>9.185929298400879</v>
       </c>
       <c r="B383" t="n">
-        <v>0.1926376968622208</v>
+        <v>-0.05162788927555084</v>
       </c>
     </row>
     <row r="384">
@@ -3632,7 +3609,7 @@
         <v>9.231155395507812</v>
       </c>
       <c r="B384" t="n">
-        <v>0.1929506212472916</v>
+        <v>-0.05145388841629028</v>
       </c>
     </row>
     <row r="385">
@@ -3640,7 +3617,7 @@
         <v>9.276381492614746</v>
       </c>
       <c r="B385" t="n">
-        <v>0.1932595372200012</v>
+        <v>-0.05127973854541779</v>
       </c>
     </row>
     <row r="386">
@@ -3648,7 +3625,7 @@
         <v>9.32160758972168</v>
       </c>
       <c r="B386" t="n">
-        <v>0.1935645788908005</v>
+        <v>-0.05110563337802887</v>
       </c>
     </row>
     <row r="387">
@@ -3656,7 +3633,7 @@
         <v>9.36683464050293</v>
       </c>
       <c r="B387" t="n">
-        <v>0.193865567445755</v>
+        <v>-0.05093138664960861</v>
       </c>
     </row>
     <row r="388">
@@ -3664,7 +3641,7 @@
         <v>9.412060737609863</v>
       </c>
       <c r="B388" t="n">
-        <v>0.1941627413034439</v>
+        <v>-0.05075706541538239</v>
       </c>
     </row>
     <row r="389">
@@ -3672,7 +3649,7 @@
         <v>9.457286834716797</v>
       </c>
       <c r="B389" t="n">
-        <v>0.1944559365510941</v>
+        <v>-0.05058259516954422</v>
       </c>
     </row>
     <row r="390">
@@ -3680,7 +3657,7 @@
         <v>9.50251293182373</v>
       </c>
       <c r="B390" t="n">
-        <v>0.1947452276945114</v>
+        <v>-0.05040802806615829</v>
       </c>
     </row>
     <row r="391">
@@ -3688,7 +3665,7 @@
         <v>9.547739028930664</v>
       </c>
       <c r="B391" t="n">
-        <v>0.1950307488441467</v>
+        <v>-0.05023341625928879</v>
       </c>
     </row>
     <row r="392">
@@ -3696,7 +3673,7 @@
         <v>9.592965126037598</v>
       </c>
       <c r="B392" t="n">
-        <v>0.1953123211860657</v>
+        <v>-0.05005861818790436</v>
       </c>
     </row>
     <row r="393">
@@ -3704,7 +3681,7 @@
         <v>9.638191223144531</v>
       </c>
       <c r="B393" t="n">
-        <v>0.1955902278423309</v>
+        <v>-0.04988367855548859</v>
       </c>
     </row>
     <row r="394">
@@ -3712,7 +3689,7 @@
         <v>9.683417320251465</v>
       </c>
       <c r="B394" t="n">
-        <v>0.1958642601966858</v>
+        <v>-0.04970859736204147</v>
       </c>
     </row>
     <row r="395">
@@ -3720,7 +3697,7 @@
         <v>9.728643417358398</v>
       </c>
       <c r="B395" t="n">
-        <v>0.1961344629526138</v>
+        <v>-0.04953330755233765</v>
       </c>
     </row>
     <row r="396">
@@ -3728,7 +3705,7 @@
         <v>9.773869514465332</v>
       </c>
       <c r="B396" t="n">
-        <v>0.1964009702205658</v>
+        <v>-0.04935793578624725</v>
       </c>
     </row>
     <row r="397">
@@ -3736,7 +3713,7 @@
         <v>9.819095611572266</v>
       </c>
       <c r="B397" t="n">
-        <v>0.1966637521982193</v>
+        <v>-0.04918234050273895</v>
       </c>
     </row>
     <row r="398">
@@ -3744,7 +3721,7 @@
         <v>9.864321708679199</v>
       </c>
       <c r="B398" t="n">
-        <v>0.1969228833913803</v>
+        <v>-0.04900646209716797</v>
       </c>
     </row>
     <row r="399">
@@ -3752,7 +3729,7 @@
         <v>9.909547805786133</v>
       </c>
       <c r="B399" t="n">
-        <v>0.1971782296895981</v>
+        <v>-0.04883042722940445</v>
       </c>
     </row>
     <row r="400">
@@ -3760,7 +3737,7 @@
         <v>9.954773902893066</v>
       </c>
       <c r="B400" t="n">
-        <v>0.1974299103021622</v>
+        <v>-0.04865424335002899</v>
       </c>
     </row>
     <row r="401">
@@ -3768,7 +3745,7 @@
         <v>10</v>
       </c>
       <c r="B401" t="n">
-        <v>0.1976780742406845</v>
+        <v>-0.04847773164510727</v>
       </c>
     </row>
   </sheetData>

--- a/utils3d/results/results.xlsx
+++ b/utils3d/results/results.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,16 +473,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.405460834503174</v>
+        <v>22.13682746887207</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0001479678903706372</v>
+        <v>8.445732237305492e-05</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1399458199739456</v>
+        <v>0.09558027237653732</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -496,16 +496,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.117986083030701</v>
+        <v>21.64498710632324</v>
       </c>
       <c r="B3" t="n">
-        <v>3.654718238976784e-05</v>
+        <v>8.859923582349438e-06</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03395802155137062</v>
+        <v>0.02086022682487965</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -514,6 +514,190 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>21.45958518981934</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4.785470082424581e-06</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02503343112766743</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>21.4375</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.599928509676829e-05</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04358930885791779</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>21.47939682006836</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.559552012826316e-05</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.05771688744425774</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>21.50703048706055</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2.760745337582193e-05</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.05650247260928154</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>21.49966049194336</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2.279554792039562e-05</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.04235434532165527</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>21.47169303894043</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.544687438581605e-05</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0260066706687212</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>21.44048881530762</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9.199219675792847e-06</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.01493515446782112</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>21.41684341430664</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5.30583656654926e-06</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.009625900536775589</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -553,7 +737,7 @@
         <v>-0.1000000014901161</v>
       </c>
       <c r="B2" t="n">
-        <v>0.009987879544496536</v>
+        <v>0.1656679660081863</v>
       </c>
     </row>
     <row r="3">
@@ -561,7 +745,7 @@
         <v>-0.09447236359119415</v>
       </c>
       <c r="B3" t="n">
-        <v>0.008686192333698273</v>
+        <v>0.1650752574205399</v>
       </c>
     </row>
     <row r="4">
@@ -569,7 +753,7 @@
         <v>-0.08894472569227219</v>
       </c>
       <c r="B4" t="n">
-        <v>0.007383683696389198</v>
+        <v>0.1644761115312576</v>
       </c>
     </row>
     <row r="5">
@@ -577,7 +761,7 @@
         <v>-0.08341708779335022</v>
       </c>
       <c r="B5" t="n">
-        <v>0.006080398336052895</v>
+        <v>0.1638705134391785</v>
       </c>
     </row>
     <row r="6">
@@ -585,7 +769,7 @@
         <v>-0.07788944989442825</v>
       </c>
       <c r="B6" t="n">
-        <v>0.004776366055011749</v>
+        <v>0.1632585078477859</v>
       </c>
     </row>
     <row r="7">
@@ -593,7 +777,7 @@
         <v>-0.07236181199550629</v>
       </c>
       <c r="B7" t="n">
-        <v>0.003471618518233299</v>
+        <v>0.1626401096582413</v>
       </c>
     </row>
     <row r="8">
@@ -601,7 +785,7 @@
         <v>-0.06683417409658432</v>
       </c>
       <c r="B8" t="n">
-        <v>0.002166181802749634</v>
+        <v>0.1620153188705444</v>
       </c>
     </row>
     <row r="9">
@@ -609,7 +793,7 @@
         <v>-0.06130653247237206</v>
       </c>
       <c r="B9" t="n">
-        <v>0.000860121101140976</v>
+        <v>0.1613841354846954</v>
       </c>
     </row>
     <row r="10">
@@ -617,7 +801,7 @@
         <v>-0.05577889457345009</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.0004465579986572266</v>
+        <v>0.1607465893030167</v>
       </c>
     </row>
     <row r="11">
@@ -625,7 +809,7 @@
         <v>-0.05025125667452812</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.001753823831677437</v>
+        <v>0.1601026803255081</v>
       </c>
     </row>
     <row r="12">
@@ -633,7 +817,7 @@
         <v>-0.04472361877560616</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.003061616793274879</v>
+        <v>0.159452497959137</v>
       </c>
     </row>
     <row r="13">
@@ -641,7 +825,7 @@
         <v>-0.03919598087668419</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.004369935020804405</v>
+        <v>0.1587959975004196</v>
       </c>
     </row>
     <row r="14">
@@ -649,7 +833,7 @@
         <v>-0.03366834297776222</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.005678709596395493</v>
+        <v>0.158133253455162</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +841,7 @@
         <v>-0.02814070321619511</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.006987921893596649</v>
+        <v>0.1574642062187195</v>
       </c>
     </row>
     <row r="16">
@@ -665,7 +849,7 @@
         <v>-0.02261306531727314</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.008297557011246681</v>
+        <v>0.1567889600992203</v>
       </c>
     </row>
     <row r="17">
@@ -673,7 +857,7 @@
         <v>-0.01708542741835117</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.009607542306184769</v>
+        <v>0.1561075299978256</v>
       </c>
     </row>
     <row r="18">
@@ -681,7 +865,7 @@
         <v>-0.01155778858810663</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.01091784983873367</v>
+        <v>0.1554199606180191</v>
       </c>
     </row>
     <row r="19">
@@ -689,7 +873,7 @@
         <v>-0.006030150689184666</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.01222848519682884</v>
+        <v>0.1547262519598007</v>
       </c>
     </row>
     <row r="20">
@@ -697,7 +881,7 @@
         <v>-0.0005025125574320555</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.01353936269879341</v>
+        <v>0.1540265083312988</v>
       </c>
     </row>
     <row r="21">
@@ -705,7 +889,7 @@
         <v>0.005025125574320555</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.01485047489404678</v>
+        <v>0.153320699930191</v>
       </c>
     </row>
     <row r="22">
@@ -713,7 +897,7 @@
         <v>0.01055276393890381</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.01616178080439568</v>
+        <v>0.1526088863611221</v>
       </c>
     </row>
     <row r="23">
@@ -721,7 +905,7 @@
         <v>0.01608040183782578</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.01747323200106621</v>
+        <v>0.1518910974264145</v>
       </c>
     </row>
     <row r="24">
@@ -729,7 +913,7 @@
         <v>0.02160803973674774</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.01878480985760689</v>
+        <v>0.1511674374341965</v>
       </c>
     </row>
     <row r="25">
@@ -737,7 +921,7 @@
         <v>0.02713567763566971</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.02009651809930801</v>
+        <v>0.1504378467798233</v>
       </c>
     </row>
     <row r="26">
@@ -745,7 +929,7 @@
         <v>0.03266331553459167</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.02140824124217033</v>
+        <v>0.1497024744749069</v>
       </c>
     </row>
     <row r="27">
@@ -753,7 +937,7 @@
         <v>0.03819095343351364</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.02271998301148415</v>
+        <v>0.1489613205194473</v>
       </c>
     </row>
     <row r="28">
@@ -761,7 +945,7 @@
         <v>0.04371859133243561</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.02403170615434647</v>
+        <v>0.1482144147157669</v>
       </c>
     </row>
     <row r="29">
@@ -769,7 +953,7 @@
         <v>0.04924623295664787</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.0253433957695961</v>
+        <v>0.1474618166685104</v>
       </c>
     </row>
     <row r="30">
@@ -777,7 +961,7 @@
         <v>0.05477387085556984</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.02665501460433006</v>
+        <v>0.1467036157846451</v>
       </c>
     </row>
     <row r="31">
@@ -785,7 +969,7 @@
         <v>0.06030150875449181</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.02796648815274239</v>
+        <v>0.1459398418664932</v>
       </c>
     </row>
     <row r="32">
@@ -793,7 +977,7 @@
         <v>0.06582914292812347</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.02927779778838158</v>
+        <v>0.1451705396175385</v>
       </c>
     </row>
     <row r="33">
@@ -801,7 +985,7 @@
         <v>0.07135678082704544</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.03058892861008644</v>
+        <v>0.1443957835435867</v>
       </c>
     </row>
     <row r="34">
@@ -809,7 +993,7 @@
         <v>0.07688441872596741</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.03189980983734131</v>
+        <v>0.1436156034469604</v>
       </c>
     </row>
     <row r="35">
@@ -817,7 +1001,7 @@
         <v>0.08241205662488937</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.03321044892072678</v>
+        <v>0.142830103635788</v>
       </c>
     </row>
     <row r="36">
@@ -825,7 +1009,7 @@
         <v>0.08793970197439194</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.03452083468437195</v>
+        <v>0.1420392245054245</v>
       </c>
     </row>
     <row r="37">
@@ -833,7 +1017,7 @@
         <v>0.0934673398733139</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.03583085164427757</v>
+        <v>0.1412431746721268</v>
       </c>
     </row>
     <row r="38">
@@ -841,7 +1025,7 @@
         <v>0.09899497777223587</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.03714049980044365</v>
+        <v>0.1404419094324112</v>
       </c>
     </row>
     <row r="39">
@@ -849,7 +1033,7 @@
         <v>0.1045226156711578</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.03844975680112839</v>
+        <v>0.1396355330944061</v>
       </c>
     </row>
     <row r="40">
@@ -857,7 +1041,7 @@
         <v>0.1100502535700798</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.03975857794284821</v>
+        <v>0.1388241052627563</v>
       </c>
     </row>
     <row r="41">
@@ -865,7 +1049,7 @@
         <v>0.1155778914690018</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.04106695950031281</v>
+        <v>0.1380076557397842</v>
       </c>
     </row>
     <row r="42">
@@ -873,7 +1057,7 @@
         <v>0.1211055293679237</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.04237479716539383</v>
+        <v>0.1371862888336182</v>
       </c>
     </row>
     <row r="43">
@@ -881,7 +1065,7 @@
         <v>0.1266331672668457</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.04368211701512337</v>
+        <v>0.1363600343465805</v>
       </c>
     </row>
     <row r="44">
@@ -889,7 +1073,7 @@
         <v>0.1321607977151871</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.04498885571956635</v>
+        <v>0.1355289816856384</v>
       </c>
     </row>
     <row r="45">
@@ -897,7 +1081,7 @@
         <v>0.1376884430646896</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.04629501700401306</v>
+        <v>0.1346931606531143</v>
       </c>
     </row>
     <row r="46">
@@ -905,7 +1089,7 @@
         <v>0.143216073513031</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.04760053008794785</v>
+        <v>0.1338526457548141</v>
       </c>
     </row>
     <row r="47">
@@ -913,7 +1097,7 @@
         <v>0.1487437188625336</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.0489053837954998</v>
+        <v>0.1330075263977051</v>
       </c>
     </row>
     <row r="48">
@@ -921,7 +1105,7 @@
         <v>0.1542713642120361</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.05020948871970177</v>
+        <v>0.1321578770875931</v>
       </c>
     </row>
     <row r="49">
@@ -929,7 +1113,7 @@
         <v>0.1597989946603775</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.05151285603642464</v>
+        <v>0.1313036978244781</v>
       </c>
     </row>
     <row r="50">
@@ -937,7 +1121,7 @@
         <v>0.1653266400098801</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.05281547456979752</v>
+        <v>0.1304450780153275</v>
       </c>
     </row>
     <row r="51">
@@ -945,7 +1129,7 @@
         <v>0.1708542704582214</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.05411727353930473</v>
+        <v>0.129582092165947</v>
       </c>
     </row>
     <row r="52">
@@ -953,7 +1137,7 @@
         <v>0.176381915807724</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.05541824176907539</v>
+        <v>0.1287147998809814</v>
       </c>
     </row>
     <row r="53">
@@ -961,7 +1145,7 @@
         <v>0.1819095462560654</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.05671832710504532</v>
+        <v>0.1278432905673981</v>
       </c>
     </row>
     <row r="54">
@@ -969,7 +1153,7 @@
         <v>0.1874371916055679</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.05801751837134361</v>
+        <v>0.1269675940275192</v>
       </c>
     </row>
     <row r="55">
@@ -977,7 +1161,7 @@
         <v>0.1929648220539093</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.05931572243571281</v>
+        <v>0.1260878145694733</v>
       </c>
     </row>
     <row r="56">
@@ -985,7 +1169,7 @@
         <v>0.1984924674034119</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.06061297282576561</v>
+        <v>0.125203937292099</v>
       </c>
     </row>
     <row r="57">
@@ -993,7 +1177,7 @@
         <v>0.2040200978517532</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.06190925464034081</v>
+        <v>0.1243161037564278</v>
       </c>
     </row>
     <row r="58">
@@ -1001,7 +1185,7 @@
         <v>0.2095477432012558</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.06320448219776154</v>
+        <v>0.1234243884682655</v>
       </c>
     </row>
     <row r="59">
@@ -1009,7 +1193,7 @@
         <v>0.2150753736495972</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.06449857354164124</v>
+        <v>0.1225287392735481</v>
       </c>
     </row>
     <row r="60">
@@ -1017,7 +1201,7 @@
         <v>0.2206030189990997</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.06579160690307617</v>
+        <v>0.1216293349862099</v>
       </c>
     </row>
     <row r="61">
@@ -1025,7 +1209,7 @@
         <v>0.2261306494474411</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.06708347797393799</v>
+        <v>0.1207262352108955</v>
       </c>
     </row>
     <row r="62">
@@ -1033,7 +1217,7 @@
         <v>0.2316582947969437</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.06837423145771027</v>
+        <v>0.1198194399476051</v>
       </c>
     </row>
     <row r="63">
@@ -1041,7 +1225,7 @@
         <v>0.237185925245285</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.06966370344161987</v>
+        <v>0.118909128010273</v>
       </c>
     </row>
     <row r="64">
@@ -1049,7 +1233,7 @@
         <v>0.2427135705947876</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.07095201313495636</v>
+        <v>0.1179951503872871</v>
       </c>
     </row>
     <row r="65">
@@ -1057,7 +1241,7 @@
         <v>0.248241201043129</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.07223901152610779</v>
+        <v>0.1170777902007103</v>
       </c>
     </row>
     <row r="66">
@@ -1065,7 +1249,7 @@
         <v>0.2537688314914703</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.07352469861507416</v>
+        <v>0.1161569729447365</v>
       </c>
     </row>
     <row r="67">
@@ -1073,7 +1257,7 @@
         <v>0.2592964768409729</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.07480910420417786</v>
+        <v>0.115232802927494</v>
       </c>
     </row>
     <row r="68">
@@ -1081,7 +1265,7 @@
         <v>0.2648241221904755</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.07609209418296814</v>
+        <v>0.1143052652478218</v>
       </c>
     </row>
     <row r="69">
@@ -1089,7 +1273,7 @@
         <v>0.270351767539978</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.07737371325492859</v>
+        <v>0.1133746281266212</v>
       </c>
     </row>
     <row r="70">
@@ -1097,7 +1281,7 @@
         <v>0.2758793830871582</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.07865390926599503</v>
+        <v>0.1124407276511192</v>
       </c>
     </row>
     <row r="71">
@@ -1105,7 +1289,7 @@
         <v>0.2814070284366608</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.07993263006210327</v>
+        <v>0.1115037873387337</v>
       </c>
     </row>
     <row r="72">
@@ -1113,7 +1297,7 @@
         <v>0.2869346737861633</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.08120988309383392</v>
+        <v>0.1105637326836586</v>
       </c>
     </row>
     <row r="73">
@@ -1121,7 +1305,7 @@
         <v>0.2924623191356659</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.08248564600944519</v>
+        <v>0.1096206679940224</v>
       </c>
     </row>
     <row r="74">
@@ -1129,7 +1313,7 @@
         <v>0.2979899644851685</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.08375973999500275</v>
+        <v>0.1086746975779533</v>
       </c>
     </row>
     <row r="75">
@@ -1137,7 +1321,7 @@
         <v>0.3035175800323486</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.08503234386444092</v>
+        <v>0.1077258065342903</v>
       </c>
     </row>
     <row r="76">
@@ -1145,7 +1329,7 @@
         <v>0.3090452253818512</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.08630330860614777</v>
+        <v>0.1067741885781288</v>
       </c>
     </row>
     <row r="77">
@@ -1153,7 +1337,7 @@
         <v>0.3145728707313538</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.08757266402244568</v>
+        <v>0.1058197394013405</v>
       </c>
     </row>
     <row r="78">
@@ -1161,7 +1345,7 @@
         <v>0.3201005160808563</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.08884032070636749</v>
+        <v>0.1048625782132149</v>
       </c>
     </row>
     <row r="79">
@@ -1169,7 +1353,7 @@
         <v>0.3256281316280365</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.0901063084602356</v>
+        <v>0.1039027199149132</v>
       </c>
     </row>
     <row r="80">
@@ -1177,7 +1361,7 @@
         <v>0.3311557769775391</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.09137049317359924</v>
+        <v>0.1029402986168861</v>
       </c>
     </row>
     <row r="81">
@@ -1185,7 +1369,7 @@
         <v>0.3366834223270416</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.09263299405574799</v>
+        <v>0.1019752994179726</v>
       </c>
     </row>
     <row r="82">
@@ -1193,7 +1377,7 @@
         <v>0.3422110676765442</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.0938936173915863</v>
+        <v>0.1010077968239784</v>
       </c>
     </row>
     <row r="83">
@@ -1201,7 +1385,7 @@
         <v>0.3477386832237244</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.09515254199504852</v>
+        <v>0.1000378355383873</v>
       </c>
     </row>
     <row r="84">
@@ -1209,7 +1393,7 @@
         <v>0.3532663285732269</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.09640951454639435</v>
+        <v>0.09906551986932755</v>
       </c>
     </row>
     <row r="85">
@@ -1217,7 +1401,7 @@
         <v>0.3587939739227295</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.09766468405723572</v>
+        <v>0.09809087216854095</v>
       </c>
     </row>
     <row r="86">
@@ -1225,7 +1409,7 @@
         <v>0.3643216192722321</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.09891793131828308</v>
+        <v>0.0971139594912529</v>
       </c>
     </row>
     <row r="87">
@@ -1233,7 +1417,7 @@
         <v>0.3698492348194122</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.1001692116260529</v>
+        <v>0.09613468497991562</v>
       </c>
     </row>
     <row r="88">
@@ -1241,7 +1425,7 @@
         <v>0.3753768801689148</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.1014185547828674</v>
+        <v>0.09515327960252762</v>
       </c>
     </row>
     <row r="89">
@@ -1249,7 +1433,7 @@
         <v>0.3809045255184174</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.1026658564805984</v>
+        <v>0.09416970610618591</v>
       </c>
     </row>
     <row r="90">
@@ -1257,7 +1441,7 @@
         <v>0.3864321708679199</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.1039111763238907</v>
+        <v>0.09318409115076065</v>
       </c>
     </row>
     <row r="91">
@@ -1265,7 +1449,7 @@
         <v>0.3919597864151001</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.1051544845104218</v>
+        <v>0.09219641983509064</v>
       </c>
     </row>
     <row r="92">
@@ -1273,7 +1457,7 @@
         <v>0.3974874317646027</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.1063957065343857</v>
+        <v>0.09120664000511169</v>
       </c>
     </row>
     <row r="93">
@@ -1281,7 +1465,7 @@
         <v>0.4030150771141052</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.1076348125934601</v>
+        <v>0.09021499752998352</v>
       </c>
     </row>
     <row r="94">
@@ -1289,7 +1473,7 @@
         <v>0.4085427224636078</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.1088718175888062</v>
+        <v>0.08922139555215836</v>
       </c>
     </row>
     <row r="95">
@@ -1297,7 +1481,7 @@
         <v>0.414070338010788</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.1101066470146179</v>
+        <v>0.08822596818208694</v>
       </c>
     </row>
     <row r="96">
@@ -1305,7 +1489,7 @@
         <v>0.4195979833602905</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.111339271068573</v>
+        <v>0.0872286930680275</v>
       </c>
     </row>
     <row r="97">
@@ -1313,7 +1497,7 @@
         <v>0.4251256287097931</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.1125697046518326</v>
+        <v>0.08622962981462479</v>
       </c>
     </row>
     <row r="98">
@@ -1321,7 +1505,7 @@
         <v>0.4306532740592957</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.1137980073690414</v>
+        <v>0.08522878587245941</v>
       </c>
     </row>
     <row r="99">
@@ -1329,7 +1513,7 @@
         <v>0.4361809194087982</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.1150238960981369</v>
+        <v>0.08422628790140152</v>
       </c>
     </row>
     <row r="100">
@@ -1337,7 +1521,7 @@
         <v>0.4417085349559784</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.1162475198507309</v>
+        <v>0.08322212845087051</v>
       </c>
     </row>
     <row r="101">
@@ -1345,7 +1529,7 @@
         <v>0.447236180305481</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.1174689084291458</v>
+        <v>0.08221632242202759</v>
       </c>
     </row>
     <row r="102">
@@ -1353,7 +1537,7 @@
         <v>0.4527638256549835</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.1186879128217697</v>
+        <v>0.08120900392532349</v>
       </c>
     </row>
     <row r="103">
@@ -1361,7 +1545,7 @@
         <v>0.4582914710044861</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.1199045926332474</v>
+        <v>0.08020012825727463</v>
       </c>
     </row>
     <row r="104">
@@ -1369,7 +1553,7 @@
         <v>0.4638190865516663</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.1211189329624176</v>
+        <v>0.0791897252202034</v>
       </c>
     </row>
     <row r="105">
@@ -1377,7 +1561,7 @@
         <v>0.4693467319011688</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.1223307400941849</v>
+        <v>0.07817787677049637</v>
       </c>
     </row>
     <row r="106">
@@ -1385,7 +1569,7 @@
         <v>0.4748743772506714</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.1235401928424835</v>
+        <v>0.07716456055641174</v>
       </c>
     </row>
     <row r="107">
@@ -1393,7 +1577,7 @@
         <v>0.480402022600174</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.1247472018003464</v>
+        <v>0.07614990323781967</v>
       </c>
     </row>
     <row r="108">
@@ -1401,7 +1585,7 @@
         <v>0.4859296381473541</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.1259517222642899</v>
+        <v>0.07513388246297836</v>
       </c>
     </row>
     <row r="109">
@@ -1409,7 +1593,7 @@
         <v>0.4914572834968567</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.1271536648273468</v>
+        <v>0.07411658018827438</v>
       </c>
     </row>
     <row r="110">
@@ -1417,7 +1601,7 @@
         <v>0.4969849288463593</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.1283531486988068</v>
+        <v>0.07309795171022415</v>
       </c>
     </row>
     <row r="111">
@@ -1425,7 +1609,7 @@
         <v>0.5025125741958618</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.1295501440763474</v>
+        <v>0.07207811623811722</v>
       </c>
     </row>
     <row r="112">
@@ -1433,7 +1617,7 @@
         <v>0.508040189743042</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.130744531750679</v>
+        <v>0.07105708867311478</v>
       </c>
     </row>
     <row r="113">
@@ -1441,7 +1625,7 @@
         <v>0.5135678648948669</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.1319362074136734</v>
+        <v>0.07003482431173325</v>
       </c>
     </row>
     <row r="114">
@@ -1449,7 +1633,7 @@
         <v>0.5190954804420471</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.1331254243850708</v>
+        <v>0.06901146471500397</v>
       </c>
     </row>
     <row r="115">
@@ -1457,7 +1641,7 @@
         <v>0.5246230959892273</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.1343118250370026</v>
+        <v>0.06798694282770157</v>
       </c>
     </row>
     <row r="116">
@@ -1465,7 +1649,7 @@
         <v>0.5301507711410522</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.1354957073926926</v>
+        <v>0.06696145981550217</v>
       </c>
     </row>
     <row r="117">
@@ -1473,7 +1657,7 @@
         <v>0.5356783866882324</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.1366768181324005</v>
+        <v>0.06593484431505203</v>
       </c>
     </row>
     <row r="118">
@@ -1481,7 +1665,7 @@
         <v>0.5412060022354126</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.1378553360700607</v>
+        <v>0.0649072676897049</v>
       </c>
     </row>
     <row r="119">
@@ -1489,7 +1673,7 @@
         <v>0.5467336773872375</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.1390310227870941</v>
+        <v>0.06387866288423538</v>
       </c>
     </row>
     <row r="120">
@@ -1497,7 +1681,7 @@
         <v>0.5522612929344177</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.1402040272951126</v>
+        <v>0.06284906715154648</v>
       </c>
     </row>
     <row r="121">
@@ -1505,7 +1689,7 @@
         <v>0.5577889680862427</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.1413741856813431</v>
+        <v>0.06181859225034714</v>
       </c>
     </row>
     <row r="122">
@@ -1513,7 +1697,7 @@
         <v>0.5633165836334229</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.1425416469573975</v>
+        <v>0.06078728288412094</v>
       </c>
     </row>
     <row r="123">
@@ -1521,7 +1705,7 @@
         <v>0.568844199180603</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.143706277012825</v>
+        <v>0.05975504964590073</v>
       </c>
     </row>
     <row r="124">
@@ -1529,7 +1713,7 @@
         <v>0.574371874332428</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.1448680907487869</v>
+        <v>0.05872201174497604</v>
       </c>
     </row>
     <row r="125">
@@ -1537,7 +1721,7 @@
         <v>0.5798994898796082</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.1460269391536713</v>
+        <v>0.05768810957670212</v>
       </c>
     </row>
     <row r="126">
@@ -1545,7 +1729,7 @@
         <v>0.5854271650314331</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.1471830010414124</v>
+        <v>0.05665344744920731</v>
       </c>
     </row>
     <row r="127">
@@ -1553,7 +1737,7 @@
         <v>0.5909547805786133</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.1483362168073654</v>
+        <v>0.05561808496713638</v>
       </c>
     </row>
     <row r="128">
@@ -1561,7 +1745,7 @@
         <v>0.5964823961257935</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.1494864970445633</v>
+        <v>0.05458200722932816</v>
       </c>
     </row>
     <row r="129">
@@ -1569,7 +1753,7 @@
         <v>0.6020100712776184</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.150633841753006</v>
+        <v>0.05354508012533188</v>
       </c>
     </row>
     <row r="130">
@@ -1577,7 +1761,7 @@
         <v>0.6075376868247986</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.1517782509326935</v>
+        <v>0.05250764638185501</v>
       </c>
     </row>
     <row r="131">
@@ -1585,7 +1769,7 @@
         <v>0.6130653023719788</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.1529196500778198</v>
+        <v>0.05146951228380203</v>
       </c>
     </row>
     <row r="132">
@@ -1593,7 +1777,7 @@
         <v>0.6185929775238037</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.1540581434965134</v>
+        <v>0.05043075978755951</v>
       </c>
     </row>
     <row r="133">
@@ -1601,7 +1785,7 @@
         <v>0.6241205930709839</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.1551936268806458</v>
+        <v>0.04939140379428864</v>
       </c>
     </row>
     <row r="134">
@@ -1609,7 +1793,7 @@
         <v>0.6296482682228088</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.1563260555267334</v>
+        <v>0.04835148900747299</v>
       </c>
     </row>
     <row r="135">
@@ -1617,7 +1801,7 @@
         <v>0.635175883769989</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.1574555039405823</v>
+        <v>0.04731094837188721</v>
       </c>
     </row>
     <row r="136">
@@ -1625,7 +1809,7 @@
         <v>0.6407034993171692</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.1585818827152252</v>
+        <v>0.04627003520727158</v>
       </c>
     </row>
     <row r="137">
@@ -1633,7 +1817,7 @@
         <v>0.6462311744689941</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.1597051620483398</v>
+        <v>0.04522842168807983</v>
       </c>
     </row>
     <row r="138">
@@ -1641,7 +1825,7 @@
         <v>0.6517587900161743</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.1608254760503769</v>
+        <v>0.04418645799160004</v>
       </c>
     </row>
     <row r="139">
@@ -1649,7 +1833,7 @@
         <v>0.6572864055633545</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.1619425714015961</v>
+        <v>0.04314403235912323</v>
       </c>
     </row>
     <row r="140">
@@ -1657,7 +1841,7 @@
         <v>0.6628140807151794</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.1630566418170929</v>
+        <v>0.04210109263658524</v>
       </c>
     </row>
     <row r="141">
@@ -1665,7 +1849,7 @@
         <v>0.6683416962623596</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.1641674339771271</v>
+        <v>0.0410577803850174</v>
       </c>
     </row>
     <row r="142">
@@ -1673,7 +1857,7 @@
         <v>0.6738693714141846</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.1652752161026001</v>
+        <v>0.04001416265964508</v>
       </c>
     </row>
     <row r="143">
@@ -1681,7 +1865,7 @@
         <v>0.6793969869613647</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.1663798093795776</v>
+        <v>0.03897003829479218</v>
       </c>
     </row>
     <row r="144">
@@ -1689,7 +1873,7 @@
         <v>0.6849246025085449</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.1674811989068985</v>
+        <v>0.03792562335729599</v>
       </c>
     </row>
     <row r="145">
@@ -1697,7 +1881,7 @@
         <v>0.6904522776603699</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.1685794293880463</v>
+        <v>0.03688087314367294</v>
       </c>
     </row>
     <row r="146">
@@ -1705,7 +1889,7 @@
         <v>0.69597989320755</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.1696743369102478</v>
+        <v>0.03583597391843796</v>
       </c>
     </row>
     <row r="147">
@@ -1713,7 +1897,7 @@
         <v>0.7015075087547302</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.1707662343978882</v>
+        <v>0.03479047119617462</v>
       </c>
     </row>
     <row r="148">
@@ -1721,7 +1905,7 @@
         <v>0.7070351839065552</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.1718547493219376</v>
+        <v>0.03374491631984711</v>
       </c>
     </row>
     <row r="149">
@@ -1729,7 +1913,7 @@
         <v>0.7125627994537354</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.1729400157928467</v>
+        <v>0.03269914537668228</v>
       </c>
     </row>
     <row r="150">
@@ -1737,7 +1921,7 @@
         <v>0.7180904746055603</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.1740221679210663</v>
+        <v>0.03165303915739059</v>
       </c>
     </row>
     <row r="151">
@@ -1745,7 +1929,7 @@
         <v>0.7236180901527405</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.1751009076833725</v>
+        <v>0.03060680069029331</v>
       </c>
     </row>
     <row r="152">
@@ -1753,7 +1937,7 @@
         <v>0.7291457056999207</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.1761763691902161</v>
+        <v>0.02956038899719715</v>
       </c>
     </row>
     <row r="153">
@@ -1761,7 +1945,7 @@
         <v>0.7346733808517456</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.1772486418485641</v>
+        <v>0.02851366065442562</v>
       </c>
     </row>
     <row r="154">
@@ -1769,7 +1953,7 @@
         <v>0.7402009963989258</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.1783175319433212</v>
+        <v>0.02746686525642872</v>
       </c>
     </row>
     <row r="155">
@@ -1777,7 +1961,7 @@
         <v>0.7457286715507507</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.1793830394744873</v>
+        <v>0.0264198649674654</v>
       </c>
     </row>
     <row r="156">
@@ -1785,7 +1969,7 @@
         <v>0.7512562870979309</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.1804452687501907</v>
+        <v>0.02537286467850208</v>
       </c>
     </row>
     <row r="157">
@@ -1793,7 +1977,7 @@
         <v>0.7567839026451111</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.1815041899681091</v>
+        <v>0.02432570047676563</v>
       </c>
     </row>
     <row r="158">
@@ -1801,7 +1985,7 @@
         <v>0.762311577796936</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.1825597286224365</v>
+        <v>0.02327845804393291</v>
       </c>
     </row>
     <row r="159">
@@ -1809,7 +1993,7 @@
         <v>0.7678391933441162</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.1836118698120117</v>
+        <v>0.02223118208348751</v>
       </c>
     </row>
     <row r="160">
@@ -1817,7 +2001,7 @@
         <v>0.7733668088912964</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.1846605241298676</v>
+        <v>0.02118372358381748</v>
       </c>
     </row>
     <row r="161">
@@ -1825,7 +2009,7 @@
         <v>0.7788944840431213</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.1857059448957443</v>
+        <v>0.02013630606234074</v>
       </c>
     </row>
     <row r="162">
@@ -1833,7 +2017,7 @@
         <v>0.7844220995903015</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.1867479979991913</v>
+        <v>0.01908895187079906</v>
       </c>
     </row>
     <row r="163">
@@ -1841,7 +2025,7 @@
         <v>0.7899497747421265</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.1877864897251129</v>
+        <v>0.0180415753275156</v>
       </c>
     </row>
     <row r="164">
@@ -1849,7 +2033,7 @@
         <v>0.7954773902893066</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.1888216435909271</v>
+        <v>0.01699409820139408</v>
       </c>
     </row>
     <row r="165">
@@ -1857,7 +2041,7 @@
         <v>0.8010050058364868</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.1898534297943115</v>
+        <v>0.0159467775374651</v>
       </c>
     </row>
     <row r="166">
@@ -1865,7 +2049,7 @@
         <v>0.8065326809883118</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.190881609916687</v>
+        <v>0.01489944197237492</v>
       </c>
     </row>
     <row r="167">
@@ -1873,7 +2057,7 @@
         <v>0.8120602965354919</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.1919064074754715</v>
+        <v>0.01385214366018772</v>
       </c>
     </row>
     <row r="168">
@@ -1881,7 +2065,7 @@
         <v>0.8175879120826721</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.1929278075695038</v>
+        <v>0.01280502416193485</v>
       </c>
     </row>
     <row r="169">
@@ -1889,7 +2073,7 @@
         <v>0.8231155872344971</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.1939456462860107</v>
+        <v>0.01175780035555363</v>
       </c>
     </row>
     <row r="170">
@@ -1897,7 +2081,7 @@
         <v>0.8286432027816772</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.1949601620435715</v>
+        <v>0.01071088202297688</v>
       </c>
     </row>
     <row r="171">
@@ -1905,7 +2089,7 @@
         <v>0.8341708779335022</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.1959710419178009</v>
+        <v>0.009663911536335945</v>
       </c>
     </row>
     <row r="172">
@@ -1913,7 +2097,7 @@
         <v>0.8396984934806824</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.196978360414505</v>
+        <v>0.008617201820015907</v>
       </c>
     </row>
     <row r="173">
@@ -1921,7 +2105,7 @@
         <v>0.8452261090278625</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.1979822814464569</v>
+        <v>0.007570596411824226</v>
       </c>
     </row>
     <row r="174">
@@ -1929,7 +2113,7 @@
         <v>0.8507537841796875</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.198982760310173</v>
+        <v>0.00652402825653553</v>
       </c>
     </row>
     <row r="175">
@@ -1937,7 +2121,7 @@
         <v>0.8562813997268677</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.1999796330928802</v>
+        <v>0.005477810278534889</v>
       </c>
     </row>
     <row r="176">
@@ -1945,7 +2129,7 @@
         <v>0.8618090748786926</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.2009729892015457</v>
+        <v>0.004431711509823799</v>
       </c>
     </row>
     <row r="177">
@@ -1953,7 +2137,7 @@
         <v>0.8673366904258728</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.201962798833847</v>
+        <v>0.003385754302144051</v>
       </c>
     </row>
     <row r="178">
@@ -1961,7 +2145,7 @@
         <v>0.872864305973053</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.2029491066932678</v>
+        <v>0.002340150997042656</v>
       </c>
     </row>
     <row r="179">
@@ -1969,7 +2153,7 @@
         <v>0.8783919811248779</v>
       </c>
       <c r="B179" t="n">
-        <v>-0.2039318084716797</v>
+        <v>0.001294570043683052</v>
       </c>
     </row>
     <row r="180">
@@ -1977,7 +2161,7 @@
         <v>0.8839195966720581</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.2049111127853394</v>
+        <v>0.0002493765205144882</v>
       </c>
     </row>
     <row r="181">
@@ -1985,7 +2169,7 @@
         <v>0.8894472122192383</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.2058866918087006</v>
+        <v>-0.0007956381887197495</v>
       </c>
     </row>
     <row r="182">
@@ -1993,7 +2177,7 @@
         <v>0.8949748873710632</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.2068587839603424</v>
+        <v>-0.001840410754084587</v>
       </c>
     </row>
     <row r="183">
@@ -2001,7 +2185,7 @@
         <v>0.9005025029182434</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.2078272700309753</v>
+        <v>-0.002884810790419579</v>
       </c>
     </row>
     <row r="184">
@@ -2009,7 +2193,7 @@
         <v>0.9060301780700684</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.2087921947240829</v>
+        <v>-0.003929072991013527</v>
       </c>
     </row>
     <row r="185">
@@ -2017,7 +2201,7 @@
         <v>0.9115577936172485</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.2097535878419876</v>
+        <v>-0.004972914233803749</v>
       </c>
     </row>
     <row r="186">
@@ -2025,7 +2209,7 @@
         <v>0.9170854091644287</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.2107113301753998</v>
+        <v>-0.006016520783305168</v>
       </c>
     </row>
     <row r="187">
@@ -2033,7 +2217,7 @@
         <v>0.9226130843162537</v>
       </c>
       <c r="B187" t="n">
-        <v>-0.2116654813289642</v>
+        <v>-0.007059784606099129</v>
       </c>
     </row>
     <row r="188">
@@ -2041,7 +2225,7 @@
         <v>0.9281406998634338</v>
       </c>
       <c r="B188" t="n">
-        <v>-0.2126160562038422</v>
+        <v>-0.008102716878056526</v>
       </c>
     </row>
     <row r="189">
@@ -2049,7 +2233,7 @@
         <v>0.933668315410614</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.21356301009655</v>
+        <v>-0.009145377203822136</v>
       </c>
     </row>
     <row r="190">
@@ -2057,7 +2241,7 @@
         <v>0.939195990562439</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.2145063877105713</v>
+        <v>-0.01018754206597805</v>
       </c>
     </row>
     <row r="191">
@@ -2065,7 +2249,7 @@
         <v>0.9447236061096191</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.2154462337493896</v>
+        <v>-0.01122942753136158</v>
       </c>
     </row>
     <row r="192">
@@ -2073,7 +2257,7 @@
         <v>0.9502512812614441</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.2163823544979095</v>
+        <v>-0.01227101124823093</v>
       </c>
     </row>
     <row r="193">
@@ -2081,7 +2265,7 @@
         <v>0.9557788968086243</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.2173148691654205</v>
+        <v>-0.01331209577620029</v>
       </c>
     </row>
     <row r="194">
@@ -2089,7 +2273,7 @@
         <v>0.9613065123558044</v>
       </c>
       <c r="B194" t="n">
-        <v>-0.2182438224554062</v>
+        <v>-0.0143528264015913</v>
       </c>
     </row>
     <row r="195">
@@ -2097,7 +2281,7 @@
         <v>0.9668341875076294</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.219169020652771</v>
+        <v>-0.01539325527846813</v>
       </c>
     </row>
     <row r="196">
@@ -2105,7 +2289,7 @@
         <v>0.9723618030548096</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.2200907766819</v>
+        <v>-0.01643318124115467</v>
       </c>
     </row>
     <row r="197">
@@ -2113,7 +2297,7 @@
         <v>0.9778894186019897</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.221008837223053</v>
+        <v>-0.0174726378172636</v>
       </c>
     </row>
     <row r="198">
@@ -2121,7 +2305,7 @@
         <v>0.9834170937538147</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.2219231575727463</v>
+        <v>-0.01851178519427776</v>
       </c>
     </row>
     <row r="199">
@@ -2129,7 +2313,7 @@
         <v>0.9889447093009949</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.2228340357542038</v>
+        <v>-0.01955044828355312</v>
       </c>
     </row>
     <row r="200">
@@ -2137,7 +2321,7 @@
         <v>0.9944723844528198</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.2237411439418793</v>
+        <v>-0.02058869414031506</v>
       </c>
     </row>
     <row r="201">
@@ -2145,7 +2329,7 @@
         <v>1</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.2246447056531906</v>
+        <v>-0.0216264370828867</v>
       </c>
     </row>
     <row r="202">
@@ -2153,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.09638112038373947</v>
+        <v>0.04853254184126854</v>
       </c>
     </row>
     <row r="203">
@@ -2161,7 +2345,7 @@
         <v>1.045226097106934</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.0960395559668541</v>
+        <v>0.04827291145920753</v>
       </c>
     </row>
     <row r="204">
@@ -2169,7 +2353,7 @@
         <v>1.090452313423157</v>
       </c>
       <c r="B204" t="n">
-        <v>-0.09569792449474335</v>
+        <v>0.04801325127482414</v>
       </c>
     </row>
     <row r="205">
@@ -2177,7 +2361,7 @@
         <v>1.13567841053009</v>
       </c>
       <c r="B205" t="n">
-        <v>-0.09535623341798782</v>
+        <v>0.04775379970669746</v>
       </c>
     </row>
     <row r="206">
@@ -2185,7 +2369,7 @@
         <v>1.180904507637024</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.09501456469297409</v>
+        <v>0.04749446734786034</v>
       </c>
     </row>
     <row r="207">
@@ -2193,7 +2377,7 @@
         <v>1.226130604743958</v>
       </c>
       <c r="B207" t="n">
-        <v>-0.09467291086912155</v>
+        <v>0.04723532125353813</v>
       </c>
     </row>
     <row r="208">
@@ -2201,7 +2385,7 @@
         <v>1.271356821060181</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.09433139860630035</v>
+        <v>0.04697637632489204</v>
       </c>
     </row>
     <row r="209">
@@ -2209,7 +2393,7 @@
         <v>1.316582918167114</v>
       </c>
       <c r="B209" t="n">
-        <v>-0.09399000555276871</v>
+        <v>0.04671766981482506</v>
       </c>
     </row>
     <row r="210">
@@ -2217,7 +2401,7 @@
         <v>1.361809015274048</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.09364881366491318</v>
+        <v>0.04645925760269165</v>
       </c>
     </row>
     <row r="211">
@@ -2225,7 +2409,7 @@
         <v>1.407035231590271</v>
       </c>
       <c r="B211" t="n">
-        <v>-0.09330784529447556</v>
+        <v>0.04620102420449257</v>
       </c>
     </row>
     <row r="212">
@@ -2233,7 +2417,7 @@
         <v>1.452261328697205</v>
       </c>
       <c r="B212" t="n">
-        <v>-0.09296717494726181</v>
+        <v>0.04594310745596886</v>
       </c>
     </row>
     <row r="213">
@@ -2241,7 +2425,7 @@
         <v>1.497487425804138</v>
       </c>
       <c r="B213" t="n">
-        <v>-0.09262681752443314</v>
+        <v>0.04568548873066902</v>
       </c>
     </row>
     <row r="214">
@@ -2249,7 +2433,7 @@
         <v>1.542713522911072</v>
       </c>
       <c r="B214" t="n">
-        <v>-0.09228683263063431</v>
+        <v>0.04542822763323784</v>
       </c>
     </row>
     <row r="215">
@@ -2257,7 +2441,7 @@
         <v>1.587939739227295</v>
       </c>
       <c r="B215" t="n">
-        <v>-0.09194720536470413</v>
+        <v>0.0451713539659977</v>
       </c>
     </row>
     <row r="216">
@@ -2265,7 +2449,7 @@
         <v>1.633165836334229</v>
       </c>
       <c r="B216" t="n">
-        <v>-0.09160808473825455</v>
+        <v>0.04491488263010979</v>
       </c>
     </row>
     <row r="217">
@@ -2273,7 +2457,7 @@
         <v>1.678391933441162</v>
       </c>
       <c r="B217" t="n">
-        <v>-0.09126941114664078</v>
+        <v>0.04465879872441292</v>
       </c>
     </row>
     <row r="218">
@@ -2281,7 +2465,7 @@
         <v>1.723618149757385</v>
       </c>
       <c r="B218" t="n">
-        <v>-0.09093132615089417</v>
+        <v>0.04440313950181007</v>
       </c>
     </row>
     <row r="219">
@@ -2289,7 +2473,7 @@
         <v>1.768844246864319</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.09059377014636993</v>
+        <v>0.04414793476462364</v>
       </c>
     </row>
     <row r="220">
@@ -2297,7 +2481,7 @@
         <v>1.814070343971252</v>
       </c>
       <c r="B220" t="n">
-        <v>-0.09025685489177704</v>
+        <v>0.04389315471053123</v>
       </c>
     </row>
     <row r="221">
@@ -2305,7 +2489,7 @@
         <v>1.859296441078186</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.08992060273885727</v>
+        <v>0.04363894090056419</v>
       </c>
     </row>
     <row r="222">
@@ -2313,7 +2497,7 @@
         <v>1.904522657394409</v>
       </c>
       <c r="B222" t="n">
-        <v>-0.08958502113819122</v>
+        <v>0.04338522627949715</v>
       </c>
     </row>
     <row r="223">
@@ -2321,7 +2505,7 @@
         <v>1.949748754501343</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.08925017714500427</v>
+        <v>0.04313210770487785</v>
       </c>
     </row>
     <row r="224">
@@ -2329,7 +2513,7 @@
         <v>1.994974851608276</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.0889161005616188</v>
+        <v>0.04287953302264214</v>
       </c>
     </row>
     <row r="225">
@@ -2337,7 +2521,7 @@
         <v>2.04020094871521</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.0885828360915184</v>
+        <v>0.04262739047408104</v>
       </c>
     </row>
     <row r="226">
@@ -2345,7 +2529,7 @@
         <v>2.085427045822144</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.08825042098760605</v>
+        <v>0.04237604513764381</v>
       </c>
     </row>
     <row r="227">
@@ -2353,7 +2537,7 @@
         <v>2.130653381347656</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.08791886270046234</v>
+        <v>0.04212520644068718</v>
       </c>
     </row>
     <row r="228">
@@ -2361,7 +2545,7 @@
         <v>2.17587947845459</v>
       </c>
       <c r="B228" t="n">
-        <v>-0.08758816868066788</v>
+        <v>0.04187509790062904</v>
       </c>
     </row>
     <row r="229">
@@ -2369,7 +2553,7 @@
         <v>2.221105575561523</v>
       </c>
       <c r="B229" t="n">
-        <v>-0.087258480489254</v>
+        <v>0.04162560775876045</v>
       </c>
     </row>
     <row r="230">
@@ -2377,7 +2561,7 @@
         <v>2.266331672668457</v>
       </c>
       <c r="B230" t="n">
-        <v>-0.08692973107099533</v>
+        <v>0.04137681052088737</v>
       </c>
     </row>
     <row r="231">
@@ -2385,7 +2569,7 @@
         <v>2.311557769775391</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.08660198748111725</v>
+        <v>0.04112875089049339</v>
       </c>
     </row>
     <row r="232">
@@ -2393,7 +2577,7 @@
         <v>2.356783866882324</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.08627528697252274</v>
+        <v>0.04088147357106209</v>
       </c>
     </row>
     <row r="233">
@@ -2401,7 +2585,7 @@
         <v>2.402009963989258</v>
       </c>
       <c r="B233" t="n">
-        <v>-0.08594965189695358</v>
+        <v>0.04063481464982033</v>
       </c>
     </row>
     <row r="234">
@@ -2409,7 +2593,7 @@
         <v>2.447236299514771</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.08562508225440979</v>
+        <v>0.04038899019360542</v>
       </c>
     </row>
     <row r="235">
@@ -2417,7 +2601,7 @@
         <v>2.492462396621704</v>
       </c>
       <c r="B235" t="n">
-        <v>-0.08530168980360031</v>
+        <v>0.04014403000473976</v>
       </c>
     </row>
     <row r="236">
@@ -2425,7 +2609,7 @@
         <v>2.537688493728638</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.08497945219278336</v>
+        <v>0.03989977017045021</v>
       </c>
     </row>
     <row r="237">
@@ -2433,7 +2617,7 @@
         <v>2.582914590835571</v>
       </c>
       <c r="B237" t="n">
-        <v>-0.08465836197137833</v>
+        <v>0.0396563820540905</v>
       </c>
     </row>
     <row r="238">
@@ -2441,7 +2625,7 @@
         <v>2.628140687942505</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.08433847874403</v>
+        <v>0.03941382095217705</v>
       </c>
     </row>
     <row r="239">
@@ -2449,7 +2633,7 @@
         <v>2.673366785049438</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.08401983231306076</v>
+        <v>0.03917210921645164</v>
       </c>
     </row>
     <row r="240">
@@ -2457,7 +2641,7 @@
         <v>2.718592882156372</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.083702452480793</v>
+        <v>0.03893141821026802</v>
       </c>
     </row>
     <row r="241">
@@ -2465,7 +2649,7 @@
         <v>2.763818979263306</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.08338630944490433</v>
+        <v>0.03869148716330528</v>
       </c>
     </row>
     <row r="242">
@@ -2473,7 +2657,7 @@
         <v>2.809045314788818</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.08307153731584549</v>
+        <v>0.03845250979065895</v>
       </c>
     </row>
     <row r="243">
@@ -2481,7 +2665,7 @@
         <v>2.854271411895752</v>
       </c>
       <c r="B243" t="n">
-        <v>-0.08275805413722992</v>
+        <v>0.03821448609232903</v>
       </c>
     </row>
     <row r="244">
@@ -2489,7 +2673,7 @@
         <v>2.899497509002686</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.0824458971619606</v>
+        <v>0.03797745332121849</v>
       </c>
     </row>
     <row r="245">
@@ -2497,7 +2681,7 @@
         <v>2.944723606109619</v>
       </c>
       <c r="B245" t="n">
-        <v>-0.08213511854410172</v>
+        <v>0.03774131461977959</v>
       </c>
     </row>
     <row r="246">
@@ -2505,7 +2689,7 @@
         <v>2.989949703216553</v>
       </c>
       <c r="B246" t="n">
-        <v>-0.08182572573423386</v>
+        <v>0.03750621154904366</v>
       </c>
     </row>
     <row r="247">
@@ -2513,7 +2697,7 @@
         <v>3.035175800323486</v>
       </c>
       <c r="B247" t="n">
-        <v>-0.08151775598526001</v>
+        <v>0.0372721366584301</v>
       </c>
     </row>
     <row r="248">
@@ -2521,7 +2705,7 @@
         <v>3.08040189743042</v>
       </c>
       <c r="B248" t="n">
-        <v>-0.081211157143116</v>
+        <v>0.03703904524445534</v>
       </c>
     </row>
     <row r="249">
@@ -2529,7 +2713,7 @@
         <v>3.125628232955933</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.08090603351593018</v>
+        <v>0.03680704161524773</v>
       </c>
     </row>
     <row r="250">
@@ -2537,7 +2721,7 @@
         <v>3.170854330062866</v>
       </c>
       <c r="B250" t="n">
-        <v>-0.08060231059789658</v>
+        <v>0.03657612577080727</v>
       </c>
     </row>
     <row r="251">
@@ -2545,7 +2729,7 @@
         <v>3.2160804271698</v>
       </c>
       <c r="B251" t="n">
-        <v>-0.08030013740062714</v>
+        <v>0.03634611889719963</v>
       </c>
     </row>
     <row r="252">
@@ -2553,7 +2737,7 @@
         <v>3.261306524276733</v>
       </c>
       <c r="B252" t="n">
-        <v>-0.0799994096159935</v>
+        <v>0.03611732646822929</v>
       </c>
     </row>
     <row r="253">
@@ -2561,7 +2745,7 @@
         <v>3.306532621383667</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.07970020174980164</v>
+        <v>0.0358896367251873</v>
       </c>
     </row>
     <row r="254">
@@ -2569,7 +2753,7 @@
         <v>3.351758718490601</v>
       </c>
       <c r="B254" t="n">
-        <v>-0.07940246164798737</v>
+        <v>0.03566312417387962</v>
       </c>
     </row>
     <row r="255">
@@ -2577,7 +2761,7 @@
         <v>3.396984815597534</v>
       </c>
       <c r="B255" t="n">
-        <v>-0.07910624891519547</v>
+        <v>0.03543766960501671</v>
       </c>
     </row>
     <row r="256">
@@ -2585,7 +2769,7 @@
         <v>3.442211151123047</v>
       </c>
       <c r="B256" t="n">
-        <v>-0.07881159335374832</v>
+        <v>0.03521342203021049</v>
       </c>
     </row>
     <row r="257">
@@ -2593,7 +2777,7 @@
         <v>3.48743724822998</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.07851844280958176</v>
+        <v>0.03499026969075203</v>
       </c>
     </row>
     <row r="258">
@@ -2601,7 +2785,7 @@
         <v>3.532663345336914</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.07822689414024353</v>
+        <v>0.03476836159825325</v>
       </c>
     </row>
     <row r="259">
@@ -2609,7 +2793,7 @@
         <v>3.577889442443848</v>
       </c>
       <c r="B259" t="n">
-        <v>-0.07793689519166946</v>
+        <v>0.03454756364226341</v>
       </c>
     </row>
     <row r="260">
@@ -2617,7 +2801,7 @@
         <v>3.623115539550781</v>
       </c>
       <c r="B260" t="n">
-        <v>-0.07764844596385956</v>
+        <v>0.03432810679078102</v>
       </c>
     </row>
     <row r="261">
@@ -2625,7 +2809,7 @@
         <v>3.668341636657715</v>
       </c>
       <c r="B261" t="n">
-        <v>-0.0773615762591362</v>
+        <v>0.03410978987812996</v>
       </c>
     </row>
     <row r="262">
@@ -2633,7 +2817,7 @@
         <v>3.713567733764648</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.07707629352807999</v>
+        <v>0.03389269486069679</v>
       </c>
     </row>
     <row r="263">
@@ -2641,7 +2825,7 @@
         <v>3.758794069290161</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.07679262012243271</v>
+        <v>0.03367683663964272</v>
       </c>
     </row>
     <row r="264">
@@ -2649,7 +2833,7 @@
         <v>3.804020166397095</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.0765104740858078</v>
+        <v>0.03346231207251549</v>
       </c>
     </row>
     <row r="265">
@@ -2657,7 +2841,7 @@
         <v>3.849246263504028</v>
       </c>
       <c r="B265" t="n">
-        <v>-0.0762299969792366</v>
+        <v>0.03324904665350914</v>
       </c>
     </row>
     <row r="266">
@@ -2665,7 +2849,7 @@
         <v>3.894472360610962</v>
       </c>
       <c r="B266" t="n">
-        <v>-0.07595107704401016</v>
+        <v>0.03303700312972069</v>
       </c>
     </row>
     <row r="267">
@@ -2673,7 +2857,7 @@
         <v>3.939698457717896</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.07567381113767624</v>
+        <v>0.03282635286450386</v>
       </c>
     </row>
     <row r="268">
@@ -2681,7 +2865,7 @@
         <v>3.984924554824829</v>
       </c>
       <c r="B268" t="n">
-        <v>-0.07539806514978409</v>
+        <v>0.0326169840991497</v>
       </c>
     </row>
     <row r="269">
@@ -2689,7 +2873,7 @@
         <v>4.030150890350342</v>
       </c>
       <c r="B269" t="n">
-        <v>-0.07512401789426804</v>
+        <v>0.03240888193249702</v>
       </c>
     </row>
     <row r="270">
@@ -2697,7 +2881,7 @@
         <v>4.075376987457275</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.07485153526067734</v>
+        <v>0.03220215067267418</v>
       </c>
     </row>
     <row r="271">
@@ -2705,7 +2889,7 @@
         <v>4.120603084564209</v>
       </c>
       <c r="B271" t="n">
-        <v>-0.07458063215017319</v>
+        <v>0.03199680522084236</v>
       </c>
     </row>
     <row r="272">
@@ -2713,7 +2897,7 @@
         <v>4.165829181671143</v>
       </c>
       <c r="B272" t="n">
-        <v>-0.07431139796972275</v>
+        <v>0.03179280087351799</v>
       </c>
     </row>
     <row r="273">
@@ -2721,7 +2905,7 @@
         <v>4.211055278778076</v>
       </c>
       <c r="B273" t="n">
-        <v>-0.07404375821352005</v>
+        <v>0.03159009292721748</v>
       </c>
     </row>
     <row r="274">
@@ -2729,7 +2913,7 @@
         <v>4.25628137588501</v>
       </c>
       <c r="B274" t="n">
-        <v>-0.0737776979804039</v>
+        <v>0.03138888999819756</v>
       </c>
     </row>
     <row r="275">
@@ -2737,7 +2921,7 @@
         <v>4.301507472991943</v>
       </c>
       <c r="B275" t="n">
-        <v>-0.07351326197385788</v>
+        <v>0.03118899092078209</v>
       </c>
     </row>
     <row r="276">
@@ -2745,7 +2929,7 @@
         <v>4.346733570098877</v>
       </c>
       <c r="B276" t="n">
-        <v>-0.07325046509504318</v>
+        <v>0.03099057450890541</v>
       </c>
     </row>
     <row r="277">
@@ -2753,7 +2937,7 @@
         <v>4.391959667205811</v>
       </c>
       <c r="B277" t="n">
-        <v>-0.07298912853002548</v>
+        <v>0.0307934544980526</v>
       </c>
     </row>
     <row r="278">
@@ -2761,7 +2945,7 @@
         <v>4.437185764312744</v>
       </c>
       <c r="B278" t="n">
-        <v>-0.07272943109273911</v>
+        <v>0.0305977575480938</v>
       </c>
     </row>
     <row r="279">
@@ -2769,7 +2953,7 @@
         <v>4.482411861419678</v>
       </c>
       <c r="B279" t="n">
-        <v>-0.07247138768434525</v>
+        <v>0.03040343895554543</v>
       </c>
     </row>
     <row r="280">
@@ -2777,7 +2961,7 @@
         <v>4.527637958526611</v>
       </c>
       <c r="B280" t="n">
-        <v>-0.07221488654613495</v>
+        <v>0.03021076694130898</v>
       </c>
     </row>
     <row r="281">
@@ -2785,7 +2969,7 @@
         <v>4.572864532470703</v>
       </c>
       <c r="B281" t="n">
-        <v>-0.07196000963449478</v>
+        <v>0.03001933172345161</v>
       </c>
     </row>
     <row r="282">
@@ -2793,7 +2977,7 @@
         <v>4.618090629577637</v>
       </c>
       <c r="B282" t="n">
-        <v>-0.0717066153883934</v>
+        <v>0.02982949838042259</v>
       </c>
     </row>
     <row r="283">
@@ -2801,7 +2985,7 @@
         <v>4.66331672668457</v>
       </c>
       <c r="B283" t="n">
-        <v>-0.07145487517118454</v>
+        <v>0.02964099869132042</v>
       </c>
     </row>
     <row r="284">
@@ -2809,7 +2993,7 @@
         <v>4.708542823791504</v>
       </c>
       <c r="B284" t="n">
-        <v>-0.07120459526777267</v>
+        <v>0.02945400401949883</v>
       </c>
     </row>
     <row r="285">
@@ -2817,7 +3001,7 @@
         <v>4.753768920898438</v>
       </c>
       <c r="B285" t="n">
-        <v>-0.07095587998628616</v>
+        <v>0.029268529266119</v>
       </c>
     </row>
     <row r="286">
@@ -2825,7 +3009,7 @@
         <v>4.798995018005371</v>
       </c>
       <c r="B286" t="n">
-        <v>-0.0707087442278862</v>
+        <v>0.02908454462885857</v>
       </c>
     </row>
     <row r="287">
@@ -2833,7 +3017,7 @@
         <v>4.844221115112305</v>
       </c>
       <c r="B287" t="n">
-        <v>-0.07046309858560562</v>
+        <v>0.02890203520655632</v>
       </c>
     </row>
     <row r="288">
@@ -2841,7 +3025,7 @@
         <v>4.889447212219238</v>
       </c>
       <c r="B288" t="n">
-        <v>-0.07021899521350861</v>
+        <v>0.0287209115922451</v>
       </c>
     </row>
     <row r="289">
@@ -2849,7 +3033,7 @@
         <v>4.934673309326172</v>
       </c>
       <c r="B289" t="n">
-        <v>-0.06997636705636978</v>
+        <v>0.028541449457407</v>
       </c>
     </row>
     <row r="290">
@@ -2857,7 +3041,7 @@
         <v>4.979899406433105</v>
       </c>
       <c r="B290" t="n">
-        <v>-0.06973528116941452</v>
+        <v>0.0283634178340435</v>
       </c>
     </row>
     <row r="291">
@@ -2865,7 +3049,7 @@
         <v>5.025125503540039</v>
       </c>
       <c r="B291" t="n">
-        <v>-0.06949561834335327</v>
+        <v>0.02818692103028297</v>
       </c>
     </row>
     <row r="292">
@@ -2873,7 +3057,7 @@
         <v>5.070351600646973</v>
       </c>
       <c r="B292" t="n">
-        <v>-0.06925738602876663</v>
+        <v>0.02801195904612541</v>
       </c>
     </row>
     <row r="293">
@@ -2881,7 +3065,7 @@
         <v>5.115577697753906</v>
       </c>
       <c r="B293" t="n">
-        <v>-0.06902066618204117</v>
+        <v>0.02783844247460365</v>
       </c>
     </row>
     <row r="294">
@@ -2889,7 +3073,7 @@
         <v>5.16080379486084</v>
       </c>
       <c r="B294" t="n">
-        <v>-0.06878551095724106</v>
+        <v>0.02766655758023262</v>
       </c>
     </row>
     <row r="295">
@@ -2897,7 +3081,7 @@
         <v>5.206030368804932</v>
       </c>
       <c r="B295" t="n">
-        <v>-0.06855172663927078</v>
+        <v>0.02749618515372276</v>
       </c>
     </row>
     <row r="296">
@@ -2905,7 +3089,7 @@
         <v>5.251256465911865</v>
       </c>
       <c r="B296" t="n">
-        <v>-0.06831925362348557</v>
+        <v>0.02732731029391289</v>
       </c>
     </row>
     <row r="297">
@@ -2913,7 +3097,7 @@
         <v>5.296482563018799</v>
       </c>
       <c r="B297" t="n">
-        <v>-0.06808826327323914</v>
+        <v>0.02716002985835075</v>
       </c>
     </row>
     <row r="298">
@@ -2921,7 +3105,7 @@
         <v>5.341708660125732</v>
       </c>
       <c r="B298" t="n">
-        <v>-0.06785871088504791</v>
+        <v>0.02699437364935875</v>
       </c>
     </row>
     <row r="299">
@@ -2929,7 +3113,7 @@
         <v>5.386934757232666</v>
       </c>
       <c r="B299" t="n">
-        <v>-0.06763051450252533</v>
+        <v>0.02683017030358315</v>
       </c>
     </row>
     <row r="300">
@@ -2937,7 +3121,7 @@
         <v>5.4321608543396</v>
       </c>
       <c r="B300" t="n">
-        <v>-0.06740371137857437</v>
+        <v>0.02666755393147469</v>
       </c>
     </row>
     <row r="301">
@@ -2945,7 +3129,7 @@
         <v>5.477386951446533</v>
       </c>
       <c r="B301" t="n">
-        <v>-0.06717816740274429</v>
+        <v>0.02650648728013039</v>
       </c>
     </row>
     <row r="302">
@@ -2953,7 +3137,7 @@
         <v>5.522613048553467</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.06695402413606644</v>
+        <v>0.0263470746576786</v>
       </c>
     </row>
     <row r="303">
@@ -2961,7 +3145,7 @@
         <v>5.5678391456604</v>
       </c>
       <c r="B303" t="n">
-        <v>-0.06673125922679901</v>
+        <v>0.02618910744786263</v>
       </c>
     </row>
     <row r="304">
@@ -2969,7 +3153,7 @@
         <v>5.613065242767334</v>
       </c>
       <c r="B304" t="n">
-        <v>-0.06650973856449127</v>
+        <v>0.02603286132216454</v>
       </c>
     </row>
     <row r="305">
@@ -2977,7 +3161,7 @@
         <v>5.658291339874268</v>
       </c>
       <c r="B305" t="n">
-        <v>-0.06628956645727158</v>
+        <v>0.02587812766432762</v>
       </c>
     </row>
     <row r="306">
@@ -2985,7 +3169,7 @@
         <v>5.703517436981201</v>
       </c>
       <c r="B306" t="n">
-        <v>-0.06607058644294739</v>
+        <v>0.02572492882609367</v>
       </c>
     </row>
     <row r="307">
@@ -2993,7 +3177,7 @@
         <v>5.748743534088135</v>
       </c>
       <c r="B307" t="n">
-        <v>-0.06585291773080826</v>
+        <v>0.02557336166501045</v>
       </c>
     </row>
     <row r="308">
@@ -3001,7 +3185,7 @@
         <v>5.793969631195068</v>
       </c>
       <c r="B308" t="n">
-        <v>-0.06563644856214523</v>
+        <v>0.025423314422369</v>
       </c>
     </row>
     <row r="309">
@@ -3009,7 +3193,7 @@
         <v>5.83919620513916</v>
       </c>
       <c r="B309" t="n">
-        <v>-0.0654212087392807</v>
+        <v>0.02527492865920067</v>
       </c>
     </row>
     <row r="310">
@@ -3017,7 +3201,7 @@
         <v>5.884422302246094</v>
       </c>
       <c r="B310" t="n">
-        <v>-0.06520725041627884</v>
+        <v>0.02512809261679649</v>
       </c>
     </row>
     <row r="311">
@@ -3025,7 +3209,7 @@
         <v>5.929648399353027</v>
       </c>
       <c r="B311" t="n">
-        <v>-0.0649944394826889</v>
+        <v>0.02498291060328484</v>
       </c>
     </row>
     <row r="312">
@@ -3033,7 +3217,7 @@
         <v>5.974874496459961</v>
       </c>
       <c r="B312" t="n">
-        <v>-0.06478279083967209</v>
+        <v>0.02483924105763435</v>
       </c>
     </row>
     <row r="313">
@@ -3041,7 +3225,7 @@
         <v>6.020100593566895</v>
       </c>
       <c r="B313" t="n">
-        <v>-0.06457225978374481</v>
+        <v>0.02469722554087639</v>
       </c>
     </row>
     <row r="314">
@@ -3049,7 +3233,7 @@
         <v>6.065326690673828</v>
       </c>
       <c r="B314" t="n">
-        <v>-0.06436299532651901</v>
+        <v>0.02455679699778557</v>
       </c>
     </row>
     <row r="315">
@@ -3057,7 +3241,7 @@
         <v>6.110552787780762</v>
       </c>
       <c r="B315" t="n">
-        <v>-0.06415475159883499</v>
+        <v>0.02441798523068428</v>
       </c>
     </row>
     <row r="316">
@@ -3065,7 +3249,7 @@
         <v>6.155778884887695</v>
       </c>
       <c r="B316" t="n">
-        <v>-0.0639476403594017</v>
+        <v>0.02428072318434715</v>
       </c>
     </row>
     <row r="317">
@@ -3073,7 +3257,7 @@
         <v>6.201004981994629</v>
       </c>
       <c r="B317" t="n">
-        <v>-0.06374160200357437</v>
+        <v>0.02414514496922493</v>
       </c>
     </row>
     <row r="318">
@@ -3081,7 +3265,7 @@
         <v>6.246231079101562</v>
       </c>
       <c r="B318" t="n">
-        <v>-0.06353664398193359</v>
+        <v>0.02401111647486687</v>
       </c>
     </row>
     <row r="319">
@@ -3089,7 +3273,7 @@
         <v>6.291457176208496</v>
       </c>
       <c r="B319" t="n">
-        <v>-0.06333279609680176</v>
+        <v>0.02387867495417595</v>
       </c>
     </row>
     <row r="320">
@@ -3097,7 +3281,7 @@
         <v>6.33668327331543</v>
       </c>
       <c r="B320" t="n">
-        <v>-0.06312989443540573</v>
+        <v>0.02374782785773277</v>
       </c>
     </row>
     <row r="321">
@@ -3105,7 +3289,7 @@
         <v>6.381909370422363</v>
       </c>
       <c r="B321" t="n">
-        <v>-0.06292803585529327</v>
+        <v>0.0236186645925045</v>
       </c>
     </row>
     <row r="322">
@@ -3113,7 +3297,7 @@
         <v>6.427135467529297</v>
       </c>
       <c r="B322" t="n">
-        <v>-0.0627271756529808</v>
+        <v>0.02349101379513741</v>
       </c>
     </row>
     <row r="323">
@@ -3121,7 +3305,7 @@
         <v>6.472362041473389</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.06252724677324295</v>
+        <v>0.02336493507027626</v>
       </c>
     </row>
     <row r="324">
@@ -3129,7 +3313,7 @@
         <v>6.517588138580322</v>
       </c>
       <c r="B324" t="n">
-        <v>-0.06232834607362747</v>
+        <v>0.02324052527546883</v>
       </c>
     </row>
     <row r="325">
@@ -3137,7 +3321,7 @@
         <v>6.562814235687256</v>
       </c>
       <c r="B325" t="n">
-        <v>-0.06213032454252243</v>
+        <v>0.02311764284968376</v>
       </c>
     </row>
     <row r="326">
@@ -3145,7 +3329,7 @@
         <v>6.608040332794189</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.0619332566857338</v>
+        <v>0.02299642190337181</v>
       </c>
     </row>
     <row r="327">
@@ -3153,7 +3337,7 @@
         <v>6.653266429901123</v>
       </c>
       <c r="B327" t="n">
-        <v>-0.06173709034919739</v>
+        <v>0.02287675812840462</v>
       </c>
     </row>
     <row r="328">
@@ -3161,7 +3345,7 @@
         <v>6.698492527008057</v>
       </c>
       <c r="B328" t="n">
-        <v>-0.06154177337884903</v>
+        <v>0.02275876328349113</v>
       </c>
     </row>
     <row r="329">
@@ -3169,7 +3353,7 @@
         <v>6.74371862411499</v>
       </c>
       <c r="B329" t="n">
-        <v>-0.06134732812643051</v>
+        <v>0.02264228090643883</v>
       </c>
     </row>
     <row r="330">
@@ -3177,7 +3361,7 @@
         <v>6.788944721221924</v>
       </c>
       <c r="B330" t="n">
-        <v>-0.06115376949310303</v>
+        <v>0.02252743765711784</v>
       </c>
     </row>
     <row r="331">
@@ -3185,7 +3369,7 @@
         <v>6.834170818328857</v>
       </c>
       <c r="B331" t="n">
-        <v>-0.06096095591783524</v>
+        <v>0.02241417393088341</v>
       </c>
     </row>
     <row r="332">
@@ -3193,7 +3377,7 @@
         <v>6.879396915435791</v>
       </c>
       <c r="B332" t="n">
-        <v>-0.06076908856630325</v>
+        <v>0.02230247482657433</v>
       </c>
     </row>
     <row r="333">
@@ -3201,7 +3385,7 @@
         <v>6.924623012542725</v>
       </c>
       <c r="B333" t="n">
-        <v>-0.06057780981063843</v>
+        <v>0.02219235524535179</v>
       </c>
     </row>
     <row r="334">
@@ -3209,7 +3393,7 @@
         <v>6.969849109649658</v>
       </c>
       <c r="B334" t="n">
-        <v>-0.06038747727870941</v>
+        <v>0.02208380028605461</v>
       </c>
     </row>
     <row r="335">
@@ -3217,7 +3401,7 @@
         <v>7.015075206756592</v>
       </c>
       <c r="B335" t="n">
-        <v>-0.0601978525519371</v>
+        <v>0.02197694405913353</v>
       </c>
     </row>
     <row r="336">
@@ -3225,7 +3409,7 @@
         <v>7.060301303863525</v>
       </c>
       <c r="B336" t="n">
-        <v>-0.06000887602567673</v>
+        <v>0.02187152579426765</v>
       </c>
     </row>
     <row r="337">
@@ -3233,7 +3417,7 @@
         <v>7.105527400970459</v>
       </c>
       <c r="B337" t="n">
-        <v>-0.0598207488656044</v>
+        <v>0.02176773175597191</v>
       </c>
     </row>
     <row r="338">
@@ -3241,7 +3425,7 @@
         <v>7.150753974914551</v>
       </c>
       <c r="B338" t="n">
-        <v>-0.05963322520256042</v>
+        <v>0.0216655544936657</v>
       </c>
     </row>
     <row r="339">
@@ -3249,7 +3433,7 @@
         <v>7.195980072021484</v>
       </c>
       <c r="B339" t="n">
-        <v>-0.05944638699293137</v>
+        <v>0.02156490460038185</v>
       </c>
     </row>
     <row r="340">
@@ -3257,7 +3441,7 @@
         <v>7.241206169128418</v>
       </c>
       <c r="B340" t="n">
-        <v>-0.05926015973091125</v>
+        <v>0.02146577462553978</v>
       </c>
     </row>
     <row r="341">
@@ -3265,7 +3449,7 @@
         <v>7.286432266235352</v>
       </c>
       <c r="B341" t="n">
-        <v>-0.05907464027404785</v>
+        <v>0.02136832848191261</v>
       </c>
     </row>
     <row r="342">
@@ -3273,7 +3457,7 @@
         <v>7.331658363342285</v>
       </c>
       <c r="B342" t="n">
-        <v>-0.05888967961072922</v>
+        <v>0.02127227559685707</v>
       </c>
     </row>
     <row r="343">
@@ -3281,7 +3465,7 @@
         <v>7.376884460449219</v>
       </c>
       <c r="B343" t="n">
-        <v>-0.05870544165372849</v>
+        <v>0.02117795869708061</v>
       </c>
     </row>
     <row r="344">
@@ -3289,7 +3473,7 @@
         <v>7.422110557556152</v>
       </c>
       <c r="B344" t="n">
-        <v>-0.05852167308330536</v>
+        <v>0.02108501270413399</v>
       </c>
     </row>
     <row r="345">
@@ -3297,7 +3481,7 @@
         <v>7.467336654663086</v>
       </c>
       <c r="B345" t="n">
-        <v>-0.0583384782075882</v>
+        <v>0.02099379524588585</v>
       </c>
     </row>
     <row r="346">
@@ -3305,7 +3489,7 @@
         <v>7.51256275177002</v>
       </c>
       <c r="B346" t="n">
-        <v>-0.05815587192773819</v>
+        <v>0.0209040604531765</v>
       </c>
     </row>
     <row r="347">
@@ -3313,7 +3497,7 @@
         <v>7.557788848876953</v>
       </c>
       <c r="B347" t="n">
-        <v>-0.05797374248504639</v>
+        <v>0.02081580087542534</v>
       </c>
     </row>
     <row r="348">
@@ -3321,7 +3505,7 @@
         <v>7.603014945983887</v>
       </c>
       <c r="B348" t="n">
-        <v>-0.05779216438531876</v>
+        <v>0.02072921022772789</v>
       </c>
     </row>
     <row r="349">
@@ -3329,7 +3513,7 @@
         <v>7.64824104309082</v>
       </c>
       <c r="B349" t="n">
-        <v>-0.05761105567216873</v>
+        <v>0.02064407989382744</v>
       </c>
     </row>
     <row r="350">
@@ -3337,7 +3521,7 @@
         <v>7.693467140197754</v>
       </c>
       <c r="B350" t="n">
-        <v>-0.05743038654327393</v>
+        <v>0.02056049928069115</v>
       </c>
     </row>
     <row r="351">
@@ -3345,7 +3529,7 @@
         <v>7.738693237304688</v>
       </c>
       <c r="B351" t="n">
-        <v>-0.05725032836198807</v>
+        <v>0.02047836408019066</v>
       </c>
     </row>
     <row r="352">
@@ -3353,7 +3537,7 @@
         <v>7.783919811248779</v>
       </c>
       <c r="B352" t="n">
-        <v>-0.05707051604986191</v>
+        <v>0.02039777114987373</v>
       </c>
     </row>
     <row r="353">
@@ -3361,7 +3545,7 @@
         <v>7.829145908355713</v>
       </c>
       <c r="B353" t="n">
-        <v>-0.05689119547605515</v>
+        <v>0.02031877264380455</v>
       </c>
     </row>
     <row r="354">
@@ -3369,7 +3553,7 @@
         <v>7.874372005462646</v>
       </c>
       <c r="B354" t="n">
-        <v>-0.05671232938766479</v>
+        <v>0.02024128660559654</v>
       </c>
     </row>
     <row r="355">
@@ -3377,7 +3561,7 @@
         <v>7.91959810256958</v>
       </c>
       <c r="B355" t="n">
-        <v>-0.05653382837772369</v>
+        <v>0.02016528323292732</v>
       </c>
     </row>
     <row r="356">
@@ -3385,7 +3569,7 @@
         <v>7.964824199676514</v>
       </c>
       <c r="B356" t="n">
-        <v>-0.05635570734739304</v>
+        <v>0.02009071037173271</v>
       </c>
     </row>
     <row r="357">
@@ -3393,7 +3577,7 @@
         <v>8.010049819946289</v>
       </c>
       <c r="B357" t="n">
-        <v>-0.05617792159318924</v>
+        <v>0.02001757547259331</v>
       </c>
     </row>
     <row r="358">
@@ -3401,7 +3585,7 @@
         <v>8.055275917053223</v>
       </c>
       <c r="B358" t="n">
-        <v>-0.05600045621395111</v>
+        <v>0.01994616910815239</v>
       </c>
     </row>
     <row r="359">
@@ -3409,7 +3593,7 @@
         <v>8.100502967834473</v>
       </c>
       <c r="B359" t="n">
-        <v>-0.05582335591316223</v>
+        <v>0.0198761560022831</v>
       </c>
     </row>
     <row r="360">
@@ -3417,7 +3601,7 @@
         <v>8.145729064941406</v>
       </c>
       <c r="B360" t="n">
-        <v>-0.05564657598733902</v>
+        <v>0.01980753615498543</v>
       </c>
     </row>
     <row r="361">
@@ -3425,7 +3609,7 @@
         <v>8.19095516204834</v>
       </c>
       <c r="B361" t="n">
-        <v>-0.05546995997428894</v>
+        <v>0.01974049583077431</v>
       </c>
     </row>
     <row r="362">
@@ -3433,7 +3617,7 @@
         <v>8.236181259155273</v>
       </c>
       <c r="B362" t="n">
-        <v>-0.05529367923736572</v>
+        <v>0.01967471465468407</v>
       </c>
     </row>
     <row r="363">
@@ -3441,7 +3625,7 @@
         <v>8.281407356262207</v>
       </c>
       <c r="B363" t="n">
-        <v>-0.05511769652366638</v>
+        <v>0.01961064711213112</v>
       </c>
     </row>
     <row r="364">
@@ -3449,7 +3633,7 @@
         <v>8.326633453369141</v>
       </c>
       <c r="B364" t="n">
-        <v>-0.05494188517332077</v>
+        <v>0.01954792067408562</v>
       </c>
     </row>
     <row r="365">
@@ -3457,7 +3641,7 @@
         <v>8.371859550476074</v>
       </c>
       <c r="B365" t="n">
-        <v>-0.05476631969213486</v>
+        <v>0.01948671415448189</v>
       </c>
     </row>
     <row r="366">
@@ -3465,7 +3649,7 @@
         <v>8.417085647583008</v>
       </c>
       <c r="B366" t="n">
-        <v>-0.05459100008010864</v>
+        <v>0.01942680403590202</v>
       </c>
     </row>
     <row r="367">
@@ -3473,7 +3657,7 @@
         <v>8.462311744689941</v>
       </c>
       <c r="B367" t="n">
-        <v>-0.05441591143608093</v>
+        <v>0.0193684808909893</v>
       </c>
     </row>
     <row r="368">
@@ -3481,7 +3665,7 @@
         <v>8.507537841796875</v>
       </c>
       <c r="B368" t="n">
-        <v>-0.0542408749461174</v>
+        <v>0.01931159570813179</v>
       </c>
     </row>
     <row r="369">
@@ -3489,7 +3673,7 @@
         <v>8.552763938903809</v>
       </c>
       <c r="B369" t="n">
-        <v>-0.05406612157821655</v>
+        <v>0.01925596967339516</v>
       </c>
     </row>
     <row r="370">
@@ -3497,7 +3681,7 @@
         <v>8.597990036010742</v>
       </c>
       <c r="B370" t="n">
-        <v>-0.0538913682103157</v>
+        <v>0.01920206472277641</v>
       </c>
     </row>
     <row r="371">
@@ -3505,7 +3689,7 @@
         <v>8.643216133117676</v>
       </c>
       <c r="B371" t="n">
-        <v>-0.05371692031621933</v>
+        <v>0.01914943382143974</v>
       </c>
     </row>
     <row r="372">
@@ -3513,7 +3697,7 @@
         <v>8.688442230224609</v>
       </c>
       <c r="B372" t="n">
-        <v>-0.05354255437850952</v>
+        <v>0.01909815892577171</v>
       </c>
     </row>
     <row r="373">
@@ -3521,7 +3705,7 @@
         <v>8.733668327331543</v>
       </c>
       <c r="B373" t="n">
-        <v>-0.05336819589138031</v>
+        <v>0.01904832944273949</v>
       </c>
     </row>
     <row r="374">
@@ -3529,7 +3713,7 @@
         <v>8.778894424438477</v>
       </c>
       <c r="B374" t="n">
-        <v>-0.05319400131702423</v>
+        <v>0.01899988576769829</v>
       </c>
     </row>
     <row r="375">
@@ -3537,7 +3721,7 @@
         <v>8.82412052154541</v>
       </c>
       <c r="B375" t="n">
-        <v>-0.05301983654499054</v>
+        <v>0.0189528726041317</v>
       </c>
     </row>
     <row r="376">
@@ -3545,7 +3729,7 @@
         <v>8.869346618652344</v>
       </c>
       <c r="B376" t="n">
-        <v>-0.05284567922353745</v>
+        <v>0.01890723034739494</v>
       </c>
     </row>
     <row r="377">
@@ -3553,7 +3737,7 @@
         <v>8.914572715759277</v>
       </c>
       <c r="B377" t="n">
-        <v>-0.05267170071601868</v>
+        <v>0.01886289939284325</v>
       </c>
     </row>
     <row r="378">
@@ -3561,7 +3745,7 @@
         <v>8.959798812866211</v>
       </c>
       <c r="B378" t="n">
-        <v>-0.05249769985675812</v>
+        <v>0.01882008835673332</v>
       </c>
     </row>
     <row r="379">
@@ -3569,7 +3753,7 @@
         <v>9.005024909973145</v>
       </c>
       <c r="B379" t="n">
-        <v>-0.05232375860214233</v>
+        <v>0.01877857372164726</v>
       </c>
     </row>
     <row r="380">
@@ -3577,7 +3761,7 @@
         <v>9.050251007080078</v>
       </c>
       <c r="B380" t="n">
-        <v>-0.05214983224868774</v>
+        <v>0.01873831078410149</v>
       </c>
     </row>
     <row r="381">
@@ -3585,7 +3769,7 @@
         <v>9.095477104187012</v>
       </c>
       <c r="B381" t="n">
-        <v>-0.05197592079639435</v>
+        <v>0.01869950816035271</v>
       </c>
     </row>
     <row r="382">
@@ -3593,7 +3777,7 @@
         <v>9.140703201293945</v>
       </c>
       <c r="B382" t="n">
-        <v>-0.05180197954177856</v>
+        <v>0.01866203173995018</v>
       </c>
     </row>
     <row r="383">
@@ -3601,7 +3785,7 @@
         <v>9.185929298400879</v>
       </c>
       <c r="B383" t="n">
-        <v>-0.05162788927555084</v>
+        <v>0.01862598583102226</v>
       </c>
     </row>
     <row r="384">
@@ -3609,7 +3793,7 @@
         <v>9.231155395507812</v>
       </c>
       <c r="B384" t="n">
-        <v>-0.05145388841629028</v>
+        <v>0.0185912512242794</v>
       </c>
     </row>
     <row r="385">
@@ -3617,7 +3801,7 @@
         <v>9.276381492614746</v>
       </c>
       <c r="B385" t="n">
-        <v>-0.05127973854541779</v>
+        <v>0.01855779811739922</v>
       </c>
     </row>
     <row r="386">
@@ -3625,7 +3809,7 @@
         <v>9.32160758972168</v>
       </c>
       <c r="B386" t="n">
-        <v>-0.05110563337802887</v>
+        <v>0.01852567121386528</v>
       </c>
     </row>
     <row r="387">
@@ -3633,7 +3817,7 @@
         <v>9.36683464050293</v>
       </c>
       <c r="B387" t="n">
-        <v>-0.05093138664960861</v>
+        <v>0.01849479600787163</v>
       </c>
     </row>
     <row r="388">
@@ -3641,7 +3825,7 @@
         <v>9.412060737609863</v>
       </c>
       <c r="B388" t="n">
-        <v>-0.05075706541538239</v>
+        <v>0.01846533641219139</v>
       </c>
     </row>
     <row r="389">
@@ -3649,7 +3833,7 @@
         <v>9.457286834716797</v>
       </c>
       <c r="B389" t="n">
-        <v>-0.05058259516954422</v>
+        <v>0.01843706890940666</v>
       </c>
     </row>
     <row r="390">
@@ -3657,7 +3841,7 @@
         <v>9.50251293182373</v>
       </c>
       <c r="B390" t="n">
-        <v>-0.05040802806615829</v>
+        <v>0.01841024681925774</v>
       </c>
     </row>
     <row r="391">
@@ -3665,7 +3849,7 @@
         <v>9.547739028930664</v>
       </c>
       <c r="B391" t="n">
-        <v>-0.05023341625928879</v>
+        <v>0.01838460192084312</v>
       </c>
     </row>
     <row r="392">
@@ -3673,7 +3857,7 @@
         <v>9.592965126037598</v>
       </c>
       <c r="B392" t="n">
-        <v>-0.05005861818790436</v>
+        <v>0.01836023852229118</v>
       </c>
     </row>
     <row r="393">
@@ -3681,7 +3865,7 @@
         <v>9.638191223144531</v>
       </c>
       <c r="B393" t="n">
-        <v>-0.04988367855548859</v>
+        <v>0.01833723112940788</v>
       </c>
     </row>
     <row r="394">
@@ -3689,7 +3873,7 @@
         <v>9.683417320251465</v>
       </c>
       <c r="B394" t="n">
-        <v>-0.04970859736204147</v>
+        <v>0.01831552013754845</v>
       </c>
     </row>
     <row r="395">
@@ -3697,7 +3881,7 @@
         <v>9.728643417358398</v>
       </c>
       <c r="B395" t="n">
-        <v>-0.04953330755233765</v>
+        <v>0.01829492673277855</v>
       </c>
     </row>
     <row r="396">
@@ -3705,7 +3889,7 @@
         <v>9.773869514465332</v>
       </c>
       <c r="B396" t="n">
-        <v>-0.04935793578624725</v>
+        <v>0.01827562972903252</v>
       </c>
     </row>
     <row r="397">
@@ -3713,7 +3897,7 @@
         <v>9.819095611572266</v>
       </c>
       <c r="B397" t="n">
-        <v>-0.04918234050273895</v>
+        <v>0.01825759932398796</v>
       </c>
     </row>
     <row r="398">
@@ -3721,7 +3905,7 @@
         <v>9.864321708679199</v>
       </c>
       <c r="B398" t="n">
-        <v>-0.04900646209716797</v>
+        <v>0.01824076101183891</v>
       </c>
     </row>
     <row r="399">
@@ -3729,7 +3913,7 @@
         <v>9.909547805786133</v>
       </c>
       <c r="B399" t="n">
-        <v>-0.04883042722940445</v>
+        <v>0.01822520419955254</v>
       </c>
     </row>
     <row r="400">
@@ -3737,7 +3921,7 @@
         <v>9.954773902893066</v>
       </c>
       <c r="B400" t="n">
-        <v>-0.04865424335002899</v>
+        <v>0.01821083948016167</v>
       </c>
     </row>
     <row r="401">
@@ -3745,7 +3929,7 @@
         <v>10</v>
       </c>
       <c r="B401" t="n">
-        <v>-0.04847773164510727</v>
+        <v>0.01819786056876183</v>
       </c>
     </row>
   </sheetData>

--- a/utils3d/results/results.xlsx
+++ b/utils3d/results/results.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,16 +473,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>22.13682746887207</v>
+        <v>0.8799886107444763</v>
       </c>
       <c r="B2" t="n">
-        <v>8.445732237305492e-05</v>
+        <v>6.667971319984645e-05</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09558027237653732</v>
+        <v>0.08758261054754257</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -496,16 +496,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>21.64498710632324</v>
+        <v>1.012652397155762</v>
       </c>
       <c r="B3" t="n">
-        <v>8.859923582349438e-06</v>
+        <v>8.910049655241892e-05</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02086022682487965</v>
+        <v>0.09709181636571884</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -519,16 +519,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>21.45958518981934</v>
+        <v>1.514376640319824</v>
       </c>
       <c r="B4" t="n">
-        <v>4.785470082424581e-06</v>
+        <v>0.0001655161031521857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02503343112766743</v>
+        <v>0.1708619296550751</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -542,16 +542,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>21.4375</v>
+        <v>2.269627332687378</v>
       </c>
       <c r="B5" t="n">
-        <v>1.599928509676829e-05</v>
+        <v>0.0002878287341445684</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04358930885791779</v>
+        <v>0.2900517284870148</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -560,144 +560,6 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>21.47939682006836</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2.559552012826316e-05</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.05771688744425774</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>21.50703048706055</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2.760745337582193e-05</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.05650247260928154</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>21.49966049194336</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2.279554792039562e-05</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.04235434532165527</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>21.47169303894043</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.544687438581605e-05</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.0260066706687212</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>21.44048881530762</v>
-      </c>
-      <c r="B10" t="n">
-        <v>9.199219675792847e-06</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.01493515446782112</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>21.41684341430664</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5.30583656654926e-06</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.009625900536775589</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -737,7 +599,7 @@
         <v>-0.1000000014901161</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1656679660081863</v>
+        <v>0.5185161828994751</v>
       </c>
     </row>
     <row r="3">
@@ -745,7 +607,7 @@
         <v>-0.09447236359119415</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1650752574205399</v>
+        <v>0.513008177280426</v>
       </c>
     </row>
     <row r="4">
@@ -753,7 +615,7 @@
         <v>-0.08894472569227219</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1644761115312576</v>
+        <v>0.5074880123138428</v>
       </c>
     </row>
     <row r="5">
@@ -761,7 +623,7 @@
         <v>-0.08341708779335022</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1638705134391785</v>
+        <v>0.5019561052322388</v>
       </c>
     </row>
     <row r="6">
@@ -769,7 +631,7 @@
         <v>-0.07788944989442825</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1632585078477859</v>
+        <v>0.4964125156402588</v>
       </c>
     </row>
     <row r="7">
@@ -777,7 +639,7 @@
         <v>-0.07236181199550629</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1626401096582413</v>
+        <v>0.4908574223518372</v>
       </c>
     </row>
     <row r="8">
@@ -785,7 +647,7 @@
         <v>-0.06683417409658432</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1620153188705444</v>
+        <v>0.4852911829948425</v>
       </c>
     </row>
     <row r="9">
@@ -793,7 +655,7 @@
         <v>-0.06130653247237206</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1613841354846954</v>
+        <v>0.4797140061855316</v>
       </c>
     </row>
     <row r="10">
@@ -801,7 +663,7 @@
         <v>-0.05577889457345009</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1607465893030167</v>
+        <v>0.4741260409355164</v>
       </c>
     </row>
     <row r="11">
@@ -809,7 +671,7 @@
         <v>-0.05025125667452812</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1601026803255081</v>
+        <v>0.4685275852680206</v>
       </c>
     </row>
     <row r="12">
@@ -817,7 +679,7 @@
         <v>-0.04472361877560616</v>
       </c>
       <c r="B12" t="n">
-        <v>0.159452497959137</v>
+        <v>0.4629189372062683</v>
       </c>
     </row>
     <row r="13">
@@ -825,7 +687,7 @@
         <v>-0.03919598087668419</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1587959975004196</v>
+        <v>0.4573001861572266</v>
       </c>
     </row>
     <row r="14">
@@ -833,7 +695,7 @@
         <v>-0.03366834297776222</v>
       </c>
       <c r="B14" t="n">
-        <v>0.158133253455162</v>
+        <v>0.4516716599464417</v>
       </c>
     </row>
     <row r="15">
@@ -841,7 +703,7 @@
         <v>-0.02814070321619511</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1574642062187195</v>
+        <v>0.4460336863994598</v>
       </c>
     </row>
     <row r="16">
@@ -849,7 +711,7 @@
         <v>-0.02261306531727314</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1567889600992203</v>
+        <v>0.4403863549232483</v>
       </c>
     </row>
     <row r="17">
@@ -857,7 +719,7 @@
         <v>-0.01708542741835117</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1561075299978256</v>
+        <v>0.4347299337387085</v>
       </c>
     </row>
     <row r="18">
@@ -865,7 +727,7 @@
         <v>-0.01155778858810663</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1554199606180191</v>
+        <v>0.4290647506713867</v>
       </c>
     </row>
     <row r="19">
@@ -873,7 +735,7 @@
         <v>-0.006030150689184666</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1547262519598007</v>
+        <v>0.4233910143375397</v>
       </c>
     </row>
     <row r="20">
@@ -881,7 +743,7 @@
         <v>-0.0005025125574320555</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1540265083312988</v>
+        <v>0.4177089333534241</v>
       </c>
     </row>
     <row r="21">
@@ -889,7 +751,7 @@
         <v>0.005025125574320555</v>
       </c>
       <c r="B21" t="n">
-        <v>0.153320699930191</v>
+        <v>0.4120188057422638</v>
       </c>
     </row>
     <row r="22">
@@ -897,7 +759,7 @@
         <v>0.01055276393890381</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1526088863611221</v>
+        <v>0.4063209295272827</v>
       </c>
     </row>
     <row r="23">
@@ -905,7 +767,7 @@
         <v>0.01608040183782578</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1518910974264145</v>
+        <v>0.4006155431270599</v>
       </c>
     </row>
     <row r="24">
@@ -913,7 +775,7 @@
         <v>0.02160803973674774</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1511674374341965</v>
+        <v>0.3949028253555298</v>
       </c>
     </row>
     <row r="25">
@@ -921,7 +783,7 @@
         <v>0.02713567763566971</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1504378467798233</v>
+        <v>0.3891829252243042</v>
       </c>
     </row>
     <row r="26">
@@ -929,7 +791,7 @@
         <v>0.03266331553459167</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1497024744749069</v>
+        <v>0.3834564387798309</v>
       </c>
     </row>
     <row r="27">
@@ -937,7 +799,7 @@
         <v>0.03819095343351364</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1489613205194473</v>
+        <v>0.3777233958244324</v>
       </c>
     </row>
     <row r="28">
@@ -945,7 +807,7 @@
         <v>0.04371859133243561</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1482144147157669</v>
+        <v>0.3719841241836548</v>
       </c>
     </row>
     <row r="29">
@@ -953,7 +815,7 @@
         <v>0.04924623295664787</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1474618166685104</v>
+        <v>0.3662388324737549</v>
       </c>
     </row>
     <row r="30">
@@ -961,7 +823,7 @@
         <v>0.05477387085556984</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1467036157846451</v>
+        <v>0.360487699508667</v>
       </c>
     </row>
     <row r="31">
@@ -969,7 +831,7 @@
         <v>0.06030150875449181</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1459398418664932</v>
+        <v>0.3547312617301941</v>
       </c>
     </row>
     <row r="32">
@@ -977,7 +839,7 @@
         <v>0.06582914292812347</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1451705396175385</v>
+        <v>0.348969578742981</v>
       </c>
     </row>
     <row r="33">
@@ -985,7 +847,7 @@
         <v>0.07135678082704544</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1443957835435867</v>
+        <v>0.3432029783725739</v>
       </c>
     </row>
     <row r="34">
@@ -993,7 +855,7 @@
         <v>0.07688441872596741</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1436156034469604</v>
+        <v>0.3374316990375519</v>
       </c>
     </row>
     <row r="35">
@@ -1001,7 +863,7 @@
         <v>0.08241205662488937</v>
       </c>
       <c r="B35" t="n">
-        <v>0.142830103635788</v>
+        <v>0.3316560387611389</v>
       </c>
     </row>
     <row r="36">
@@ -1009,7 +871,7 @@
         <v>0.08793970197439194</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1420392245054245</v>
+        <v>0.3258761465549469</v>
       </c>
     </row>
     <row r="37">
@@ -1017,7 +879,7 @@
         <v>0.0934673398733139</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1412431746721268</v>
+        <v>0.3200924694538116</v>
       </c>
     </row>
     <row r="38">
@@ -1025,7 +887,7 @@
         <v>0.09899497777223587</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1404419094324112</v>
+        <v>0.3143051862716675</v>
       </c>
     </row>
     <row r="39">
@@ -1033,7 +895,7 @@
         <v>0.1045226156711578</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1396355330944061</v>
+        <v>0.3085145950317383</v>
       </c>
     </row>
     <row r="40">
@@ -1041,7 +903,7 @@
         <v>0.1100502535700798</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1388241052627563</v>
+        <v>0.3027209341526031</v>
       </c>
     </row>
     <row r="41">
@@ -1049,7 +911,7 @@
         <v>0.1155778914690018</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1380076557397842</v>
+        <v>0.296924352645874</v>
       </c>
     </row>
     <row r="42">
@@ -1057,7 +919,7 @@
         <v>0.1211055293679237</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1371862888336182</v>
+        <v>0.2911253571510315</v>
       </c>
     </row>
     <row r="43">
@@ -1065,7 +927,7 @@
         <v>0.1266331672668457</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1363600343465805</v>
+        <v>0.2853241264820099</v>
       </c>
     </row>
     <row r="44">
@@ -1073,7 +935,7 @@
         <v>0.1321607977151871</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1355289816856384</v>
+        <v>0.2795209288597107</v>
       </c>
     </row>
     <row r="45">
@@ -1081,7 +943,7 @@
         <v>0.1376884430646896</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1346931606531143</v>
+        <v>0.273716002702713</v>
       </c>
     </row>
     <row r="46">
@@ -1089,7 +951,7 @@
         <v>0.143216073513031</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1338526457548141</v>
+        <v>0.2679095268249512</v>
       </c>
     </row>
     <row r="47">
@@ -1097,7 +959,7 @@
         <v>0.1487437188625336</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1330075263977051</v>
+        <v>0.2621019780635834</v>
       </c>
     </row>
     <row r="48">
@@ -1105,7 +967,7 @@
         <v>0.1542713642120361</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1321578770875931</v>
+        <v>0.2562935352325439</v>
       </c>
     </row>
     <row r="49">
@@ -1113,7 +975,7 @@
         <v>0.1597989946603775</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1313036978244781</v>
+        <v>0.2504844665527344</v>
       </c>
     </row>
     <row r="50">
@@ -1121,7 +983,7 @@
         <v>0.1653266400098801</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1304450780153275</v>
+        <v>0.2446750104427338</v>
       </c>
     </row>
     <row r="51">
@@ -1129,7 +991,7 @@
         <v>0.1708542704582214</v>
       </c>
       <c r="B51" t="n">
-        <v>0.129582092165947</v>
+        <v>0.2388653159141541</v>
       </c>
     </row>
     <row r="52">
@@ -1137,7 +999,7 @@
         <v>0.176381915807724</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1287147998809814</v>
+        <v>0.2330559492111206</v>
       </c>
     </row>
     <row r="53">
@@ -1145,7 +1007,7 @@
         <v>0.1819095462560654</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1278432905673981</v>
+        <v>0.2272470444440842</v>
       </c>
     </row>
     <row r="54">
@@ -1153,7 +1015,7 @@
         <v>0.1874371916055679</v>
       </c>
       <c r="B54" t="n">
-        <v>0.1269675940275192</v>
+        <v>0.2214387953281403</v>
       </c>
     </row>
     <row r="55">
@@ -1161,7 +1023,7 @@
         <v>0.1929648220539093</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1260878145694733</v>
+        <v>0.2156315445899963</v>
       </c>
     </row>
     <row r="56">
@@ -1169,7 +1031,7 @@
         <v>0.1984924674034119</v>
       </c>
       <c r="B56" t="n">
-        <v>0.125203937292099</v>
+        <v>0.2098254263401031</v>
       </c>
     </row>
     <row r="57">
@@ -1177,7 +1039,7 @@
         <v>0.2040200978517532</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1243161037564278</v>
+        <v>0.2040209472179413</v>
       </c>
     </row>
     <row r="58">
@@ -1185,7 +1047,7 @@
         <v>0.2095477432012558</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1234243884682655</v>
+        <v>0.1982182264328003</v>
       </c>
     </row>
     <row r="59">
@@ -1193,7 +1055,7 @@
         <v>0.2150753736495972</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1225287392735481</v>
+        <v>0.1924175322055817</v>
       </c>
     </row>
     <row r="60">
@@ -1201,7 +1063,7 @@
         <v>0.2206030189990997</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1216293349862099</v>
+        <v>0.1866191327571869</v>
       </c>
     </row>
     <row r="61">
@@ -1209,7 +1071,7 @@
         <v>0.2261306494474411</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1207262352108955</v>
+        <v>0.1808232963085175</v>
       </c>
     </row>
     <row r="62">
@@ -1217,7 +1079,7 @@
         <v>0.2316582947969437</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1198194399476051</v>
+        <v>0.1750301569700241</v>
       </c>
     </row>
     <row r="63">
@@ -1225,7 +1087,7 @@
         <v>0.237185925245285</v>
       </c>
       <c r="B63" t="n">
-        <v>0.118909128010273</v>
+        <v>0.1692402511835098</v>
       </c>
     </row>
     <row r="64">
@@ -1233,7 +1095,7 @@
         <v>0.2427135705947876</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1179951503872871</v>
+        <v>0.1634536385536194</v>
       </c>
     </row>
     <row r="65">
@@ -1241,7 +1103,7 @@
         <v>0.248241201043129</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1170777902007103</v>
+        <v>0.1576706767082214</v>
       </c>
     </row>
     <row r="66">
@@ -1249,7 +1111,7 @@
         <v>0.2537688314914703</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1161569729447365</v>
+        <v>0.1518915444612503</v>
       </c>
     </row>
     <row r="67">
@@ -1257,7 +1119,7 @@
         <v>0.2592964768409729</v>
       </c>
       <c r="B67" t="n">
-        <v>0.115232802927494</v>
+        <v>0.1461165398359299</v>
       </c>
     </row>
     <row r="68">
@@ -1265,7 +1127,7 @@
         <v>0.2648241221904755</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1143052652478218</v>
+        <v>0.1403457224369049</v>
       </c>
     </row>
     <row r="69">
@@ -1273,7 +1135,7 @@
         <v>0.270351767539978</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1133746281266212</v>
+        <v>0.134579673409462</v>
       </c>
     </row>
     <row r="70">
@@ -1281,7 +1143,7 @@
         <v>0.2758793830871582</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1124407276511192</v>
+        <v>0.1288185566663742</v>
       </c>
     </row>
     <row r="71">
@@ -1289,7 +1151,7 @@
         <v>0.2814070284366608</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1115037873387337</v>
+        <v>0.1230625063180923</v>
       </c>
     </row>
     <row r="72">
@@ -1297,7 +1159,7 @@
         <v>0.2869346737861633</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1105637326836586</v>
+        <v>0.1173118203878403</v>
       </c>
     </row>
     <row r="73">
@@ -1305,7 +1167,7 @@
         <v>0.2924623191356659</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1096206679940224</v>
+        <v>0.1115666478872299</v>
       </c>
     </row>
     <row r="74">
@@ -1313,7 +1175,7 @@
         <v>0.2979899644851685</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1086746975779533</v>
+        <v>0.1058274358510971</v>
       </c>
     </row>
     <row r="75">
@@ -1321,7 +1183,7 @@
         <v>0.3035175800323486</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1077258065342903</v>
+        <v>0.1000943332910538</v>
       </c>
     </row>
     <row r="76">
@@ -1329,7 +1191,7 @@
         <v>0.3090452253818512</v>
       </c>
       <c r="B76" t="n">
-        <v>0.1067741885781288</v>
+        <v>0.09436757862567902</v>
       </c>
     </row>
     <row r="77">
@@ -1337,7 +1199,7 @@
         <v>0.3145728707313538</v>
       </c>
       <c r="B77" t="n">
-        <v>0.1058197394013405</v>
+        <v>0.08864744007587433</v>
       </c>
     </row>
     <row r="78">
@@ -1345,7 +1207,7 @@
         <v>0.3201005160808563</v>
       </c>
       <c r="B78" t="n">
-        <v>0.1048625782132149</v>
+        <v>0.08293396234512329</v>
       </c>
     </row>
     <row r="79">
@@ -1353,7 +1215,7 @@
         <v>0.3256281316280365</v>
       </c>
       <c r="B79" t="n">
-        <v>0.1039027199149132</v>
+        <v>0.07722771167755127</v>
       </c>
     </row>
     <row r="80">
@@ -1361,7 +1223,7 @@
         <v>0.3311557769775391</v>
       </c>
       <c r="B80" t="n">
-        <v>0.1029402986168861</v>
+        <v>0.07152871787548065</v>
       </c>
     </row>
     <row r="81">
@@ -1369,7 +1231,7 @@
         <v>0.3366834223270416</v>
       </c>
       <c r="B81" t="n">
-        <v>0.1019752994179726</v>
+        <v>0.06583724915981293</v>
       </c>
     </row>
     <row r="82">
@@ -1377,7 +1239,7 @@
         <v>0.3422110676765442</v>
       </c>
       <c r="B82" t="n">
-        <v>0.1010077968239784</v>
+        <v>0.06015355512499809</v>
       </c>
     </row>
     <row r="83">
@@ -1385,7 +1247,7 @@
         <v>0.3477386832237244</v>
       </c>
       <c r="B83" t="n">
-        <v>0.1000378355383873</v>
+        <v>0.05447771772742271</v>
       </c>
     </row>
     <row r="84">
@@ -1393,7 +1255,7 @@
         <v>0.3532663285732269</v>
       </c>
       <c r="B84" t="n">
-        <v>0.09906551986932755</v>
+        <v>0.04881022498011589</v>
       </c>
     </row>
     <row r="85">
@@ -1401,7 +1263,7 @@
         <v>0.3587939739227295</v>
       </c>
       <c r="B85" t="n">
-        <v>0.09809087216854095</v>
+        <v>0.0431511364877224</v>
       </c>
     </row>
     <row r="86">
@@ -1409,7 +1271,7 @@
         <v>0.3643216192722321</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0971139594912529</v>
+        <v>0.03750074282288551</v>
       </c>
     </row>
     <row r="87">
@@ -1417,7 +1279,7 @@
         <v>0.3698492348194122</v>
       </c>
       <c r="B87" t="n">
-        <v>0.09613468497991562</v>
+        <v>0.03185922652482986</v>
       </c>
     </row>
     <row r="88">
@@ -1425,7 +1287,7 @@
         <v>0.3753768801689148</v>
       </c>
       <c r="B88" t="n">
-        <v>0.09515327960252762</v>
+        <v>0.02622668817639351</v>
       </c>
     </row>
     <row r="89">
@@ -1433,7 +1295,7 @@
         <v>0.3809045255184174</v>
       </c>
       <c r="B89" t="n">
-        <v>0.09416970610618591</v>
+        <v>0.02060356363654137</v>
       </c>
     </row>
     <row r="90">
@@ -1441,7 +1303,7 @@
         <v>0.3864321708679199</v>
       </c>
       <c r="B90" t="n">
-        <v>0.09318409115076065</v>
+        <v>0.01499000284820795</v>
       </c>
     </row>
     <row r="91">
@@ -1449,7 +1311,7 @@
         <v>0.3919597864151001</v>
       </c>
       <c r="B91" t="n">
-        <v>0.09219641983509064</v>
+        <v>0.009386141784489155</v>
       </c>
     </row>
     <row r="92">
@@ -1457,7 +1319,7 @@
         <v>0.3974874317646027</v>
       </c>
       <c r="B92" t="n">
-        <v>0.09120664000511169</v>
+        <v>0.003792264498770237</v>
       </c>
     </row>
     <row r="93">
@@ -1465,7 +1327,7 @@
         <v>0.4030150771141052</v>
       </c>
       <c r="B93" t="n">
-        <v>0.09021499752998352</v>
+        <v>-0.0017916364595294</v>
       </c>
     </row>
     <row r="94">
@@ -1473,7 +1335,7 @@
         <v>0.4085427224636078</v>
       </c>
       <c r="B94" t="n">
-        <v>0.08922139555215836</v>
+        <v>-0.007365002296864986</v>
       </c>
     </row>
     <row r="95">
@@ -1481,7 +1343,7 @@
         <v>0.414070338010788</v>
       </c>
       <c r="B95" t="n">
-        <v>0.08822596818208694</v>
+        <v>-0.0129278777167201</v>
       </c>
     </row>
     <row r="96">
@@ -1489,7 +1351,7 @@
         <v>0.4195979833602905</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0872286930680275</v>
+        <v>-0.01847990974783897</v>
       </c>
     </row>
     <row r="97">
@@ -1497,7 +1359,7 @@
         <v>0.4251256287097931</v>
       </c>
       <c r="B97" t="n">
-        <v>0.08622962981462479</v>
+        <v>-0.02402099594473839</v>
       </c>
     </row>
     <row r="98">
@@ -1505,7 +1367,7 @@
         <v>0.4306532740592957</v>
       </c>
       <c r="B98" t="n">
-        <v>0.08522878587245941</v>
+        <v>-0.02955112978816032</v>
       </c>
     </row>
     <row r="99">
@@ -1513,7 +1375,7 @@
         <v>0.4361809194087982</v>
       </c>
       <c r="B99" t="n">
-        <v>0.08422628790140152</v>
+        <v>-0.03506974503397942</v>
       </c>
     </row>
     <row r="100">
@@ -1521,7 +1383,7 @@
         <v>0.4417085349559784</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08322212845087051</v>
+        <v>-0.04057684913277626</v>
       </c>
     </row>
     <row r="101">
@@ -1529,7 +1391,7 @@
         <v>0.447236180305481</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08221632242202759</v>
+        <v>-0.04607220366597176</v>
       </c>
     </row>
     <row r="102">
@@ -1537,7 +1399,7 @@
         <v>0.4527638256549835</v>
       </c>
       <c r="B102" t="n">
-        <v>0.08120900392532349</v>
+        <v>-0.05155570432543755</v>
       </c>
     </row>
     <row r="103">
@@ -1545,7 +1407,7 @@
         <v>0.4582914710044861</v>
       </c>
       <c r="B103" t="n">
-        <v>0.08020012825727463</v>
+        <v>-0.05702720582485199</v>
       </c>
     </row>
     <row r="104">
@@ -1553,7 +1415,7 @@
         <v>0.4638190865516663</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0791897252202034</v>
+        <v>-0.06248630955815315</v>
       </c>
     </row>
     <row r="105">
@@ -1561,7 +1423,7 @@
         <v>0.4693467319011688</v>
       </c>
       <c r="B105" t="n">
-        <v>0.07817787677049637</v>
+        <v>-0.06793306767940521</v>
       </c>
     </row>
     <row r="106">
@@ -1569,7 +1431,7 @@
         <v>0.4748743772506714</v>
       </c>
       <c r="B106" t="n">
-        <v>0.07716456055641174</v>
+        <v>-0.07336720824241638</v>
       </c>
     </row>
     <row r="107">
@@ -1577,7 +1439,7 @@
         <v>0.480402022600174</v>
       </c>
       <c r="B107" t="n">
-        <v>0.07614990323781967</v>
+        <v>-0.07878851145505905</v>
       </c>
     </row>
     <row r="108">
@@ -1585,7 +1447,7 @@
         <v>0.4859296381473541</v>
       </c>
       <c r="B108" t="n">
-        <v>0.07513388246297836</v>
+        <v>-0.08419693261384964</v>
       </c>
     </row>
     <row r="109">
@@ -1593,7 +1455,7 @@
         <v>0.4914572834968567</v>
       </c>
       <c r="B109" t="n">
-        <v>0.07411658018827438</v>
+        <v>-0.08959218114614487</v>
       </c>
     </row>
     <row r="110">
@@ -1601,7 +1463,7 @@
         <v>0.4969849288463593</v>
       </c>
       <c r="B110" t="n">
-        <v>0.07309795171022415</v>
+        <v>-0.0949743241071701</v>
       </c>
     </row>
     <row r="111">
@@ -1609,7 +1471,7 @@
         <v>0.5025125741958618</v>
       </c>
       <c r="B111" t="n">
-        <v>0.07207811623811722</v>
+        <v>-0.1003428846597672</v>
       </c>
     </row>
     <row r="112">
@@ -1617,7 +1479,7 @@
         <v>0.508040189743042</v>
       </c>
       <c r="B112" t="n">
-        <v>0.07105708867311478</v>
+        <v>-0.1056978479027748</v>
       </c>
     </row>
     <row r="113">
@@ -1625,7 +1487,7 @@
         <v>0.5135678648948669</v>
       </c>
       <c r="B113" t="n">
-        <v>0.07003482431173325</v>
+        <v>-0.1110391914844513</v>
       </c>
     </row>
     <row r="114">
@@ -1633,7 +1495,7 @@
         <v>0.5190954804420471</v>
       </c>
       <c r="B114" t="n">
-        <v>0.06901146471500397</v>
+        <v>-0.1163664758205414</v>
       </c>
     </row>
     <row r="115">
@@ -1641,7 +1503,7 @@
         <v>0.5246230959892273</v>
       </c>
       <c r="B115" t="n">
-        <v>0.06798694282770157</v>
+        <v>-0.1216799020767212</v>
       </c>
     </row>
     <row r="116">
@@ -1649,7 +1511,7 @@
         <v>0.5301507711410522</v>
       </c>
       <c r="B116" t="n">
-        <v>0.06696145981550217</v>
+        <v>-0.1269789636135101</v>
       </c>
     </row>
     <row r="117">
@@ -1657,7 +1519,7 @@
         <v>0.5356783866882324</v>
       </c>
       <c r="B117" t="n">
-        <v>0.06593484431505203</v>
+        <v>-0.1322638094425201</v>
       </c>
     </row>
     <row r="118">
@@ -1665,7 +1527,7 @@
         <v>0.5412060022354126</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0649072676897049</v>
+        <v>-0.1375340819358826</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1535,7 @@
         <v>0.5467336773872375</v>
       </c>
       <c r="B119" t="n">
-        <v>0.06387866288423538</v>
+        <v>-0.1427897661924362</v>
       </c>
     </row>
     <row r="120">
@@ -1681,7 +1543,7 @@
         <v>0.5522612929344177</v>
       </c>
       <c r="B120" t="n">
-        <v>0.06284906715154648</v>
+        <v>-0.1480308771133423</v>
       </c>
     </row>
     <row r="121">
@@ -1689,7 +1551,7 @@
         <v>0.5577889680862427</v>
       </c>
       <c r="B121" t="n">
-        <v>0.06181859225034714</v>
+        <v>-0.1532569080591202</v>
       </c>
     </row>
     <row r="122">
@@ -1697,7 +1559,7 @@
         <v>0.5633165836334229</v>
       </c>
       <c r="B122" t="n">
-        <v>0.06078728288412094</v>
+        <v>-0.1584681272506714</v>
       </c>
     </row>
     <row r="123">
@@ -1705,7 +1567,7 @@
         <v>0.568844199180603</v>
       </c>
       <c r="B123" t="n">
-        <v>0.05975504964590073</v>
+        <v>-0.1636640876531601</v>
       </c>
     </row>
     <row r="124">
@@ -1713,7 +1575,7 @@
         <v>0.574371874332428</v>
       </c>
       <c r="B124" t="n">
-        <v>0.05872201174497604</v>
+        <v>-0.1688447892665863</v>
       </c>
     </row>
     <row r="125">
@@ -1721,7 +1583,7 @@
         <v>0.5798994898796082</v>
       </c>
       <c r="B125" t="n">
-        <v>0.05768810957670212</v>
+        <v>-0.1740101277828217</v>
       </c>
     </row>
     <row r="126">
@@ -1729,7 +1591,7 @@
         <v>0.5854271650314331</v>
       </c>
       <c r="B126" t="n">
-        <v>0.05665344744920731</v>
+        <v>-0.179160088300705</v>
       </c>
     </row>
     <row r="127">
@@ -1737,7 +1599,7 @@
         <v>0.5909547805786133</v>
       </c>
       <c r="B127" t="n">
-        <v>0.05561808496713638</v>
+        <v>-0.1842943578958511</v>
       </c>
     </row>
     <row r="128">
@@ -1745,7 +1607,7 @@
         <v>0.5964823961257935</v>
       </c>
       <c r="B128" t="n">
-        <v>0.05458200722932816</v>
+        <v>-0.1894127726554871</v>
       </c>
     </row>
     <row r="129">
@@ -1753,7 +1615,7 @@
         <v>0.6020100712776184</v>
       </c>
       <c r="B129" t="n">
-        <v>0.05354508012533188</v>
+        <v>-0.1945155560970306</v>
       </c>
     </row>
     <row r="130">
@@ -1761,7 +1623,7 @@
         <v>0.6075376868247986</v>
       </c>
       <c r="B130" t="n">
-        <v>0.05250764638185501</v>
+        <v>-0.1996023058891296</v>
       </c>
     </row>
     <row r="131">
@@ -1769,7 +1631,7 @@
         <v>0.6130653023719788</v>
       </c>
       <c r="B131" t="n">
-        <v>0.05146951228380203</v>
+        <v>-0.2046730369329453</v>
       </c>
     </row>
     <row r="132">
@@ -1777,7 +1639,7 @@
         <v>0.6185929775238037</v>
       </c>
       <c r="B132" t="n">
-        <v>0.05043075978755951</v>
+        <v>-0.2097276449203491</v>
       </c>
     </row>
     <row r="133">
@@ -1785,7 +1647,7 @@
         <v>0.6241205930709839</v>
       </c>
       <c r="B133" t="n">
-        <v>0.04939140379428864</v>
+        <v>-0.2147661447525024</v>
       </c>
     </row>
     <row r="134">
@@ -1793,7 +1655,7 @@
         <v>0.6296482682228088</v>
       </c>
       <c r="B134" t="n">
-        <v>0.04835148900747299</v>
+        <v>-0.219788134098053</v>
       </c>
     </row>
     <row r="135">
@@ -1801,7 +1663,7 @@
         <v>0.635175883769989</v>
       </c>
       <c r="B135" t="n">
-        <v>0.04731094837188721</v>
+        <v>-0.2247938960790634</v>
       </c>
     </row>
     <row r="136">
@@ -1809,7 +1671,7 @@
         <v>0.6407034993171692</v>
       </c>
       <c r="B136" t="n">
-        <v>0.04627003520727158</v>
+        <v>-0.229782834649086</v>
       </c>
     </row>
     <row r="137">
@@ -1817,7 +1679,7 @@
         <v>0.6462311744689941</v>
       </c>
       <c r="B137" t="n">
-        <v>0.04522842168807983</v>
+        <v>-0.2347554862499237</v>
       </c>
     </row>
     <row r="138">
@@ -1825,7 +1687,7 @@
         <v>0.6517587900161743</v>
       </c>
       <c r="B138" t="n">
-        <v>0.04418645799160004</v>
+        <v>-0.2397113144397736</v>
       </c>
     </row>
     <row r="139">
@@ -1833,7 +1695,7 @@
         <v>0.6572864055633545</v>
       </c>
       <c r="B139" t="n">
-        <v>0.04314403235912323</v>
+        <v>-0.2446503937244415</v>
       </c>
     </row>
     <row r="140">
@@ -1841,7 +1703,7 @@
         <v>0.6628140807151794</v>
       </c>
       <c r="B140" t="n">
-        <v>0.04210109263658524</v>
+        <v>-0.2495727688074112</v>
       </c>
     </row>
     <row r="141">
@@ -1849,7 +1711,7 @@
         <v>0.6683416962623596</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0410577803850174</v>
+        <v>-0.2544779777526855</v>
       </c>
     </row>
     <row r="142">
@@ -1857,7 +1719,7 @@
         <v>0.6738693714141846</v>
       </c>
       <c r="B142" t="n">
-        <v>0.04001416265964508</v>
+        <v>-0.2593663334846497</v>
       </c>
     </row>
     <row r="143">
@@ -1865,7 +1727,7 @@
         <v>0.6793969869613647</v>
       </c>
       <c r="B143" t="n">
-        <v>0.03897003829479218</v>
+        <v>-0.2642375826835632</v>
       </c>
     </row>
     <row r="144">
@@ -1873,7 +1735,7 @@
         <v>0.6849246025085449</v>
       </c>
       <c r="B144" t="n">
-        <v>0.03792562335729599</v>
+        <v>-0.2690917253494263</v>
       </c>
     </row>
     <row r="145">
@@ -1881,7 +1743,7 @@
         <v>0.6904522776603699</v>
       </c>
       <c r="B145" t="n">
-        <v>0.03688087314367294</v>
+        <v>-0.273928701877594</v>
       </c>
     </row>
     <row r="146">
@@ -1889,7 +1751,7 @@
         <v>0.69597989320755</v>
       </c>
       <c r="B146" t="n">
-        <v>0.03583597391843796</v>
+        <v>-0.2787482738494873</v>
       </c>
     </row>
     <row r="147">
@@ -1897,7 +1759,7 @@
         <v>0.7015075087547302</v>
       </c>
       <c r="B147" t="n">
-        <v>0.03479047119617462</v>
+        <v>-0.2835507392883301</v>
       </c>
     </row>
     <row r="148">
@@ -1905,7 +1767,7 @@
         <v>0.7070351839065552</v>
       </c>
       <c r="B148" t="n">
-        <v>0.03374491631984711</v>
+        <v>-0.2883357405662537</v>
       </c>
     </row>
     <row r="149">
@@ -1913,7 +1775,7 @@
         <v>0.7125627994537354</v>
       </c>
       <c r="B149" t="n">
-        <v>0.03269914537668228</v>
+        <v>-0.2931032776832581</v>
       </c>
     </row>
     <row r="150">
@@ -1921,7 +1783,7 @@
         <v>0.7180904746055603</v>
       </c>
       <c r="B150" t="n">
-        <v>0.03165303915739059</v>
+        <v>-0.297853410243988</v>
       </c>
     </row>
     <row r="151">
@@ -1929,7 +1791,7 @@
         <v>0.7236180901527405</v>
       </c>
       <c r="B151" t="n">
-        <v>0.03060680069029331</v>
+        <v>-0.3025858402252197</v>
       </c>
     </row>
     <row r="152">
@@ -1937,7 +1799,7 @@
         <v>0.7291457056999207</v>
       </c>
       <c r="B152" t="n">
-        <v>0.02956038899719715</v>
+        <v>-0.3073008358478546</v>
       </c>
     </row>
     <row r="153">
@@ -1945,7 +1807,7 @@
         <v>0.7346733808517456</v>
       </c>
       <c r="B153" t="n">
-        <v>0.02851366065442562</v>
+        <v>-0.311998188495636</v>
       </c>
     </row>
     <row r="154">
@@ -1953,7 +1815,7 @@
         <v>0.7402009963989258</v>
       </c>
       <c r="B154" t="n">
-        <v>0.02746686525642872</v>
+        <v>-0.3166778087615967</v>
       </c>
     </row>
     <row r="155">
@@ -1961,7 +1823,7 @@
         <v>0.7457286715507507</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0264198649674654</v>
+        <v>-0.3213397860527039</v>
       </c>
     </row>
     <row r="156">
@@ -1969,7 +1831,7 @@
         <v>0.7512562870979309</v>
       </c>
       <c r="B156" t="n">
-        <v>0.02537286467850208</v>
+        <v>-0.3259837627410889</v>
       </c>
     </row>
     <row r="157">
@@ -1977,7 +1839,7 @@
         <v>0.7567839026451111</v>
       </c>
       <c r="B157" t="n">
-        <v>0.02432570047676563</v>
+        <v>-0.3306103646755219</v>
       </c>
     </row>
     <row r="158">
@@ -1985,7 +1847,7 @@
         <v>0.762311577796936</v>
       </c>
       <c r="B158" t="n">
-        <v>0.02327845804393291</v>
+        <v>-0.3352188169956207</v>
       </c>
     </row>
     <row r="159">
@@ -1993,7 +1855,7 @@
         <v>0.7678391933441162</v>
       </c>
       <c r="B159" t="n">
-        <v>0.02223118208348751</v>
+        <v>-0.3398095369338989</v>
       </c>
     </row>
     <row r="160">
@@ -2001,7 +1863,7 @@
         <v>0.7733668088912964</v>
       </c>
       <c r="B160" t="n">
-        <v>0.02118372358381748</v>
+        <v>-0.3443824052810669</v>
       </c>
     </row>
     <row r="161">
@@ -2009,7 +1871,7 @@
         <v>0.7788944840431213</v>
       </c>
       <c r="B161" t="n">
-        <v>0.02013630606234074</v>
+        <v>-0.3489372432231903</v>
       </c>
     </row>
     <row r="162">
@@ -2017,7 +1879,7 @@
         <v>0.7844220995903015</v>
       </c>
       <c r="B162" t="n">
-        <v>0.01908895187079906</v>
+        <v>-0.3534743785858154</v>
       </c>
     </row>
     <row r="163">
@@ -2025,7 +1887,7 @@
         <v>0.7899497747421265</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0180415753275156</v>
+        <v>-0.3579933643341064</v>
       </c>
     </row>
     <row r="164">
@@ -2033,7 +1895,7 @@
         <v>0.7954773902893066</v>
       </c>
       <c r="B164" t="n">
-        <v>0.01699409820139408</v>
+        <v>-0.3624944388866425</v>
       </c>
     </row>
     <row r="165">
@@ -2041,7 +1903,7 @@
         <v>0.8010050058364868</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0159467775374651</v>
+        <v>-0.3669775128364563</v>
       </c>
     </row>
     <row r="166">
@@ -2049,7 +1911,7 @@
         <v>0.8065326809883118</v>
       </c>
       <c r="B166" t="n">
-        <v>0.01489944197237492</v>
+        <v>-0.3714424967765808</v>
       </c>
     </row>
     <row r="167">
@@ -2057,7 +1919,7 @@
         <v>0.8120602965354919</v>
       </c>
       <c r="B167" t="n">
-        <v>0.01385214366018772</v>
+        <v>-0.3758896589279175</v>
       </c>
     </row>
     <row r="168">
@@ -2065,7 +1927,7 @@
         <v>0.8175879120826721</v>
       </c>
       <c r="B168" t="n">
-        <v>0.01280502416193485</v>
+        <v>-0.3803185224533081</v>
       </c>
     </row>
     <row r="169">
@@ -2073,7 +1935,7 @@
         <v>0.8231155872344971</v>
       </c>
       <c r="B169" t="n">
-        <v>0.01175780035555363</v>
+        <v>-0.3847296237945557</v>
       </c>
     </row>
     <row r="170">
@@ -2081,7 +1943,7 @@
         <v>0.8286432027816772</v>
       </c>
       <c r="B170" t="n">
-        <v>0.01071088202297688</v>
+        <v>-0.3891225457191467</v>
       </c>
     </row>
     <row r="171">
@@ -2089,7 +1951,7 @@
         <v>0.8341708779335022</v>
       </c>
       <c r="B171" t="n">
-        <v>0.009663911536335945</v>
+        <v>-0.3934973478317261</v>
       </c>
     </row>
     <row r="172">
@@ -2097,7 +1959,7 @@
         <v>0.8396984934806824</v>
       </c>
       <c r="B172" t="n">
-        <v>0.008617201820015907</v>
+        <v>-0.3978543877601624</v>
       </c>
     </row>
     <row r="173">
@@ -2105,7 +1967,7 @@
         <v>0.8452261090278625</v>
       </c>
       <c r="B173" t="n">
-        <v>0.007570596411824226</v>
+        <v>-0.4021929502487183</v>
       </c>
     </row>
     <row r="174">
@@ -2113,7 +1975,7 @@
         <v>0.8507537841796875</v>
       </c>
       <c r="B174" t="n">
-        <v>0.00652402825653553</v>
+        <v>-0.4065137505531311</v>
       </c>
     </row>
     <row r="175">
@@ -2121,7 +1983,7 @@
         <v>0.8562813997268677</v>
       </c>
       <c r="B175" t="n">
-        <v>0.005477810278534889</v>
+        <v>-0.4108164012432098</v>
       </c>
     </row>
     <row r="176">
@@ -2129,7 +1991,7 @@
         <v>0.8618090748786926</v>
       </c>
       <c r="B176" t="n">
-        <v>0.004431711509823799</v>
+        <v>-0.415101021528244</v>
       </c>
     </row>
     <row r="177">
@@ -2137,7 +1999,7 @@
         <v>0.8673366904258728</v>
       </c>
       <c r="B177" t="n">
-        <v>0.003385754302144051</v>
+        <v>-0.4193677008152008</v>
       </c>
     </row>
     <row r="178">
@@ -2145,7 +2007,7 @@
         <v>0.872864305973053</v>
       </c>
       <c r="B178" t="n">
-        <v>0.002340150997042656</v>
+        <v>-0.4236161708831787</v>
       </c>
     </row>
     <row r="179">
@@ -2153,7 +2015,7 @@
         <v>0.8783919811248779</v>
       </c>
       <c r="B179" t="n">
-        <v>0.001294570043683052</v>
+        <v>-0.4278466999530792</v>
       </c>
     </row>
     <row r="180">
@@ -2161,7 +2023,7 @@
         <v>0.8839195966720581</v>
       </c>
       <c r="B180" t="n">
-        <v>0.0002493765205144882</v>
+        <v>-0.432059109210968</v>
       </c>
     </row>
     <row r="181">
@@ -2169,7 +2031,7 @@
         <v>0.8894472122192383</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.0007956381887197495</v>
+        <v>-0.4362537264823914</v>
       </c>
     </row>
     <row r="182">
@@ -2177,7 +2039,7 @@
         <v>0.8949748873710632</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.001840410754084587</v>
+        <v>-0.4404303133487701</v>
       </c>
     </row>
     <row r="183">
@@ -2185,7 +2047,7 @@
         <v>0.9005025029182434</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.002884810790419579</v>
+        <v>-0.4445887506008148</v>
       </c>
     </row>
     <row r="184">
@@ -2193,7 +2055,7 @@
         <v>0.9060301780700684</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.003929072991013527</v>
+        <v>-0.4487294256687164</v>
       </c>
     </row>
     <row r="185">
@@ -2201,7 +2063,7 @@
         <v>0.9115577936172485</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.004972914233803749</v>
+        <v>-0.4528521299362183</v>
       </c>
     </row>
     <row r="186">
@@ -2209,7 +2071,7 @@
         <v>0.9170854091644287</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.006016520783305168</v>
+        <v>-0.4569569528102875</v>
       </c>
     </row>
     <row r="187">
@@ -2217,7 +2079,7 @@
         <v>0.9226130843162537</v>
       </c>
       <c r="B187" t="n">
-        <v>-0.007059784606099129</v>
+        <v>-0.4610438346862793</v>
       </c>
     </row>
     <row r="188">
@@ -2225,7 +2087,7 @@
         <v>0.9281406998634338</v>
       </c>
       <c r="B188" t="n">
-        <v>-0.008102716878056526</v>
+        <v>-0.4651127755641937</v>
       </c>
     </row>
     <row r="189">
@@ -2233,7 +2095,7 @@
         <v>0.933668315410614</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.009145377203822136</v>
+        <v>-0.469164252281189</v>
       </c>
     </row>
     <row r="190">
@@ -2241,7 +2103,7 @@
         <v>0.939195990562439</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.01018754206597805</v>
+        <v>-0.4731975793838501</v>
       </c>
     </row>
     <row r="191">
@@ -2249,7 +2111,7 @@
         <v>0.9447236061096191</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.01122942753136158</v>
+        <v>-0.4772132337093353</v>
       </c>
     </row>
     <row r="192">
@@ -2257,7 +2119,7 @@
         <v>0.9502512812614441</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.01227101124823093</v>
+        <v>-0.4812113046646118</v>
       </c>
     </row>
     <row r="193">
@@ -2265,7 +2127,7 @@
         <v>0.9557788968086243</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.01331209577620029</v>
+        <v>-0.4851913750171661</v>
       </c>
     </row>
     <row r="194">
@@ -2273,7 +2135,7 @@
         <v>0.9613065123558044</v>
       </c>
       <c r="B194" t="n">
-        <v>-0.0143528264015913</v>
+        <v>-0.4891541004180908</v>
       </c>
     </row>
     <row r="195">
@@ -2281,7 +2143,7 @@
         <v>0.9668341875076294</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.01539325527846813</v>
+        <v>-0.4930989444255829</v>
       </c>
     </row>
     <row r="196">
@@ -2289,7 +2151,7 @@
         <v>0.9723618030548096</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.01643318124115467</v>
+        <v>-0.4970263242721558</v>
       </c>
     </row>
     <row r="197">
@@ -2297,7 +2159,7 @@
         <v>0.9778894186019897</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.0174726378172636</v>
+        <v>-0.5009361505508423</v>
       </c>
     </row>
     <row r="198">
@@ -2305,7 +2167,7 @@
         <v>0.9834170937538147</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.01851178519427776</v>
+        <v>-0.5048283934593201</v>
       </c>
     </row>
     <row r="199">
@@ -2313,7 +2175,7 @@
         <v>0.9889447093009949</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.01955044828355312</v>
+        <v>-0.5087031722068787</v>
       </c>
     </row>
     <row r="200">
@@ -2321,7 +2183,7 @@
         <v>0.9944723844528198</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.02058869414031506</v>
+        <v>-0.5125604271888733</v>
       </c>
     </row>
     <row r="201">
@@ -2329,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.0216264370828867</v>
+        <v>-0.5164003372192383</v>
       </c>
     </row>
     <row r="202">
@@ -2337,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="B202" t="n">
-        <v>0.04853254184126854</v>
+        <v>-0.249298632144928</v>
       </c>
     </row>
     <row r="203">
@@ -2345,7 +2207,7 @@
         <v>1.045226097106934</v>
       </c>
       <c r="B203" t="n">
-        <v>0.04827291145920753</v>
+        <v>-0.243068516254425</v>
       </c>
     </row>
     <row r="204">
@@ -2353,7 +2215,7 @@
         <v>1.090452313423157</v>
       </c>
       <c r="B204" t="n">
-        <v>0.04801325127482414</v>
+        <v>-0.236837238073349</v>
       </c>
     </row>
     <row r="205">
@@ -2361,7 +2223,7 @@
         <v>1.13567841053009</v>
       </c>
       <c r="B205" t="n">
-        <v>0.04775379970669746</v>
+        <v>-0.2306053191423416</v>
       </c>
     </row>
     <row r="206">
@@ -2369,7 +2231,7 @@
         <v>1.180904507637024</v>
       </c>
       <c r="B206" t="n">
-        <v>0.04749446734786034</v>
+        <v>-0.2243727594614029</v>
       </c>
     </row>
     <row r="207">
@@ -2377,7 +2239,7 @@
         <v>1.226130604743958</v>
       </c>
       <c r="B207" t="n">
-        <v>0.04723532125353813</v>
+        <v>-0.218139573931694</v>
       </c>
     </row>
     <row r="208">
@@ -2385,7 +2247,7 @@
         <v>1.271356821060181</v>
       </c>
       <c r="B208" t="n">
-        <v>0.04697637632489204</v>
+        <v>-0.211906298995018</v>
       </c>
     </row>
     <row r="209">
@@ -2393,7 +2255,7 @@
         <v>1.316582918167114</v>
       </c>
       <c r="B209" t="n">
-        <v>0.04671766981482506</v>
+        <v>-0.2056727558374405</v>
       </c>
     </row>
     <row r="210">
@@ -2401,7 +2263,7 @@
         <v>1.361809015274048</v>
       </c>
       <c r="B210" t="n">
-        <v>0.04645925760269165</v>
+        <v>-0.1994395405054092</v>
       </c>
     </row>
     <row r="211">
@@ -2409,7 +2271,7 @@
         <v>1.407035231590271</v>
       </c>
       <c r="B211" t="n">
-        <v>0.04620102420449257</v>
+        <v>-0.1932066380977631</v>
       </c>
     </row>
     <row r="212">
@@ -2417,7 +2279,7 @@
         <v>1.452261328697205</v>
       </c>
       <c r="B212" t="n">
-        <v>0.04594310745596886</v>
+        <v>-0.1869740337133408</v>
       </c>
     </row>
     <row r="213">
@@ -2425,7 +2287,7 @@
         <v>1.497487425804138</v>
       </c>
       <c r="B213" t="n">
-        <v>0.04568548873066902</v>
+        <v>-0.1807422637939453</v>
       </c>
     </row>
     <row r="214">
@@ -2433,7 +2295,7 @@
         <v>1.542713522911072</v>
       </c>
       <c r="B214" t="n">
-        <v>0.04542822763323784</v>
+        <v>-0.1745112389326096</v>
       </c>
     </row>
     <row r="215">
@@ -2441,7 +2303,7 @@
         <v>1.587939739227295</v>
       </c>
       <c r="B215" t="n">
-        <v>0.0451713539659977</v>
+        <v>-0.1682812124490738</v>
       </c>
     </row>
     <row r="216">
@@ -2449,7 +2311,7 @@
         <v>1.633165836334229</v>
       </c>
       <c r="B216" t="n">
-        <v>0.04491488263010979</v>
+        <v>-0.162052795290947</v>
       </c>
     </row>
     <row r="217">
@@ -2457,7 +2319,7 @@
         <v>1.678391933441162</v>
       </c>
       <c r="B217" t="n">
-        <v>0.04465879872441292</v>
+        <v>-0.1558252722024918</v>
       </c>
     </row>
     <row r="218">
@@ -2465,7 +2327,7 @@
         <v>1.723618149757385</v>
       </c>
       <c r="B218" t="n">
-        <v>0.04440313950181007</v>
+        <v>-0.1495996862649918</v>
       </c>
     </row>
     <row r="219">
@@ -2473,7 +2335,7 @@
         <v>1.768844246864319</v>
       </c>
       <c r="B219" t="n">
-        <v>0.04414793476462364</v>
+        <v>-0.1433759033679962</v>
       </c>
     </row>
     <row r="220">
@@ -2481,7 +2343,7 @@
         <v>1.814070343971252</v>
       </c>
       <c r="B220" t="n">
-        <v>0.04389315471053123</v>
+        <v>-0.1371539384126663</v>
       </c>
     </row>
     <row r="221">
@@ -2489,7 +2351,7 @@
         <v>1.859296441078186</v>
       </c>
       <c r="B221" t="n">
-        <v>0.04363894090056419</v>
+        <v>-0.1309342980384827</v>
       </c>
     </row>
     <row r="222">
@@ -2497,7 +2359,7 @@
         <v>1.904522657394409</v>
       </c>
       <c r="B222" t="n">
-        <v>0.04338522627949715</v>
+        <v>-0.1247168630361557</v>
       </c>
     </row>
     <row r="223">
@@ -2505,7 +2367,7 @@
         <v>1.949748754501343</v>
       </c>
       <c r="B223" t="n">
-        <v>0.04313210770487785</v>
+        <v>-0.1185021251440048</v>
       </c>
     </row>
     <row r="224">
@@ -2513,7 +2375,7 @@
         <v>1.994974851608276</v>
       </c>
       <c r="B224" t="n">
-        <v>0.04287953302264214</v>
+        <v>-0.1122900545597076</v>
       </c>
     </row>
     <row r="225">
@@ -2521,7 +2383,7 @@
         <v>2.04020094871521</v>
       </c>
       <c r="B225" t="n">
-        <v>0.04262739047408104</v>
+        <v>-0.1060807704925537</v>
       </c>
     </row>
     <row r="226">
@@ -2529,7 +2391,7 @@
         <v>2.085427045822144</v>
       </c>
       <c r="B226" t="n">
-        <v>0.04237604513764381</v>
+        <v>-0.09987471997737885</v>
       </c>
     </row>
     <row r="227">
@@ -2537,7 +2399,7 @@
         <v>2.130653381347656</v>
       </c>
       <c r="B227" t="n">
-        <v>0.04212520644068718</v>
+        <v>-0.09367173910140991</v>
       </c>
     </row>
     <row r="228">
@@ -2545,7 +2407,7 @@
         <v>2.17587947845459</v>
       </c>
       <c r="B228" t="n">
-        <v>0.04187509790062904</v>
+        <v>-0.08747237920761108</v>
       </c>
     </row>
     <row r="229">
@@ -2553,7 +2415,7 @@
         <v>2.221105575561523</v>
       </c>
       <c r="B229" t="n">
-        <v>0.04162560775876045</v>
+        <v>-0.08127664029598236</v>
       </c>
     </row>
     <row r="230">
@@ -2561,7 +2423,7 @@
         <v>2.266331672668457</v>
       </c>
       <c r="B230" t="n">
-        <v>0.04137681052088737</v>
+        <v>-0.07508456707000732</v>
       </c>
     </row>
     <row r="231">
@@ -2569,7 +2431,7 @@
         <v>2.311557769775391</v>
       </c>
       <c r="B231" t="n">
-        <v>0.04112875089049339</v>
+        <v>-0.06889663636684418</v>
       </c>
     </row>
     <row r="232">
@@ -2577,7 +2439,7 @@
         <v>2.356783866882324</v>
       </c>
       <c r="B232" t="n">
-        <v>0.04088147357106209</v>
+        <v>-0.06271266937255859</v>
       </c>
     </row>
     <row r="233">
@@ -2585,7 +2447,7 @@
         <v>2.402009963989258</v>
       </c>
       <c r="B233" t="n">
-        <v>0.04063481464982033</v>
+        <v>-0.05653322860598564</v>
       </c>
     </row>
     <row r="234">
@@ -2593,7 +2455,7 @@
         <v>2.447236299514771</v>
       </c>
       <c r="B234" t="n">
-        <v>0.04038899019360542</v>
+        <v>-0.05035830661654472</v>
       </c>
     </row>
     <row r="235">
@@ -2601,7 +2463,7 @@
         <v>2.492462396621704</v>
       </c>
       <c r="B235" t="n">
-        <v>0.04014403000473976</v>
+        <v>-0.04418789967894554</v>
       </c>
     </row>
     <row r="236">
@@ -2609,7 +2471,7 @@
         <v>2.537688493728638</v>
       </c>
       <c r="B236" t="n">
-        <v>0.03989977017045021</v>
+        <v>-0.03802256658673286</v>
       </c>
     </row>
     <row r="237">
@@ -2617,7 +2479,7 @@
         <v>2.582914590835571</v>
       </c>
       <c r="B237" t="n">
-        <v>0.0396563820540905</v>
+        <v>-0.03186212107539177</v>
       </c>
     </row>
     <row r="238">
@@ -2625,7 +2487,7 @@
         <v>2.628140687942505</v>
       </c>
       <c r="B238" t="n">
-        <v>0.03941382095217705</v>
+        <v>-0.02570701017975807</v>
       </c>
     </row>
     <row r="239">
@@ -2633,7 +2495,7 @@
         <v>2.673366785049438</v>
       </c>
       <c r="B239" t="n">
-        <v>0.03917210921645164</v>
+        <v>-0.01955734565854073</v>
       </c>
     </row>
     <row r="240">
@@ -2641,7 +2503,7 @@
         <v>2.718592882156372</v>
       </c>
       <c r="B240" t="n">
-        <v>0.03893141821026802</v>
+        <v>-0.01341302320361137</v>
       </c>
     </row>
     <row r="241">
@@ -2649,7 +2511,7 @@
         <v>2.763818979263306</v>
       </c>
       <c r="B241" t="n">
-        <v>0.03869148716330528</v>
+        <v>-0.007274653762578964</v>
       </c>
     </row>
     <row r="242">
@@ -2657,7 +2519,7 @@
         <v>2.809045314788818</v>
       </c>
       <c r="B242" t="n">
-        <v>0.03845250979065895</v>
+        <v>-0.001142013818025589</v>
       </c>
     </row>
     <row r="243">
@@ -2665,7 +2527,7 @@
         <v>2.854271411895752</v>
       </c>
       <c r="B243" t="n">
-        <v>0.03821448609232903</v>
+        <v>0.00498436763882637</v>
       </c>
     </row>
     <row r="244">
@@ -2673,7 +2535,7 @@
         <v>2.899497509002686</v>
       </c>
       <c r="B244" t="n">
-        <v>0.03797745332121849</v>
+        <v>0.01110464707016945</v>
       </c>
     </row>
     <row r="245">
@@ -2681,7 +2543,7 @@
         <v>2.944723606109619</v>
       </c>
       <c r="B245" t="n">
-        <v>0.03774131461977959</v>
+        <v>0.01721841469407082</v>
       </c>
     </row>
     <row r="246">
@@ -2689,7 +2551,7 @@
         <v>2.989949703216553</v>
       </c>
       <c r="B246" t="n">
-        <v>0.03750621154904366</v>
+        <v>0.02332567051053047</v>
       </c>
     </row>
     <row r="247">
@@ -2697,7 +2559,7 @@
         <v>3.035175800323486</v>
       </c>
       <c r="B247" t="n">
-        <v>0.0372721366584301</v>
+        <v>0.02942608669400215</v>
       </c>
     </row>
     <row r="248">
@@ -2705,7 +2567,7 @@
         <v>3.08040189743042</v>
       </c>
       <c r="B248" t="n">
-        <v>0.03703904524445534</v>
+        <v>0.03551970049738884</v>
       </c>
     </row>
     <row r="249">
@@ -2713,7 +2575,7 @@
         <v>3.125628232955933</v>
       </c>
       <c r="B249" t="n">
-        <v>0.03680704161524773</v>
+        <v>0.04160606861114502</v>
       </c>
     </row>
     <row r="250">
@@ -2721,7 +2583,7 @@
         <v>3.170854330062866</v>
       </c>
       <c r="B250" t="n">
-        <v>0.03657612577080727</v>
+        <v>0.04768544062972069</v>
       </c>
     </row>
     <row r="251">
@@ -2729,7 +2591,7 @@
         <v>3.2160804271698</v>
       </c>
       <c r="B251" t="n">
-        <v>0.03634611889719963</v>
+        <v>0.05375709757208824</v>
       </c>
     </row>
     <row r="252">
@@ -2737,7 +2599,7 @@
         <v>3.261306524276733</v>
       </c>
       <c r="B252" t="n">
-        <v>0.03611732646822929</v>
+        <v>0.05982125177979469</v>
       </c>
     </row>
     <row r="253">
@@ -2745,7 +2607,7 @@
         <v>3.306532621383667</v>
       </c>
       <c r="B253" t="n">
-        <v>0.0358896367251873</v>
+        <v>0.06587782502174377</v>
       </c>
     </row>
     <row r="254">
@@ -2753,7 +2615,7 @@
         <v>3.351758718490601</v>
       </c>
       <c r="B254" t="n">
-        <v>0.03566312417387962</v>
+        <v>0.07192638516426086</v>
       </c>
     </row>
     <row r="255">
@@ -2761,7 +2623,7 @@
         <v>3.396984815597534</v>
       </c>
       <c r="B255" t="n">
-        <v>0.03543766960501671</v>
+        <v>0.07796703279018402</v>
       </c>
     </row>
     <row r="256">
@@ -2769,7 +2631,7 @@
         <v>3.442211151123047</v>
       </c>
       <c r="B256" t="n">
-        <v>0.03521342203021049</v>
+        <v>0.08399936556816101</v>
       </c>
     </row>
     <row r="257">
@@ -2777,7 +2639,7 @@
         <v>3.48743724822998</v>
       </c>
       <c r="B257" t="n">
-        <v>0.03499026969075203</v>
+        <v>0.09002326428890228</v>
       </c>
     </row>
     <row r="258">
@@ -2785,7 +2647,7 @@
         <v>3.532663345336914</v>
       </c>
       <c r="B258" t="n">
-        <v>0.03476836159825325</v>
+        <v>0.09603884816169739</v>
       </c>
     </row>
     <row r="259">
@@ -2793,7 +2655,7 @@
         <v>3.577889442443848</v>
       </c>
       <c r="B259" t="n">
-        <v>0.03454756364226341</v>
+        <v>0.1020455658435822</v>
       </c>
     </row>
     <row r="260">
@@ -2801,7 +2663,7 @@
         <v>3.623115539550781</v>
       </c>
       <c r="B260" t="n">
-        <v>0.03432810679078102</v>
+        <v>0.1080436557531357</v>
       </c>
     </row>
     <row r="261">
@@ -2809,7 +2671,7 @@
         <v>3.668341636657715</v>
       </c>
       <c r="B261" t="n">
-        <v>0.03410978987812996</v>
+        <v>0.1140326261520386</v>
       </c>
     </row>
     <row r="262">
@@ -2817,7 +2679,7 @@
         <v>3.713567733764648</v>
       </c>
       <c r="B262" t="n">
-        <v>0.03389269486069679</v>
+        <v>0.1200124621391296</v>
       </c>
     </row>
     <row r="263">
@@ -2825,7 +2687,7 @@
         <v>3.758794069290161</v>
       </c>
       <c r="B263" t="n">
-        <v>0.03367683663964272</v>
+        <v>0.1259831488132477</v>
       </c>
     </row>
     <row r="264">
@@ -2833,7 +2695,7 @@
         <v>3.804020166397095</v>
       </c>
       <c r="B264" t="n">
-        <v>0.03346231207251549</v>
+        <v>0.1319442540407181</v>
       </c>
     </row>
     <row r="265">
@@ -2841,7 +2703,7 @@
         <v>3.849246263504028</v>
       </c>
       <c r="B265" t="n">
-        <v>0.03324904665350914</v>
+        <v>0.1378960460424423</v>
       </c>
     </row>
     <row r="266">
@@ -2849,7 +2711,7 @@
         <v>3.894472360610962</v>
       </c>
       <c r="B266" t="n">
-        <v>0.03303700312972069</v>
+        <v>0.1438378691673279</v>
       </c>
     </row>
     <row r="267">
@@ -2857,7 +2719,7 @@
         <v>3.939698457717896</v>
       </c>
       <c r="B267" t="n">
-        <v>0.03282635286450386</v>
+        <v>0.1497699320316315</v>
       </c>
     </row>
     <row r="268">
@@ -2865,7 +2727,7 @@
         <v>3.984924554824829</v>
       </c>
       <c r="B268" t="n">
-        <v>0.0326169840991497</v>
+        <v>0.15569207072258</v>
       </c>
     </row>
     <row r="269">
@@ -2873,7 +2735,7 @@
         <v>4.030150890350342</v>
       </c>
       <c r="B269" t="n">
-        <v>0.03240888193249702</v>
+        <v>0.161604106426239</v>
       </c>
     </row>
     <row r="270">
@@ -2881,7 +2743,7 @@
         <v>4.075376987457275</v>
       </c>
       <c r="B270" t="n">
-        <v>0.03220215067267418</v>
+        <v>0.1675057709217072</v>
       </c>
     </row>
     <row r="271">
@@ -2889,7 +2751,7 @@
         <v>4.120603084564209</v>
       </c>
       <c r="B271" t="n">
-        <v>0.03199680522084236</v>
+        <v>0.1733970642089844</v>
       </c>
     </row>
     <row r="272">
@@ -2897,7 +2759,7 @@
         <v>4.165829181671143</v>
       </c>
       <c r="B272" t="n">
-        <v>0.03179280087351799</v>
+        <v>0.1792775392532349</v>
       </c>
     </row>
     <row r="273">
@@ -2905,7 +2767,7 @@
         <v>4.211055278778076</v>
       </c>
       <c r="B273" t="n">
-        <v>0.03159009292721748</v>
+        <v>0.1851478219032288</v>
       </c>
     </row>
     <row r="274">
@@ -2913,7 +2775,7 @@
         <v>4.25628137588501</v>
       </c>
       <c r="B274" t="n">
-        <v>0.03138888999819756</v>
+        <v>0.1910068094730377</v>
       </c>
     </row>
     <row r="275">
@@ -2921,7 +2783,7 @@
         <v>4.301507472991943</v>
       </c>
       <c r="B275" t="n">
-        <v>0.03118899092078209</v>
+        <v>0.1968552023172379</v>
       </c>
     </row>
     <row r="276">
@@ -2929,7 +2791,7 @@
         <v>4.346733570098877</v>
       </c>
       <c r="B276" t="n">
-        <v>0.03099057450890541</v>
+        <v>0.2026923000812531</v>
       </c>
     </row>
     <row r="277">
@@ -2937,7 +2799,7 @@
         <v>4.391959667205811</v>
       </c>
       <c r="B277" t="n">
-        <v>0.0307934544980526</v>
+        <v>0.20851831138134</v>
       </c>
     </row>
     <row r="278">
@@ -2945,7 +2807,7 @@
         <v>4.437185764312744</v>
       </c>
       <c r="B278" t="n">
-        <v>0.0305977575480938</v>
+        <v>0.2143328636884689</v>
       </c>
     </row>
     <row r="279">
@@ -2953,7 +2815,7 @@
         <v>4.482411861419678</v>
       </c>
       <c r="B279" t="n">
-        <v>0.03040343895554543</v>
+        <v>0.2201361954212189</v>
       </c>
     </row>
     <row r="280">
@@ -2961,7 +2823,7 @@
         <v>4.527637958526611</v>
       </c>
       <c r="B280" t="n">
-        <v>0.03021076694130898</v>
+        <v>0.2259276211261749</v>
       </c>
     </row>
     <row r="281">
@@ -2969,7 +2831,7 @@
         <v>4.572864532470703</v>
       </c>
       <c r="B281" t="n">
-        <v>0.03001933172345161</v>
+        <v>0.2317075729370117</v>
       </c>
     </row>
     <row r="282">
@@ -2977,7 +2839,7 @@
         <v>4.618090629577637</v>
       </c>
       <c r="B282" t="n">
-        <v>0.02982949838042259</v>
+        <v>0.2374755144119263</v>
       </c>
     </row>
     <row r="283">
@@ -2985,7 +2847,7 @@
         <v>4.66331672668457</v>
       </c>
       <c r="B283" t="n">
-        <v>0.02964099869132042</v>
+        <v>0.2432316094636917</v>
       </c>
     </row>
     <row r="284">
@@ -2993,7 +2855,7 @@
         <v>4.708542823791504</v>
       </c>
       <c r="B284" t="n">
-        <v>0.02945400401949883</v>
+        <v>0.2489754855632782</v>
       </c>
     </row>
     <row r="285">
@@ -3001,7 +2863,7 @@
         <v>4.753768920898438</v>
       </c>
       <c r="B285" t="n">
-        <v>0.029268529266119</v>
+        <v>0.2547071278095245</v>
       </c>
     </row>
     <row r="286">
@@ -3009,7 +2871,7 @@
         <v>4.798995018005371</v>
       </c>
       <c r="B286" t="n">
-        <v>0.02908454462885857</v>
+        <v>0.2604266405105591</v>
       </c>
     </row>
     <row r="287">
@@ -3017,7 +2879,7 @@
         <v>4.844221115112305</v>
       </c>
       <c r="B287" t="n">
-        <v>0.02890203520655632</v>
+        <v>0.2661335468292236</v>
       </c>
     </row>
     <row r="288">
@@ -3025,7 +2887,7 @@
         <v>4.889447212219238</v>
       </c>
       <c r="B288" t="n">
-        <v>0.0287209115922451</v>
+        <v>0.2718280255794525</v>
       </c>
     </row>
     <row r="289">
@@ -3033,7 +2895,7 @@
         <v>4.934673309326172</v>
       </c>
       <c r="B289" t="n">
-        <v>0.028541449457407</v>
+        <v>0.2775098383426666</v>
       </c>
     </row>
     <row r="290">
@@ -3041,7 +2903,7 @@
         <v>4.979899406433105</v>
       </c>
       <c r="B290" t="n">
-        <v>0.0283634178340435</v>
+        <v>0.2831787467002869</v>
       </c>
     </row>
     <row r="291">
@@ -3049,7 +2911,7 @@
         <v>5.025125503540039</v>
       </c>
       <c r="B291" t="n">
-        <v>0.02818692103028297</v>
+        <v>0.2888349592685699</v>
       </c>
     </row>
     <row r="292">
@@ -3057,7 +2919,7 @@
         <v>5.070351600646973</v>
       </c>
       <c r="B292" t="n">
-        <v>0.02801195904612541</v>
+        <v>0.2944780588150024</v>
       </c>
     </row>
     <row r="293">
@@ -3065,7 +2927,7 @@
         <v>5.115577697753906</v>
       </c>
       <c r="B293" t="n">
-        <v>0.02783844247460365</v>
+        <v>0.3001081347465515</v>
       </c>
     </row>
     <row r="294">
@@ -3073,7 +2935,7 @@
         <v>5.16080379486084</v>
       </c>
       <c r="B294" t="n">
-        <v>0.02766655758023262</v>
+        <v>0.3057248592376709</v>
       </c>
     </row>
     <row r="295">
@@ -3081,7 +2943,7 @@
         <v>5.206030368804932</v>
       </c>
       <c r="B295" t="n">
-        <v>0.02749618515372276</v>
+        <v>0.3113283216953278</v>
       </c>
     </row>
     <row r="296">
@@ -3089,7 +2951,7 @@
         <v>5.251256465911865</v>
       </c>
       <c r="B296" t="n">
-        <v>0.02732731029391289</v>
+        <v>0.316918671131134</v>
       </c>
     </row>
     <row r="297">
@@ -3097,7 +2959,7 @@
         <v>5.296482563018799</v>
       </c>
       <c r="B297" t="n">
-        <v>0.02716002985835075</v>
+        <v>0.3224949836730957</v>
       </c>
     </row>
     <row r="298">
@@ -3105,7 +2967,7 @@
         <v>5.341708660125732</v>
       </c>
       <c r="B298" t="n">
-        <v>0.02699437364935875</v>
+        <v>0.3280580937862396</v>
       </c>
     </row>
     <row r="299">
@@ -3113,7 +2975,7 @@
         <v>5.386934757232666</v>
       </c>
       <c r="B299" t="n">
-        <v>0.02683017030358315</v>
+        <v>0.3336072862148285</v>
       </c>
     </row>
     <row r="300">
@@ -3121,7 +2983,7 @@
         <v>5.4321608543396</v>
       </c>
       <c r="B300" t="n">
-        <v>0.02666755393147469</v>
+        <v>0.3391428589820862</v>
       </c>
     </row>
     <row r="301">
@@ -3129,7 +2991,7 @@
         <v>5.477386951446533</v>
       </c>
       <c r="B301" t="n">
-        <v>0.02650648728013039</v>
+        <v>0.3446643054485321</v>
       </c>
     </row>
     <row r="302">
@@ -3137,7 +2999,7 @@
         <v>5.522613048553467</v>
       </c>
       <c r="B302" t="n">
-        <v>0.0263470746576786</v>
+        <v>0.3501719534397125</v>
       </c>
     </row>
     <row r="303">
@@ -3145,7 +3007,7 @@
         <v>5.5678391456604</v>
       </c>
       <c r="B303" t="n">
-        <v>0.02618910744786263</v>
+        <v>0.355665385723114</v>
       </c>
     </row>
     <row r="304">
@@ -3153,7 +3015,7 @@
         <v>5.613065242767334</v>
       </c>
       <c r="B304" t="n">
-        <v>0.02603286132216454</v>
+        <v>0.3611447215080261</v>
       </c>
     </row>
     <row r="305">
@@ -3161,7 +3023,7 @@
         <v>5.658291339874268</v>
       </c>
       <c r="B305" t="n">
-        <v>0.02587812766432762</v>
+        <v>0.3666096031665802</v>
       </c>
     </row>
     <row r="306">
@@ -3169,7 +3031,7 @@
         <v>5.703517436981201</v>
       </c>
       <c r="B306" t="n">
-        <v>0.02572492882609367</v>
+        <v>0.3720605671405792</v>
       </c>
     </row>
     <row r="307">
@@ -3177,7 +3039,7 @@
         <v>5.748743534088135</v>
       </c>
       <c r="B307" t="n">
-        <v>0.02557336166501045</v>
+        <v>0.3774966299533844</v>
       </c>
     </row>
     <row r="308">
@@ -3185,7 +3047,7 @@
         <v>5.793969631195068</v>
       </c>
       <c r="B308" t="n">
-        <v>0.025423314422369</v>
+        <v>0.382918506860733</v>
       </c>
     </row>
     <row r="309">
@@ -3193,7 +3055,7 @@
         <v>5.83919620513916</v>
       </c>
       <c r="B309" t="n">
-        <v>0.02527492865920067</v>
+        <v>0.3883256912231445</v>
       </c>
     </row>
     <row r="310">
@@ -3201,7 +3063,7 @@
         <v>5.884422302246094</v>
       </c>
       <c r="B310" t="n">
-        <v>0.02512809261679649</v>
+        <v>0.3937180042266846</v>
       </c>
     </row>
     <row r="311">
@@ -3209,7 +3071,7 @@
         <v>5.929648399353027</v>
       </c>
       <c r="B311" t="n">
-        <v>0.02498291060328484</v>
+        <v>0.399095743894577</v>
       </c>
     </row>
     <row r="312">
@@ -3217,7 +3079,7 @@
         <v>5.974874496459961</v>
       </c>
       <c r="B312" t="n">
-        <v>0.02483924105763435</v>
+        <v>0.4044585824012756</v>
       </c>
     </row>
     <row r="313">
@@ -3225,7 +3087,7 @@
         <v>6.020100593566895</v>
       </c>
       <c r="B313" t="n">
-        <v>0.02469722554087639</v>
+        <v>0.4098063707351685</v>
       </c>
     </row>
     <row r="314">
@@ -3233,7 +3095,7 @@
         <v>6.065326690673828</v>
       </c>
       <c r="B314" t="n">
-        <v>0.02455679699778557</v>
+        <v>0.4151394367218018</v>
       </c>
     </row>
     <row r="315">
@@ -3241,7 +3103,7 @@
         <v>6.110552787780762</v>
       </c>
       <c r="B315" t="n">
-        <v>0.02441798523068428</v>
+        <v>0.4204573929309845</v>
       </c>
     </row>
     <row r="316">
@@ -3249,7 +3111,7 @@
         <v>6.155778884887695</v>
       </c>
       <c r="B316" t="n">
-        <v>0.02428072318434715</v>
+        <v>0.42576003074646</v>
       </c>
     </row>
     <row r="317">
@@ -3257,7 +3119,7 @@
         <v>6.201004981994629</v>
       </c>
       <c r="B317" t="n">
-        <v>0.02414514496922493</v>
+        <v>0.4310473799705505</v>
       </c>
     </row>
     <row r="318">
@@ -3265,7 +3127,7 @@
         <v>6.246231079101562</v>
       </c>
       <c r="B318" t="n">
-        <v>0.02401111647486687</v>
+        <v>0.4363196492195129</v>
       </c>
     </row>
     <row r="319">
@@ -3273,7 +3135,7 @@
         <v>6.291457176208496</v>
       </c>
       <c r="B319" t="n">
-        <v>0.02387867495417595</v>
+        <v>0.4415766596794128</v>
       </c>
     </row>
     <row r="320">
@@ -3281,7 +3143,7 @@
         <v>6.33668327331543</v>
       </c>
       <c r="B320" t="n">
-        <v>0.02374782785773277</v>
+        <v>0.4468179643154144</v>
       </c>
     </row>
     <row r="321">
@@ -3289,7 +3151,7 @@
         <v>6.381909370422363</v>
       </c>
       <c r="B321" t="n">
-        <v>0.0236186645925045</v>
+        <v>0.4520438313484192</v>
       </c>
     </row>
     <row r="322">
@@ -3297,7 +3159,7 @@
         <v>6.427135467529297</v>
       </c>
       <c r="B322" t="n">
-        <v>0.02349101379513741</v>
+        <v>0.4572543501853943</v>
       </c>
     </row>
     <row r="323">
@@ -3305,7 +3167,7 @@
         <v>6.472362041473389</v>
       </c>
       <c r="B323" t="n">
-        <v>0.02336493507027626</v>
+        <v>0.4624492526054382</v>
       </c>
     </row>
     <row r="324">
@@ -3313,7 +3175,7 @@
         <v>6.517588138580322</v>
       </c>
       <c r="B324" t="n">
-        <v>0.02324052527546883</v>
+        <v>0.4676282405853271</v>
       </c>
     </row>
     <row r="325">
@@ -3321,7 +3183,7 @@
         <v>6.562814235687256</v>
       </c>
       <c r="B325" t="n">
-        <v>0.02311764284968376</v>
+        <v>0.4727916717529297</v>
       </c>
     </row>
     <row r="326">
@@ -3329,7 +3191,7 @@
         <v>6.608040332794189</v>
       </c>
       <c r="B326" t="n">
-        <v>0.02299642190337181</v>
+        <v>0.4779393672943115</v>
       </c>
     </row>
     <row r="327">
@@ -3337,7 +3199,7 @@
         <v>6.653266429901123</v>
       </c>
       <c r="B327" t="n">
-        <v>0.02287675812840462</v>
+        <v>0.4830711185932159</v>
       </c>
     </row>
     <row r="328">
@@ -3345,7 +3207,7 @@
         <v>6.698492527008057</v>
       </c>
       <c r="B328" t="n">
-        <v>0.02275876328349113</v>
+        <v>0.4881868660449982</v>
       </c>
     </row>
     <row r="329">
@@ -3353,7 +3215,7 @@
         <v>6.74371862411499</v>
       </c>
       <c r="B329" t="n">
-        <v>0.02264228090643883</v>
+        <v>0.4932869970798492</v>
       </c>
     </row>
     <row r="330">
@@ -3361,7 +3223,7 @@
         <v>6.788944721221924</v>
       </c>
       <c r="B330" t="n">
-        <v>0.02252743765711784</v>
+        <v>0.4983706474304199</v>
       </c>
     </row>
     <row r="331">
@@ -3369,7 +3231,7 @@
         <v>6.834170818328857</v>
       </c>
       <c r="B331" t="n">
-        <v>0.02241417393088341</v>
+        <v>0.5034385323524475</v>
       </c>
     </row>
     <row r="332">
@@ -3377,7 +3239,7 @@
         <v>6.879396915435791</v>
       </c>
       <c r="B332" t="n">
-        <v>0.02230247482657433</v>
+        <v>0.5084902048110962</v>
       </c>
     </row>
     <row r="333">
@@ -3385,7 +3247,7 @@
         <v>6.924623012542725</v>
       </c>
       <c r="B333" t="n">
-        <v>0.02219235524535179</v>
+        <v>0.5135259628295898</v>
       </c>
     </row>
     <row r="334">
@@ -3393,7 +3255,7 @@
         <v>6.969849109649658</v>
       </c>
       <c r="B334" t="n">
-        <v>0.02208380028605461</v>
+        <v>0.5185453295707703</v>
       </c>
     </row>
     <row r="335">
@@ -3401,7 +3263,7 @@
         <v>7.015075206756592</v>
       </c>
       <c r="B335" t="n">
-        <v>0.02197694405913353</v>
+        <v>0.5235485434532166</v>
       </c>
     </row>
     <row r="336">
@@ -3409,7 +3271,7 @@
         <v>7.060301303863525</v>
       </c>
       <c r="B336" t="n">
-        <v>0.02187152579426765</v>
+        <v>0.5285353064537048</v>
       </c>
     </row>
     <row r="337">
@@ -3417,7 +3279,7 @@
         <v>7.105527400970459</v>
       </c>
       <c r="B337" t="n">
-        <v>0.02176773175597191</v>
+        <v>0.5335058569908142</v>
       </c>
     </row>
     <row r="338">
@@ -3425,7 +3287,7 @@
         <v>7.150753974914551</v>
       </c>
       <c r="B338" t="n">
-        <v>0.0216655544936657</v>
+        <v>0.5384598970413208</v>
       </c>
     </row>
     <row r="339">
@@ -3433,7 +3295,7 @@
         <v>7.195980072021484</v>
       </c>
       <c r="B339" t="n">
-        <v>0.02156490460038185</v>
+        <v>0.5433977246284485</v>
       </c>
     </row>
     <row r="340">
@@ -3441,7 +3303,7 @@
         <v>7.241206169128418</v>
       </c>
       <c r="B340" t="n">
-        <v>0.02146577462553978</v>
+        <v>0.5483191013336182</v>
       </c>
     </row>
     <row r="341">
@@ -3449,7 +3311,7 @@
         <v>7.286432266235352</v>
       </c>
       <c r="B341" t="n">
-        <v>0.02136832848191261</v>
+        <v>0.5532236099243164</v>
       </c>
     </row>
     <row r="342">
@@ -3457,7 +3319,7 @@
         <v>7.331658363342285</v>
       </c>
       <c r="B342" t="n">
-        <v>0.02127227559685707</v>
+        <v>0.5581119060516357</v>
       </c>
     </row>
     <row r="343">
@@ -3465,7 +3327,7 @@
         <v>7.376884460449219</v>
       </c>
       <c r="B343" t="n">
-        <v>0.02117795869708061</v>
+        <v>0.5629836916923523</v>
       </c>
     </row>
     <row r="344">
@@ -3473,7 +3335,7 @@
         <v>7.422110557556152</v>
       </c>
       <c r="B344" t="n">
-        <v>0.02108501270413399</v>
+        <v>0.5678387880325317</v>
       </c>
     </row>
     <row r="345">
@@ -3481,7 +3343,7 @@
         <v>7.467336654663086</v>
       </c>
       <c r="B345" t="n">
-        <v>0.02099379524588585</v>
+        <v>0.5726771354675293</v>
       </c>
     </row>
     <row r="346">
@@ -3489,7 +3351,7 @@
         <v>7.51256275177002</v>
       </c>
       <c r="B346" t="n">
-        <v>0.0209040604531765</v>
+        <v>0.5774989128112793</v>
       </c>
     </row>
     <row r="347">
@@ -3497,7 +3359,7 @@
         <v>7.557788848876953</v>
       </c>
       <c r="B347" t="n">
-        <v>0.02081580087542534</v>
+        <v>0.582304060459137</v>
       </c>
     </row>
     <row r="348">
@@ -3505,7 +3367,7 @@
         <v>7.603014945983887</v>
       </c>
       <c r="B348" t="n">
-        <v>0.02072921022772789</v>
+        <v>0.5870925188064575</v>
       </c>
     </row>
     <row r="349">
@@ -3513,7 +3375,7 @@
         <v>7.64824104309082</v>
       </c>
       <c r="B349" t="n">
-        <v>0.02064407989382744</v>
+        <v>0.5918640494346619</v>
       </c>
     </row>
     <row r="350">
@@ -3521,7 +3383,7 @@
         <v>7.693467140197754</v>
       </c>
       <c r="B350" t="n">
-        <v>0.02056049928069115</v>
+        <v>0.5966187119483948</v>
       </c>
     </row>
     <row r="351">
@@ -3529,7 +3391,7 @@
         <v>7.738693237304688</v>
       </c>
       <c r="B351" t="n">
-        <v>0.02047836408019066</v>
+        <v>0.6013568043708801</v>
       </c>
     </row>
     <row r="352">
@@ -3537,7 +3399,7 @@
         <v>7.783919811248779</v>
       </c>
       <c r="B352" t="n">
-        <v>0.02039777114987373</v>
+        <v>0.6060783267021179</v>
       </c>
     </row>
     <row r="353">
@@ -3545,7 +3407,7 @@
         <v>7.829145908355713</v>
       </c>
       <c r="B353" t="n">
-        <v>0.02031877264380455</v>
+        <v>0.6107825040817261</v>
       </c>
     </row>
     <row r="354">
@@ -3553,7 +3415,7 @@
         <v>7.874372005462646</v>
       </c>
       <c r="B354" t="n">
-        <v>0.02024128660559654</v>
+        <v>0.6154702305793762</v>
       </c>
     </row>
     <row r="355">
@@ -3561,7 +3423,7 @@
         <v>7.91959810256958</v>
       </c>
       <c r="B355" t="n">
-        <v>0.02016528323292732</v>
+        <v>0.6201406121253967</v>
       </c>
     </row>
     <row r="356">
@@ -3569,7 +3431,7 @@
         <v>7.964824199676514</v>
       </c>
       <c r="B356" t="n">
-        <v>0.02009071037173271</v>
+        <v>0.6247943043708801</v>
       </c>
     </row>
     <row r="357">
@@ -3577,7 +3439,7 @@
         <v>8.010049819946289</v>
       </c>
       <c r="B357" t="n">
-        <v>0.02001757547259331</v>
+        <v>0.6294310688972473</v>
       </c>
     </row>
     <row r="358">
@@ -3585,7 +3447,7 @@
         <v>8.055275917053223</v>
       </c>
       <c r="B358" t="n">
-        <v>0.01994616910815239</v>
+        <v>0.6340507864952087</v>
       </c>
     </row>
     <row r="359">
@@ -3593,7 +3455,7 @@
         <v>8.100502967834473</v>
       </c>
       <c r="B359" t="n">
-        <v>0.0198761560022831</v>
+        <v>0.6386539340019226</v>
       </c>
     </row>
     <row r="360">
@@ -3601,7 +3463,7 @@
         <v>8.145729064941406</v>
       </c>
       <c r="B360" t="n">
-        <v>0.01980753615498543</v>
+        <v>0.6432398557662964</v>
       </c>
     </row>
     <row r="361">
@@ -3609,7 +3471,7 @@
         <v>8.19095516204834</v>
       </c>
       <c r="B361" t="n">
-        <v>0.01974049583077431</v>
+        <v>0.6478089094161987</v>
       </c>
     </row>
     <row r="362">
@@ -3617,7 +3479,7 @@
         <v>8.236181259155273</v>
       </c>
       <c r="B362" t="n">
-        <v>0.01967471465468407</v>
+        <v>0.6523608565330505</v>
       </c>
     </row>
     <row r="363">
@@ -3625,7 +3487,7 @@
         <v>8.281407356262207</v>
       </c>
       <c r="B363" t="n">
-        <v>0.01961064711213112</v>
+        <v>0.6568953394889832</v>
       </c>
     </row>
     <row r="364">
@@ -3633,7 +3495,7 @@
         <v>8.326633453369141</v>
       </c>
       <c r="B364" t="n">
-        <v>0.01954792067408562</v>
+        <v>0.6614134907722473</v>
       </c>
     </row>
     <row r="365">
@@ -3641,7 +3503,7 @@
         <v>8.371859550476074</v>
       </c>
       <c r="B365" t="n">
-        <v>0.01948671415448189</v>
+        <v>0.6659145951271057</v>
       </c>
     </row>
     <row r="366">
@@ -3649,7 +3511,7 @@
         <v>8.417085647583008</v>
       </c>
       <c r="B366" t="n">
-        <v>0.01942680403590202</v>
+        <v>0.6703982949256897</v>
       </c>
     </row>
     <row r="367">
@@ -3657,7 +3519,7 @@
         <v>8.462311744689941</v>
       </c>
       <c r="B367" t="n">
-        <v>0.0193684808909893</v>
+        <v>0.6748650670051575</v>
       </c>
     </row>
     <row r="368">
@@ -3665,7 +3527,7 @@
         <v>8.507537841796875</v>
       </c>
       <c r="B368" t="n">
-        <v>0.01931159570813179</v>
+        <v>0.6793147921562195</v>
       </c>
     </row>
     <row r="369">
@@ -3673,7 +3535,7 @@
         <v>8.552763938903809</v>
       </c>
       <c r="B369" t="n">
-        <v>0.01925596967339516</v>
+        <v>0.6837475299835205</v>
       </c>
     </row>
     <row r="370">
@@ -3681,7 +3543,7 @@
         <v>8.597990036010742</v>
       </c>
       <c r="B370" t="n">
-        <v>0.01920206472277641</v>
+        <v>0.688163161277771</v>
       </c>
     </row>
     <row r="371">
@@ -3689,7 +3551,7 @@
         <v>8.643216133117676</v>
       </c>
       <c r="B371" t="n">
-        <v>0.01914943382143974</v>
+        <v>0.6925615668296814</v>
       </c>
     </row>
     <row r="372">
@@ -3697,7 +3559,7 @@
         <v>8.688442230224609</v>
       </c>
       <c r="B372" t="n">
-        <v>0.01909815892577171</v>
+        <v>0.6969432830810547</v>
       </c>
     </row>
     <row r="373">
@@ -3705,7 +3567,7 @@
         <v>8.733668327331543</v>
       </c>
       <c r="B373" t="n">
-        <v>0.01904832944273949</v>
+        <v>0.7013078927993774</v>
       </c>
     </row>
     <row r="374">
@@ -3713,7 +3575,7 @@
         <v>8.778894424438477</v>
       </c>
       <c r="B374" t="n">
-        <v>0.01899988576769829</v>
+        <v>0.705655038356781</v>
       </c>
     </row>
     <row r="375">
@@ -3721,7 +3583,7 @@
         <v>8.82412052154541</v>
       </c>
       <c r="B375" t="n">
-        <v>0.0189528726041317</v>
+        <v>0.7099852561950684</v>
       </c>
     </row>
     <row r="376">
@@ -3729,7 +3591,7 @@
         <v>8.869346618652344</v>
       </c>
       <c r="B376" t="n">
-        <v>0.01890723034739494</v>
+        <v>0.71429842710495</v>
       </c>
     </row>
     <row r="377">
@@ -3737,7 +3599,7 @@
         <v>8.914572715759277</v>
       </c>
       <c r="B377" t="n">
-        <v>0.01886289939284325</v>
+        <v>0.7185947299003601</v>
       </c>
     </row>
     <row r="378">
@@ -3745,7 +3607,7 @@
         <v>8.959798812866211</v>
       </c>
       <c r="B378" t="n">
-        <v>0.01882008835673332</v>
+        <v>0.722873866558075</v>
       </c>
     </row>
     <row r="379">
@@ -3753,7 +3615,7 @@
         <v>9.005024909973145</v>
       </c>
       <c r="B379" t="n">
-        <v>0.01877857372164726</v>
+        <v>0.7271358370780945</v>
       </c>
     </row>
     <row r="380">
@@ -3761,7 +3623,7 @@
         <v>9.050251007080078</v>
       </c>
       <c r="B380" t="n">
-        <v>0.01873831078410149</v>
+        <v>0.7313810586929321</v>
       </c>
     </row>
     <row r="381">
@@ -3769,7 +3631,7 @@
         <v>9.095477104187012</v>
       </c>
       <c r="B381" t="n">
-        <v>0.01869950816035271</v>
+        <v>0.7356091141700745</v>
       </c>
     </row>
     <row r="382">
@@ -3777,7 +3639,7 @@
         <v>9.140703201293945</v>
       </c>
       <c r="B382" t="n">
-        <v>0.01866203173995018</v>
+        <v>0.7398199439048767</v>
       </c>
     </row>
     <row r="383">
@@ -3785,7 +3647,7 @@
         <v>9.185929298400879</v>
       </c>
       <c r="B383" t="n">
-        <v>0.01862598583102226</v>
+        <v>0.7440138459205627</v>
       </c>
     </row>
     <row r="384">
@@ -3793,7 +3655,7 @@
         <v>9.231155395507812</v>
       </c>
       <c r="B384" t="n">
-        <v>0.0185912512242794</v>
+        <v>0.7481908202171326</v>
       </c>
     </row>
     <row r="385">
@@ -3801,7 +3663,7 @@
         <v>9.276381492614746</v>
       </c>
       <c r="B385" t="n">
-        <v>0.01855779811739922</v>
+        <v>0.7523509860038757</v>
       </c>
     </row>
     <row r="386">
@@ -3809,7 +3671,7 @@
         <v>9.32160758972168</v>
       </c>
       <c r="B386" t="n">
-        <v>0.01852567121386528</v>
+        <v>0.7564937472343445</v>
       </c>
     </row>
     <row r="387">
@@ -3817,7 +3679,7 @@
         <v>9.36683464050293</v>
       </c>
       <c r="B387" t="n">
-        <v>0.01849479600787163</v>
+        <v>0.7606196999549866</v>
       </c>
     </row>
     <row r="388">
@@ -3825,7 +3687,7 @@
         <v>9.412060737609863</v>
       </c>
       <c r="B388" t="n">
-        <v>0.01846533641219139</v>
+        <v>0.7647286057472229</v>
       </c>
     </row>
     <row r="389">
@@ -3833,7 +3695,7 @@
         <v>9.457286834716797</v>
       </c>
       <c r="B389" t="n">
-        <v>0.01843706890940666</v>
+        <v>0.7688207030296326</v>
       </c>
     </row>
     <row r="390">
@@ -3841,7 +3703,7 @@
         <v>9.50251293182373</v>
       </c>
       <c r="B390" t="n">
-        <v>0.01841024681925774</v>
+        <v>0.7728957533836365</v>
       </c>
     </row>
     <row r="391">
@@ -3849,7 +3711,7 @@
         <v>9.547739028930664</v>
       </c>
       <c r="B391" t="n">
-        <v>0.01838460192084312</v>
+        <v>0.7769539356231689</v>
       </c>
     </row>
     <row r="392">
@@ -3857,7 +3719,7 @@
         <v>9.592965126037598</v>
       </c>
       <c r="B392" t="n">
-        <v>0.01836023852229118</v>
+        <v>0.7809951901435852</v>
       </c>
     </row>
     <row r="393">
@@ -3865,7 +3727,7 @@
         <v>9.638191223144531</v>
       </c>
       <c r="B393" t="n">
-        <v>0.01833723112940788</v>
+        <v>0.78501957654953</v>
       </c>
     </row>
     <row r="394">
@@ -3873,7 +3735,7 @@
         <v>9.683417320251465</v>
       </c>
       <c r="B394" t="n">
-        <v>0.01831552013754845</v>
+        <v>0.7890270352363586</v>
       </c>
     </row>
     <row r="395">
@@ -3881,7 +3743,7 @@
         <v>9.728643417358398</v>
       </c>
       <c r="B395" t="n">
-        <v>0.01829492673277855</v>
+        <v>0.7930176854133606</v>
       </c>
     </row>
     <row r="396">
@@ -3889,7 +3751,7 @@
         <v>9.773869514465332</v>
       </c>
       <c r="B396" t="n">
-        <v>0.01827562972903252</v>
+        <v>0.7969912886619568</v>
       </c>
     </row>
     <row r="397">
@@ -3897,7 +3759,7 @@
         <v>9.819095611572266</v>
       </c>
       <c r="B397" t="n">
-        <v>0.01825759932398796</v>
+        <v>0.8009481430053711</v>
       </c>
     </row>
     <row r="398">
@@ -3905,7 +3767,7 @@
         <v>9.864321708679199</v>
       </c>
       <c r="B398" t="n">
-        <v>0.01824076101183891</v>
+        <v>0.8048886656761169</v>
       </c>
     </row>
     <row r="399">
@@ -3913,7 +3775,7 @@
         <v>9.909547805786133</v>
       </c>
       <c r="B399" t="n">
-        <v>0.01822520419955254</v>
+        <v>0.8088117241859436</v>
       </c>
     </row>
     <row r="400">
@@ -3921,7 +3783,7 @@
         <v>9.954773902893066</v>
       </c>
       <c r="B400" t="n">
-        <v>0.01821083948016167</v>
+        <v>0.8127183318138123</v>
       </c>
     </row>
     <row r="401">
@@ -3929,7 +3791,7 @@
         <v>10</v>
       </c>
       <c r="B401" t="n">
-        <v>0.01819786056876183</v>
+        <v>0.8166082501411438</v>
       </c>
     </row>
   </sheetData>

--- a/utils3d/results/results.xlsx
+++ b/utils3d/results/results.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,16 +473,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.8799886107444763</v>
+        <v>0.002029893454164267</v>
       </c>
       <c r="B2" t="n">
-        <v>6.667971319984645e-05</v>
+        <v>0.003145438153296709</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08758261054754257</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -496,16 +496,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.012652397155762</v>
+        <v>0.003317166119813919</v>
       </c>
       <c r="B3" t="n">
-        <v>8.910049655241892e-05</v>
+        <v>0.006002896465361118</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09709181636571884</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -519,16 +519,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.514376640319824</v>
+        <v>0.001893994747661054</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0001655161031521857</v>
+        <v>0.001530907116830349</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1708619296550751</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -542,16 +542,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.269627332687378</v>
+        <v>0.001209979061968625</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0002878287341445684</v>
+        <v>0.002308564260601997</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2900517284870148</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -560,6 +560,144 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.001363563234917819</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.003085953183472157</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.001561658456921577</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.00202191062271595</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>21.4780445098877</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6.281550213316223e-07</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.00078168063191697</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>21.4780445098877</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.160321284667589e-07</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0001638557732803747</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>21.4780445098877</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3.980511564805056e-07</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0009681896772235632</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>21.4780445098877</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8.307138728014252e-07</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.001850991742685437</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -599,7 +737,7 @@
         <v>-0.1000000014901161</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5185161828994751</v>
+        <v>0.01276769582182169</v>
       </c>
     </row>
     <row r="3">
@@ -607,7 +745,7 @@
         <v>-0.09447236359119415</v>
       </c>
       <c r="B3" t="n">
-        <v>0.513008177280426</v>
+        <v>0.01276682782918215</v>
       </c>
     </row>
     <row r="4">
@@ -615,7 +753,7 @@
         <v>-0.08894472569227219</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5074880123138428</v>
+        <v>0.01276595983654261</v>
       </c>
     </row>
     <row r="5">
@@ -623,7 +761,7 @@
         <v>-0.08341708779335022</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5019561052322388</v>
+        <v>0.01276509184390306</v>
       </c>
     </row>
     <row r="6">
@@ -631,7 +769,7 @@
         <v>-0.07788944989442825</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4964125156402588</v>
+        <v>0.01276431698352098</v>
       </c>
     </row>
     <row r="7">
@@ -639,7 +777,7 @@
         <v>-0.07236181199550629</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4908574223518372</v>
+        <v>0.01279072649776936</v>
       </c>
     </row>
     <row r="8">
@@ -647,7 +785,7 @@
         <v>-0.06683417409658432</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4852911829948425</v>
+        <v>0.01281930040568113</v>
       </c>
     </row>
     <row r="9">
@@ -655,7 +793,7 @@
         <v>-0.06130653247237206</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4797140061855316</v>
+        <v>0.01284787431359291</v>
       </c>
     </row>
     <row r="10">
@@ -663,7 +801,7 @@
         <v>-0.05577889457345009</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4741260409355164</v>
+        <v>0.01287644729018211</v>
       </c>
     </row>
     <row r="11">
@@ -671,7 +809,7 @@
         <v>-0.05025125667452812</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4685275852680206</v>
+        <v>0.01290502212941647</v>
       </c>
     </row>
     <row r="12">
@@ -679,7 +817,7 @@
         <v>-0.04472361877560616</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4629189372062683</v>
+        <v>0.01293359510600567</v>
       </c>
     </row>
     <row r="13">
@@ -687,7 +825,7 @@
         <v>-0.03919598087668419</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4573001861572266</v>
+        <v>0.01296216901391745</v>
       </c>
     </row>
     <row r="14">
@@ -695,7 +833,7 @@
         <v>-0.03366834297776222</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4516716599464417</v>
+        <v>0.01299074292182922</v>
       </c>
     </row>
     <row r="15">
@@ -703,7 +841,7 @@
         <v>-0.02814070321619511</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4460336863994598</v>
+        <v>0.013019316829741</v>
       </c>
     </row>
     <row r="16">
@@ -711,7 +849,7 @@
         <v>-0.02261306531727314</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4403863549232483</v>
+        <v>0.01304789073765278</v>
       </c>
     </row>
     <row r="17">
@@ -719,7 +857,7 @@
         <v>-0.01708542741835117</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4347299337387085</v>
+        <v>0.01308622397482395</v>
       </c>
     </row>
     <row r="18">
@@ -727,7 +865,7 @@
         <v>-0.01155778858810663</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4290647506713867</v>
+        <v>0.01312616374343634</v>
       </c>
     </row>
     <row r="19">
@@ -735,7 +873,7 @@
         <v>-0.006030150689184666</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4233910143375397</v>
+        <v>0.0131661044433713</v>
       </c>
     </row>
     <row r="20">
@@ -743,7 +881,7 @@
         <v>-0.0005025125574320555</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4177089333534241</v>
+        <v>0.01320855226367712</v>
       </c>
     </row>
     <row r="21">
@@ -751,7 +889,7 @@
         <v>0.005025125574320555</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4120188057422638</v>
+        <v>0.01325339451432228</v>
       </c>
     </row>
     <row r="22">
@@ -759,7 +897,7 @@
         <v>0.01055276393890381</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4063209295272827</v>
+        <v>0.01329823583364487</v>
       </c>
     </row>
     <row r="23">
@@ -767,7 +905,7 @@
         <v>0.01608040183782578</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4006155431270599</v>
+        <v>0.01334307808429003</v>
       </c>
     </row>
     <row r="24">
@@ -775,7 +913,7 @@
         <v>0.02160803973674774</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3949028253555298</v>
+        <v>0.01338791940361261</v>
       </c>
     </row>
     <row r="25">
@@ -783,7 +921,7 @@
         <v>0.02713567763566971</v>
       </c>
       <c r="B25" t="n">
-        <v>0.3891829252243042</v>
+        <v>0.01343276165425777</v>
       </c>
     </row>
     <row r="26">
@@ -791,7 +929,7 @@
         <v>0.03266331553459167</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3834564387798309</v>
+        <v>0.01348088774830103</v>
       </c>
     </row>
     <row r="27">
@@ -799,7 +937,7 @@
         <v>0.03819095343351364</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3777233958244324</v>
+        <v>0.0135365491732955</v>
       </c>
     </row>
     <row r="28">
@@ -807,7 +945,7 @@
         <v>0.04371859133243561</v>
       </c>
       <c r="B28" t="n">
-        <v>0.3719841241836548</v>
+        <v>0.01359671354293823</v>
       </c>
     </row>
     <row r="29">
@@ -815,7 +953,7 @@
         <v>0.04924623295664787</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3662388324737549</v>
+        <v>0.01366103067994118</v>
       </c>
     </row>
     <row r="30">
@@ -823,7 +961,7 @@
         <v>0.05477387085556984</v>
       </c>
       <c r="B30" t="n">
-        <v>0.360487699508667</v>
+        <v>0.01372534967958927</v>
       </c>
     </row>
     <row r="31">
@@ -831,7 +969,7 @@
         <v>0.06030150875449181</v>
       </c>
       <c r="B31" t="n">
-        <v>0.3547312617301941</v>
+        <v>0.01378966588526964</v>
       </c>
     </row>
     <row r="32">
@@ -839,7 +977,7 @@
         <v>0.06582914292812347</v>
       </c>
       <c r="B32" t="n">
-        <v>0.348969578742981</v>
+        <v>0.01385398302227259</v>
       </c>
     </row>
     <row r="33">
@@ -847,7 +985,7 @@
         <v>0.07135678082704544</v>
       </c>
       <c r="B33" t="n">
-        <v>0.3432029783725739</v>
+        <v>0.01389828789979219</v>
       </c>
     </row>
     <row r="34">
@@ -855,7 +993,7 @@
         <v>0.07688441872596741</v>
       </c>
       <c r="B34" t="n">
-        <v>0.3374316990375519</v>
+        <v>0.01394080463796854</v>
       </c>
     </row>
     <row r="35">
@@ -863,7 +1001,7 @@
         <v>0.08241205662488937</v>
       </c>
       <c r="B35" t="n">
-        <v>0.3316560387611389</v>
+        <v>0.01398884784430265</v>
       </c>
     </row>
     <row r="36">
@@ -871,7 +1009,7 @@
         <v>0.08793970197439194</v>
       </c>
       <c r="B36" t="n">
-        <v>0.3258761465549469</v>
+        <v>0.01402254030108452</v>
       </c>
     </row>
     <row r="37">
@@ -879,7 +1017,7 @@
         <v>0.0934673398733139</v>
       </c>
       <c r="B37" t="n">
-        <v>0.3200924694538116</v>
+        <v>0.01405336614698172</v>
       </c>
     </row>
     <row r="38">
@@ -887,7 +1025,7 @@
         <v>0.09899497777223587</v>
       </c>
       <c r="B38" t="n">
-        <v>0.3143051862716675</v>
+        <v>0.01406949386000633</v>
       </c>
     </row>
     <row r="39">
@@ -895,7 +1033,7 @@
         <v>0.1045226156711578</v>
       </c>
       <c r="B39" t="n">
-        <v>0.3085145950317383</v>
+        <v>0.01402363926172256</v>
       </c>
     </row>
     <row r="40">
@@ -903,7 +1041,7 @@
         <v>0.1100502535700798</v>
       </c>
       <c r="B40" t="n">
-        <v>0.3027209341526031</v>
+        <v>0.01397778559476137</v>
       </c>
     </row>
     <row r="41">
@@ -911,7 +1049,7 @@
         <v>0.1155778914690018</v>
       </c>
       <c r="B41" t="n">
-        <v>0.296924352645874</v>
+        <v>0.01393193006515503</v>
       </c>
     </row>
     <row r="42">
@@ -919,7 +1057,7 @@
         <v>0.1211055293679237</v>
       </c>
       <c r="B42" t="n">
-        <v>0.2911253571510315</v>
+        <v>0.01388607546687126</v>
       </c>
     </row>
     <row r="43">
@@ -927,7 +1065,7 @@
         <v>0.1266331672668457</v>
       </c>
       <c r="B43" t="n">
-        <v>0.2853241264820099</v>
+        <v>0.01384022179991007</v>
       </c>
     </row>
     <row r="44">
@@ -935,7 +1073,7 @@
         <v>0.1321607977151871</v>
       </c>
       <c r="B44" t="n">
-        <v>0.2795209288597107</v>
+        <v>0.0137943672016263</v>
       </c>
     </row>
     <row r="45">
@@ -943,7 +1081,7 @@
         <v>0.1376884430646896</v>
       </c>
       <c r="B45" t="n">
-        <v>0.273716002702713</v>
+        <v>0.01374851353466511</v>
       </c>
     </row>
     <row r="46">
@@ -951,7 +1089,7 @@
         <v>0.143216073513031</v>
       </c>
       <c r="B46" t="n">
-        <v>0.2679095268249512</v>
+        <v>0.01370265800505877</v>
       </c>
     </row>
     <row r="47">
@@ -959,7 +1097,7 @@
         <v>0.1487437188625336</v>
       </c>
       <c r="B47" t="n">
-        <v>0.2621019780635834</v>
+        <v>0.01365680433809757</v>
       </c>
     </row>
     <row r="48">
@@ -967,7 +1105,7 @@
         <v>0.1542713642120361</v>
       </c>
       <c r="B48" t="n">
-        <v>0.2562935352325439</v>
+        <v>0.0136109497398138</v>
       </c>
     </row>
     <row r="49">
@@ -975,7 +1113,7 @@
         <v>0.1597989946603775</v>
       </c>
       <c r="B49" t="n">
-        <v>0.2504844665527344</v>
+        <v>0.01356509514153004</v>
       </c>
     </row>
     <row r="50">
@@ -983,7 +1121,7 @@
         <v>0.1653266400098801</v>
       </c>
       <c r="B50" t="n">
-        <v>0.2446750104427338</v>
+        <v>0.01351924147456884</v>
       </c>
     </row>
     <row r="51">
@@ -991,7 +1129,7 @@
         <v>0.1708542704582214</v>
       </c>
       <c r="B51" t="n">
-        <v>0.2388653159141541</v>
+        <v>0.01347338687628508</v>
       </c>
     </row>
     <row r="52">
@@ -999,7 +1137,7 @@
         <v>0.176381915807724</v>
       </c>
       <c r="B52" t="n">
-        <v>0.2330559492111206</v>
+        <v>0.01342753227800131</v>
       </c>
     </row>
     <row r="53">
@@ -1007,7 +1145,7 @@
         <v>0.1819095462560654</v>
       </c>
       <c r="B53" t="n">
-        <v>0.2272470444440842</v>
+        <v>0.01338167861104012</v>
       </c>
     </row>
     <row r="54">
@@ -1015,7 +1153,7 @@
         <v>0.1874371916055679</v>
       </c>
       <c r="B54" t="n">
-        <v>0.2214387953281403</v>
+        <v>0.01333582401275635</v>
       </c>
     </row>
     <row r="55">
@@ -1023,7 +1161,7 @@
         <v>0.1929648220539093</v>
       </c>
       <c r="B55" t="n">
-        <v>0.2156315445899963</v>
+        <v>0.01326989103108644</v>
       </c>
     </row>
     <row r="56">
@@ -1031,7 +1169,7 @@
         <v>0.1984924674034119</v>
       </c>
       <c r="B56" t="n">
-        <v>0.2098254263401031</v>
+        <v>0.01320160459727049</v>
       </c>
     </row>
     <row r="57">
@@ -1039,7 +1177,7 @@
         <v>0.2040200978517532</v>
       </c>
       <c r="B57" t="n">
-        <v>0.2040209472179413</v>
+        <v>0.01313332095742226</v>
       </c>
     </row>
     <row r="58">
@@ -1047,7 +1185,7 @@
         <v>0.2095477432012558</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1982182264328003</v>
+        <v>0.01306503638625145</v>
       </c>
     </row>
     <row r="59">
@@ -1055,7 +1193,7 @@
         <v>0.2150753736495972</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1924175322055817</v>
+        <v>0.01299675181508064</v>
       </c>
     </row>
     <row r="60">
@@ -1063,7 +1201,7 @@
         <v>0.2206030189990997</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1866191327571869</v>
+        <v>0.01292846724390984</v>
       </c>
     </row>
     <row r="61">
@@ -1071,7 +1209,7 @@
         <v>0.2261306494474411</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1808232963085175</v>
+        <v>0.01286018267273903</v>
       </c>
     </row>
     <row r="62">
@@ -1079,7 +1217,7 @@
         <v>0.2316582947969437</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1750301569700241</v>
+        <v>0.01279189717024565</v>
       </c>
     </row>
     <row r="63">
@@ -1087,7 +1225,7 @@
         <v>0.237185925245285</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1692402511835098</v>
+        <v>0.01272361259907484</v>
       </c>
     </row>
     <row r="64">
@@ -1095,7 +1233,7 @@
         <v>0.2427135705947876</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1634536385536194</v>
+        <v>0.01269328221678734</v>
       </c>
     </row>
     <row r="65">
@@ -1103,7 +1241,7 @@
         <v>0.248241201043129</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1576706767082214</v>
+        <v>0.01269328221678734</v>
       </c>
     </row>
     <row r="66">
@@ -1111,7 +1249,7 @@
         <v>0.2537688314914703</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1518915444612503</v>
+        <v>0.01269328221678734</v>
       </c>
     </row>
     <row r="67">
@@ -1119,7 +1257,7 @@
         <v>0.2592964768409729</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1461165398359299</v>
+        <v>0.01269328221678734</v>
       </c>
     </row>
     <row r="68">
@@ -1127,7 +1265,7 @@
         <v>0.2648241221904755</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1403457224369049</v>
+        <v>0.01269328221678734</v>
       </c>
     </row>
     <row r="69">
@@ -1135,7 +1273,7 @@
         <v>0.270351767539978</v>
       </c>
       <c r="B69" t="n">
-        <v>0.134579673409462</v>
+        <v>0.01286141574382782</v>
       </c>
     </row>
     <row r="70">
@@ -1143,7 +1281,7 @@
         <v>0.2758793830871582</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1288185566663742</v>
+        <v>0.0130377197638154</v>
       </c>
     </row>
     <row r="71">
@@ -1151,7 +1289,7 @@
         <v>0.2814070284366608</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1230625063180923</v>
+        <v>0.01321402285248041</v>
       </c>
     </row>
     <row r="72">
@@ -1159,7 +1297,7 @@
         <v>0.2869346737861633</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1173118203878403</v>
+        <v>0.01339032780379057</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1305,7 @@
         <v>0.2924623191356659</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1115666478872299</v>
+        <v>0.01356663554906845</v>
       </c>
     </row>
     <row r="74">
@@ -1175,7 +1313,7 @@
         <v>0.2979899644851685</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1058274358510971</v>
+        <v>0.01374293863773346</v>
       </c>
     </row>
     <row r="75">
@@ -1183,7 +1321,7 @@
         <v>0.3035175800323486</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1000943332910538</v>
+        <v>0.01391924358904362</v>
       </c>
     </row>
     <row r="76">
@@ -1191,7 +1329,7 @@
         <v>0.3090452253818512</v>
       </c>
       <c r="B76" t="n">
-        <v>0.09436757862567902</v>
+        <v>0.01409554667770863</v>
       </c>
     </row>
     <row r="77">
@@ -1199,7 +1337,7 @@
         <v>0.3145728707313538</v>
       </c>
       <c r="B77" t="n">
-        <v>0.08864744007587433</v>
+        <v>0.01427185162901878</v>
       </c>
     </row>
     <row r="78">
@@ -1207,7 +1345,7 @@
         <v>0.3201005160808563</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08293396234512329</v>
+        <v>0.01444816030561924</v>
       </c>
     </row>
     <row r="79">
@@ -1215,7 +1353,7 @@
         <v>0.3256281316280365</v>
       </c>
       <c r="B79" t="n">
-        <v>0.07722771167755127</v>
+        <v>0.01462446246296167</v>
       </c>
     </row>
     <row r="80">
@@ -1223,7 +1361,7 @@
         <v>0.3311557769775391</v>
       </c>
       <c r="B80" t="n">
-        <v>0.07152871787548065</v>
+        <v>0.01480076648294926</v>
       </c>
     </row>
     <row r="81">
@@ -1231,7 +1369,7 @@
         <v>0.3366834223270416</v>
       </c>
       <c r="B81" t="n">
-        <v>0.06583724915981293</v>
+        <v>0.01497707143425941</v>
       </c>
     </row>
     <row r="82">
@@ -1239,7 +1377,7 @@
         <v>0.3422110676765442</v>
       </c>
       <c r="B82" t="n">
-        <v>0.06015355512499809</v>
+        <v>0.01515337638556957</v>
       </c>
     </row>
     <row r="83">
@@ -1247,7 +1385,7 @@
         <v>0.3477386832237244</v>
       </c>
       <c r="B83" t="n">
-        <v>0.05447771772742271</v>
+        <v>0.01502378284931183</v>
       </c>
     </row>
     <row r="84">
@@ -1255,7 +1393,7 @@
         <v>0.3532663285732269</v>
       </c>
       <c r="B84" t="n">
-        <v>0.04881022498011589</v>
+        <v>0.01489106938242912</v>
       </c>
     </row>
     <row r="85">
@@ -1263,7 +1401,7 @@
         <v>0.3587939739227295</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0431511364877224</v>
+        <v>0.01475835219025612</v>
       </c>
     </row>
     <row r="86">
@@ -1271,7 +1409,7 @@
         <v>0.3643216192722321</v>
       </c>
       <c r="B86" t="n">
-        <v>0.03750074282288551</v>
+        <v>0.01462563872337341</v>
       </c>
     </row>
     <row r="87">
@@ -1279,7 +1417,7 @@
         <v>0.3698492348194122</v>
       </c>
       <c r="B87" t="n">
-        <v>0.03185922652482986</v>
+        <v>0.01449292246252298</v>
       </c>
     </row>
     <row r="88">
@@ -1287,7 +1425,7 @@
         <v>0.3753768801689148</v>
       </c>
       <c r="B88" t="n">
-        <v>0.02622668817639351</v>
+        <v>0.0143602043390274</v>
       </c>
     </row>
     <row r="89">
@@ -1295,7 +1433,7 @@
         <v>0.3809045255184174</v>
       </c>
       <c r="B89" t="n">
-        <v>0.02060356363654137</v>
+        <v>0.01422748900949955</v>
       </c>
     </row>
     <row r="90">
@@ -1303,7 +1441,7 @@
         <v>0.3864321708679199</v>
       </c>
       <c r="B90" t="n">
-        <v>0.01499000284820795</v>
+        <v>0.01409477461129427</v>
       </c>
     </row>
     <row r="91">
@@ -1311,7 +1449,7 @@
         <v>0.3919597864151001</v>
       </c>
       <c r="B91" t="n">
-        <v>0.009386141784489155</v>
+        <v>0.01396205835044384</v>
       </c>
     </row>
     <row r="92">
@@ -1319,7 +1457,7 @@
         <v>0.3974874317646027</v>
       </c>
       <c r="B92" t="n">
-        <v>0.003792264498770237</v>
+        <v>0.01382934488356113</v>
       </c>
     </row>
     <row r="93">
@@ -1327,7 +1465,7 @@
         <v>0.4030150771141052</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.0017916364595294</v>
+        <v>0.01369662489742041</v>
       </c>
     </row>
     <row r="94">
@@ -1335,7 +1473,7 @@
         <v>0.4085427224636078</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.007365002296864986</v>
+        <v>0.01377876475453377</v>
       </c>
     </row>
     <row r="95">
@@ -1343,7 +1481,7 @@
         <v>0.414070338010788</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.0129278777167201</v>
+        <v>0.01389565970748663</v>
       </c>
     </row>
     <row r="96">
@@ -1351,7 +1489,7 @@
         <v>0.4195979833602905</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.01847990974783897</v>
+        <v>0.01394503191113472</v>
       </c>
     </row>
     <row r="97">
@@ -1359,7 +1497,7 @@
         <v>0.4251256287097931</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.02402099594473839</v>
+        <v>0.01402268465608358</v>
       </c>
     </row>
     <row r="98">
@@ -1367,7 +1505,7 @@
         <v>0.4306532740592957</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.02955112978816032</v>
+        <v>0.01410289295017719</v>
       </c>
     </row>
     <row r="99">
@@ -1375,7 +1513,7 @@
         <v>0.4361809194087982</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.03506974503397942</v>
+        <v>0.01418309658765793</v>
       </c>
     </row>
     <row r="100">
@@ -1383,7 +1521,7 @@
         <v>0.4417085349559784</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.04057684913277626</v>
+        <v>0.01426330395042896</v>
       </c>
     </row>
     <row r="101">
@@ -1391,7 +1529,7 @@
         <v>0.447236180305481</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.04607220366597176</v>
+        <v>0.0143435075879097</v>
       </c>
     </row>
     <row r="102">
@@ -1399,7 +1537,7 @@
         <v>0.4527638256549835</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.05155570432543755</v>
+        <v>0.01442371308803558</v>
       </c>
     </row>
     <row r="103">
@@ -1407,7 +1545,7 @@
         <v>0.4582914710044861</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.05702720582485199</v>
+        <v>0.01450392231345177</v>
       </c>
     </row>
     <row r="104">
@@ -1415,7 +1553,7 @@
         <v>0.4638190865516663</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.06248630955815315</v>
+        <v>0.01458412129431963</v>
       </c>
     </row>
     <row r="105">
@@ -1423,7 +1561,7 @@
         <v>0.4693467319011688</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.06793306767940521</v>
+        <v>0.01466433051973581</v>
       </c>
     </row>
     <row r="106">
@@ -1431,7 +1569,7 @@
         <v>0.4748743772506714</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.07336720824241638</v>
+        <v>0.014744539745152</v>
       </c>
     </row>
     <row r="107">
@@ -1439,7 +1577,7 @@
         <v>0.480402022600174</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.07878851145505905</v>
+        <v>0.01484252791851759</v>
       </c>
     </row>
     <row r="108">
@@ -1447,7 +1585,7 @@
         <v>0.4859296381473541</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.08419693261384964</v>
+        <v>0.01495654601603746</v>
       </c>
     </row>
     <row r="109">
@@ -1455,7 +1593,7 @@
         <v>0.4914572834968567</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.08959218114614487</v>
+        <v>0.01507055386900902</v>
       </c>
     </row>
     <row r="110">
@@ -1463,7 +1601,7 @@
         <v>0.4969849288463593</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.0949743241071701</v>
+        <v>0.01518457196652889</v>
       </c>
     </row>
     <row r="111">
@@ -1471,7 +1609,7 @@
         <v>0.5025125741958618</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.1003428846597672</v>
+        <v>0.01529858354479074</v>
       </c>
     </row>
     <row r="112">
@@ -1479,7 +1617,7 @@
         <v>0.508040189743042</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.1056978479027748</v>
+        <v>0.01541259698569775</v>
       </c>
     </row>
     <row r="113">
@@ -1487,7 +1625,7 @@
         <v>0.5135678648948669</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.1110391914844513</v>
+        <v>0.01552661135792732</v>
       </c>
     </row>
     <row r="114">
@@ -1495,7 +1633,7 @@
         <v>0.5190954804420471</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.1163664758205414</v>
+        <v>0.01564062014222145</v>
       </c>
     </row>
     <row r="115">
@@ -1503,7 +1641,7 @@
         <v>0.5246230959892273</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.1216799020767212</v>
+        <v>0.01575463265180588</v>
       </c>
     </row>
     <row r="116">
@@ -1511,7 +1649,7 @@
         <v>0.5301507711410522</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.1269789636135101</v>
+        <v>0.0158686488866806</v>
       </c>
     </row>
     <row r="117">
@@ -1519,7 +1657,7 @@
         <v>0.5356783866882324</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.1322638094425201</v>
+        <v>0.01598266139626503</v>
       </c>
     </row>
     <row r="118">
@@ -1527,7 +1665,7 @@
         <v>0.5412060022354126</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.1375340819358826</v>
+        <v>0.01609667018055916</v>
       </c>
     </row>
     <row r="119">
@@ -1535,7 +1673,7 @@
         <v>0.5467336773872375</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.1427897661924362</v>
+        <v>0.01621068269014359</v>
       </c>
     </row>
     <row r="120">
@@ -1543,7 +1681,7 @@
         <v>0.5522612929344177</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.1480308771133423</v>
+        <v>0.01632469706237316</v>
       </c>
     </row>
     <row r="121">
@@ -1551,7 +1689,7 @@
         <v>0.5577889680862427</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.1532569080591202</v>
+        <v>0.01643870957195759</v>
       </c>
     </row>
     <row r="122">
@@ -1559,7 +1697,7 @@
         <v>0.5633165836334229</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.1584681272506714</v>
+        <v>0.01655272580683231</v>
       </c>
     </row>
     <row r="123">
@@ -1567,7 +1705,7 @@
         <v>0.568844199180603</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.1636640876531601</v>
+        <v>0.01666673645377159</v>
       </c>
     </row>
     <row r="124">
@@ -1575,7 +1713,7 @@
         <v>0.574371874332428</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.1688447892665863</v>
+        <v>0.01678074896335602</v>
       </c>
     </row>
     <row r="125">
@@ -1583,7 +1721,7 @@
         <v>0.5798994898796082</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.1740101277828217</v>
+        <v>0.01689476519823074</v>
       </c>
     </row>
     <row r="126">
@@ -1591,7 +1729,7 @@
         <v>0.5854271650314331</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.179160088300705</v>
+        <v>0.01700877770781517</v>
       </c>
     </row>
     <row r="127">
@@ -1599,7 +1737,7 @@
         <v>0.5909547805786133</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.1842943578958511</v>
+        <v>0.0171227864921093</v>
       </c>
     </row>
     <row r="128">
@@ -1607,7 +1745,7 @@
         <v>0.5964823961257935</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.1894127726554871</v>
+        <v>0.01723679900169373</v>
       </c>
     </row>
     <row r="129">
@@ -1615,7 +1753,7 @@
         <v>0.6020100712776184</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.1945155560970306</v>
+        <v>0.0173508133739233</v>
       </c>
     </row>
     <row r="130">
@@ -1623,7 +1761,7 @@
         <v>0.6075376868247986</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.1996023058891296</v>
+        <v>0.01746482588350773</v>
       </c>
     </row>
     <row r="131">
@@ -1631,7 +1769,7 @@
         <v>0.6130653023719788</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.2046730369329453</v>
+        <v>0.01757883653044701</v>
       </c>
     </row>
     <row r="132">
@@ -1639,7 +1777,7 @@
         <v>0.6185929775238037</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.2097276449203491</v>
+        <v>0.01769285090267658</v>
       </c>
     </row>
     <row r="133">
@@ -1647,7 +1785,7 @@
         <v>0.6241205930709839</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.2147661447525024</v>
+        <v>0.01780686527490616</v>
       </c>
     </row>
     <row r="134">
@@ -1655,7 +1793,7 @@
         <v>0.6296482682228088</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.219788134098053</v>
+        <v>0.01792087405920029</v>
       </c>
     </row>
     <row r="135">
@@ -1663,7 +1801,7 @@
         <v>0.635175883769989</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.2247938960790634</v>
+        <v>0.01803489215672016</v>
       </c>
     </row>
     <row r="136">
@@ -1671,7 +1809,7 @@
         <v>0.6407034993171692</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.229782834649086</v>
+        <v>0.01814890466630459</v>
       </c>
     </row>
     <row r="137">
@@ -1679,7 +1817,7 @@
         <v>0.6462311744689941</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.2347554862499237</v>
+        <v>0.01826291158795357</v>
       </c>
     </row>
     <row r="138">
@@ -1687,7 +1825,7 @@
         <v>0.6517587900161743</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.2397113144397736</v>
+        <v>0.01837693154811859</v>
       </c>
     </row>
     <row r="139">
@@ -1695,7 +1833,7 @@
         <v>0.6572864055633545</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.2446503937244415</v>
+        <v>0.01849093660712242</v>
       </c>
     </row>
     <row r="140">
@@ -1703,7 +1841,7 @@
         <v>0.6628140807151794</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.2495727688074112</v>
+        <v>0.01860495656728745</v>
       </c>
     </row>
     <row r="141">
@@ -1711,7 +1849,7 @@
         <v>0.6683416962623596</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.2544779777526855</v>
+        <v>0.01871896535158157</v>
       </c>
     </row>
     <row r="142">
@@ -1719,7 +1857,7 @@
         <v>0.6738693714141846</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.2593663334846497</v>
+        <v>0.0188329815864563</v>
       </c>
     </row>
     <row r="143">
@@ -1727,7 +1865,7 @@
         <v>0.6793969869613647</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.2642375826835632</v>
+        <v>0.01894699409604073</v>
       </c>
     </row>
     <row r="144">
@@ -1735,7 +1873,7 @@
         <v>0.6849246025085449</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.2690917253494263</v>
+        <v>0.01906100660562515</v>
       </c>
     </row>
     <row r="145">
@@ -1743,7 +1881,7 @@
         <v>0.6904522776603699</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.273928701877594</v>
+        <v>0.01917501538991928</v>
       </c>
     </row>
     <row r="146">
@@ -1751,7 +1889,7 @@
         <v>0.69597989320755</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.2787482738494873</v>
+        <v>0.01928903162479401</v>
       </c>
     </row>
     <row r="147">
@@ -1759,7 +1897,7 @@
         <v>0.7015075087547302</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.2835507392883301</v>
+        <v>0.01940305158495903</v>
       </c>
     </row>
     <row r="148">
@@ -1767,7 +1905,7 @@
         <v>0.7070351839065552</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.2883357405662537</v>
+        <v>0.01951705291867256</v>
       </c>
     </row>
     <row r="149">
@@ -1775,7 +1913,7 @@
         <v>0.7125627994537354</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.2931032776832581</v>
+        <v>0.01963106915354729</v>
       </c>
     </row>
     <row r="150">
@@ -1783,7 +1921,7 @@
         <v>0.7180904746055603</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.297853410243988</v>
+        <v>0.01974508911371231</v>
       </c>
     </row>
     <row r="151">
@@ -1791,7 +1929,7 @@
         <v>0.7236180901527405</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.3025858402252197</v>
+        <v>0.01985909044742584</v>
       </c>
     </row>
     <row r="152">
@@ -1799,7 +1937,7 @@
         <v>0.7291457056999207</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.3073008358478546</v>
+        <v>0.01997310668230057</v>
       </c>
     </row>
     <row r="153">
@@ -1807,7 +1945,7 @@
         <v>0.7346733808517456</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.311998188495636</v>
+        <v>0.02008712291717529</v>
       </c>
     </row>
     <row r="154">
@@ -1815,7 +1953,7 @@
         <v>0.7402009963989258</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.3166778087615967</v>
+        <v>0.02020113542675972</v>
       </c>
     </row>
     <row r="155">
@@ -1823,7 +1961,7 @@
         <v>0.7457286715507507</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.3213397860527039</v>
+        <v>0.02031514421105385</v>
       </c>
     </row>
     <row r="156">
@@ -1831,7 +1969,7 @@
         <v>0.7512562870979309</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.3259837627410889</v>
+        <v>0.02042915858328342</v>
       </c>
     </row>
     <row r="157">
@@ -1839,7 +1977,7 @@
         <v>0.7567839026451111</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.3306103646755219</v>
+        <v>0.0205431766808033</v>
       </c>
     </row>
     <row r="158">
@@ -1847,7 +1985,7 @@
         <v>0.762311577796936</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.3352188169956207</v>
+        <v>0.02065719291567802</v>
       </c>
     </row>
     <row r="159">
@@ -1855,7 +1993,7 @@
         <v>0.7678391933441162</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.3398095369338989</v>
+        <v>0.02077120542526245</v>
       </c>
     </row>
     <row r="160">
@@ -1863,7 +2001,7 @@
         <v>0.7733668088912964</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.3443824052810669</v>
+        <v>0.02088521607220173</v>
       </c>
     </row>
     <row r="161">
@@ -1871,7 +2009,7 @@
         <v>0.7788944840431213</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.3489372432231903</v>
+        <v>0.02099922485649586</v>
       </c>
     </row>
     <row r="162">
@@ -1879,7 +2017,7 @@
         <v>0.7844220995903015</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.3534743785858154</v>
+        <v>0.02111323736608028</v>
       </c>
     </row>
     <row r="163">
@@ -1887,7 +2025,7 @@
         <v>0.7899497747421265</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.3579933643341064</v>
+        <v>0.02122725360095501</v>
       </c>
     </row>
     <row r="164">
@@ -1895,7 +2033,7 @@
         <v>0.7954773902893066</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.3624944388866425</v>
+        <v>0.02134126797318459</v>
       </c>
     </row>
     <row r="165">
@@ -1903,7 +2041,7 @@
         <v>0.8010050058364868</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.3669775128364563</v>
+        <v>0.02145528048276901</v>
       </c>
     </row>
     <row r="166">
@@ -1911,7 +2049,7 @@
         <v>0.8065326809883118</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.3714424967765808</v>
+        <v>0.02156929485499859</v>
       </c>
     </row>
     <row r="167">
@@ -1919,7 +2057,7 @@
         <v>0.8120602965354919</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.3758896589279175</v>
+        <v>0.02168330363929272</v>
       </c>
     </row>
     <row r="168">
@@ -1927,7 +2065,7 @@
         <v>0.8175879120826721</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.3803185224533081</v>
+        <v>0.02179731801152229</v>
       </c>
     </row>
     <row r="169">
@@ -1935,7 +2073,7 @@
         <v>0.8231155872344971</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.3847296237945557</v>
+        <v>0.02191133052110672</v>
       </c>
     </row>
     <row r="170">
@@ -1943,7 +2081,7 @@
         <v>0.8286432027816772</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.3891225457191467</v>
+        <v>0.02202534303069115</v>
       </c>
     </row>
     <row r="171">
@@ -1951,7 +2089,7 @@
         <v>0.8341708779335022</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.3934973478317261</v>
+        <v>0.02213935926556587</v>
       </c>
     </row>
     <row r="172">
@@ -1959,7 +2097,7 @@
         <v>0.8396984934806824</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.3978543877601624</v>
+        <v>0.02225336804986</v>
       </c>
     </row>
     <row r="173">
@@ -1967,7 +2105,7 @@
         <v>0.8452261090278625</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.4021929502487183</v>
+        <v>0.02236738242208958</v>
       </c>
     </row>
     <row r="174">
@@ -1975,7 +2113,7 @@
         <v>0.8507537841796875</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.4065137505531311</v>
+        <v>0.02248139120638371</v>
       </c>
     </row>
     <row r="175">
@@ -1983,7 +2121,7 @@
         <v>0.8562813997268677</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.4108164012432098</v>
+        <v>0.02259540557861328</v>
       </c>
     </row>
     <row r="176">
@@ -1991,7 +2129,7 @@
         <v>0.8618090748786926</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.415101021528244</v>
+        <v>0.02270942367613316</v>
       </c>
     </row>
     <row r="177">
@@ -1999,7 +2137,7 @@
         <v>0.8673366904258728</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.4193677008152008</v>
+        <v>0.02282343246042728</v>
       </c>
     </row>
     <row r="178">
@@ -2007,7 +2145,7 @@
         <v>0.872864305973053</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.4236161708831787</v>
+        <v>0.02293744683265686</v>
       </c>
     </row>
     <row r="179">
@@ -2015,7 +2153,7 @@
         <v>0.8783919811248779</v>
       </c>
       <c r="B179" t="n">
-        <v>-0.4278466999530792</v>
+        <v>0.02305146493017673</v>
       </c>
     </row>
     <row r="180">
@@ -2023,7 +2161,7 @@
         <v>0.8839195966720581</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.432059109210968</v>
+        <v>0.02316547185182571</v>
       </c>
     </row>
     <row r="181">
@@ -2031,7 +2169,7 @@
         <v>0.8894472122192383</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.4362537264823914</v>
+        <v>0.02327948436141014</v>
       </c>
     </row>
     <row r="182">
@@ -2039,7 +2177,7 @@
         <v>0.8949748873710632</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.4404303133487701</v>
+        <v>0.02339349500834942</v>
       </c>
     </row>
     <row r="183">
@@ -2047,7 +2185,7 @@
         <v>0.9005025029182434</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.4445887506008148</v>
+        <v>0.02350750751793385</v>
       </c>
     </row>
     <row r="184">
@@ -2055,7 +2193,7 @@
         <v>0.9060301780700684</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.4487294256687164</v>
+        <v>0.02362152375280857</v>
       </c>
     </row>
     <row r="185">
@@ -2063,7 +2201,7 @@
         <v>0.9115577936172485</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.4528521299362183</v>
+        <v>0.0237355288118124</v>
       </c>
     </row>
     <row r="186">
@@ -2071,7 +2209,7 @@
         <v>0.9170854091644287</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.4569569528102875</v>
+        <v>0.02384954877197742</v>
       </c>
     </row>
     <row r="187">
@@ -2079,7 +2217,7 @@
         <v>0.9226130843162537</v>
       </c>
       <c r="B187" t="n">
-        <v>-0.4610438346862793</v>
+        <v>0.023963563144207</v>
       </c>
     </row>
     <row r="188">
@@ -2087,7 +2225,7 @@
         <v>0.9281406998634338</v>
       </c>
       <c r="B188" t="n">
-        <v>-0.4651127755641937</v>
+        <v>0.02407757379114628</v>
       </c>
     </row>
     <row r="189">
@@ -2095,7 +2233,7 @@
         <v>0.933668315410614</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.469164252281189</v>
+        <v>0.02419158816337585</v>
       </c>
     </row>
     <row r="190">
@@ -2103,7 +2241,7 @@
         <v>0.939195990562439</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.4731975793838501</v>
+        <v>0.02430559694766998</v>
       </c>
     </row>
     <row r="191">
@@ -2111,7 +2249,7 @@
         <v>0.9447236061096191</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.4772132337093353</v>
+        <v>0.02441961690783501</v>
       </c>
     </row>
     <row r="192">
@@ -2119,7 +2257,7 @@
         <v>0.9502512812614441</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.4812113046646118</v>
+        <v>0.02453362569212914</v>
       </c>
     </row>
     <row r="193">
@@ -2127,7 +2265,7 @@
         <v>0.9557788968086243</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.4851913750171661</v>
+        <v>0.02464763447642326</v>
       </c>
     </row>
     <row r="194">
@@ -2135,7 +2273,7 @@
         <v>0.9613065123558044</v>
       </c>
       <c r="B194" t="n">
-        <v>-0.4891541004180908</v>
+        <v>0.02476165629923344</v>
       </c>
     </row>
     <row r="195">
@@ -2143,7 +2281,7 @@
         <v>0.9668341875076294</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.4930989444255829</v>
+        <v>0.02487566508352757</v>
       </c>
     </row>
     <row r="196">
@@ -2151,7 +2289,7 @@
         <v>0.9723618030548096</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.4970263242721558</v>
+        <v>0.0249897800385952</v>
       </c>
     </row>
     <row r="197">
@@ -2159,7 +2297,7 @@
         <v>0.9778894186019897</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.5009361505508423</v>
+        <v>0.02510464936494827</v>
       </c>
     </row>
     <row r="198">
@@ -2167,7 +2305,7 @@
         <v>0.9834170937538147</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.5048283934593201</v>
+        <v>0.02521951496601105</v>
       </c>
     </row>
     <row r="199">
@@ -2175,7 +2313,7 @@
         <v>0.9889447093009949</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.5087031722068787</v>
+        <v>0.02533438056707382</v>
       </c>
     </row>
     <row r="200">
@@ -2183,7 +2321,7 @@
         <v>0.9944723844528198</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.5125604271888733</v>
+        <v>0.02544925361871719</v>
       </c>
     </row>
     <row r="201">
@@ -2191,7 +2329,7 @@
         <v>1</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.5164003372192383</v>
+        <v>0.02556412108242512</v>
       </c>
     </row>
     <row r="202">
@@ -2199,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.249298632144928</v>
+        <v>0.0428895615041256</v>
       </c>
     </row>
     <row r="203">
@@ -2207,7 +2345,7 @@
         <v>1.045226097106934</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.243068516254425</v>
+        <v>0.04289484769105911</v>
       </c>
     </row>
     <row r="204">
@@ -2215,7 +2353,7 @@
         <v>1.090452313423157</v>
       </c>
       <c r="B204" t="n">
-        <v>-0.236837238073349</v>
+        <v>0.04289958626031876</v>
       </c>
     </row>
     <row r="205">
@@ -2223,7 +2361,7 @@
         <v>1.13567841053009</v>
       </c>
       <c r="B205" t="n">
-        <v>-0.2306053191423416</v>
+        <v>0.04290377721190453</v>
       </c>
     </row>
     <row r="206">
@@ -2231,7 +2369,7 @@
         <v>1.180904507637024</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.2243727594614029</v>
+        <v>0.04290741309523582</v>
       </c>
     </row>
     <row r="207">
@@ -2239,7 +2377,7 @@
         <v>1.226130604743958</v>
       </c>
       <c r="B207" t="n">
-        <v>-0.218139573931694</v>
+        <v>0.04291049018502235</v>
       </c>
     </row>
     <row r="208">
@@ -2247,7 +2385,7 @@
         <v>1.271356821060181</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.211906298995018</v>
+        <v>0.04291302710771561</v>
       </c>
     </row>
     <row r="209">
@@ -2255,7 +2393,7 @@
         <v>1.316582918167114</v>
       </c>
       <c r="B209" t="n">
-        <v>-0.2056727558374405</v>
+        <v>0.04291499778628349</v>
       </c>
     </row>
     <row r="210">
@@ -2263,7 +2401,7 @@
         <v>1.361809015274048</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.1994395405054092</v>
+        <v>0.04291639849543571</v>
       </c>
     </row>
     <row r="211">
@@ -2271,7 +2409,7 @@
         <v>1.407035231590271</v>
       </c>
       <c r="B211" t="n">
-        <v>-0.1932066380977631</v>
+        <v>0.04291724041104317</v>
       </c>
     </row>
     <row r="212">
@@ -2279,7 +2417,7 @@
         <v>1.452261328697205</v>
       </c>
       <c r="B212" t="n">
-        <v>-0.1869740337133408</v>
+        <v>0.04291752725839615</v>
       </c>
     </row>
     <row r="213">
@@ -2287,7 +2425,7 @@
         <v>1.497487425804138</v>
       </c>
       <c r="B213" t="n">
-        <v>-0.1807422637939453</v>
+        <v>0.04291724041104317</v>
       </c>
     </row>
     <row r="214">
@@ -2295,7 +2433,7 @@
         <v>1.542713522911072</v>
       </c>
       <c r="B214" t="n">
-        <v>-0.1745112389326096</v>
+        <v>0.04291636869311333</v>
       </c>
     </row>
     <row r="215">
@@ -2303,7 +2441,7 @@
         <v>1.587939739227295</v>
       </c>
       <c r="B215" t="n">
-        <v>-0.1682812124490738</v>
+        <v>0.04291495308279991</v>
       </c>
     </row>
     <row r="216">
@@ -2311,7 +2449,7 @@
         <v>1.633165836334229</v>
       </c>
       <c r="B216" t="n">
-        <v>-0.162052795290947</v>
+        <v>0.04291296005249023</v>
       </c>
     </row>
     <row r="217">
@@ -2319,7 +2457,7 @@
         <v>1.678391933441162</v>
       </c>
       <c r="B217" t="n">
-        <v>-0.1558252722024918</v>
+        <v>0.0429103709757328</v>
       </c>
     </row>
     <row r="218">
@@ -2327,7 +2465,7 @@
         <v>1.723618149757385</v>
       </c>
       <c r="B218" t="n">
-        <v>-0.1495996862649918</v>
+        <v>0.0429072342813015</v>
       </c>
     </row>
     <row r="219">
@@ -2335,7 +2473,7 @@
         <v>1.768844246864319</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.1433759033679962</v>
+        <v>0.04290349408984184</v>
       </c>
     </row>
     <row r="220">
@@ -2343,7 +2481,7 @@
         <v>1.814070343971252</v>
       </c>
       <c r="B220" t="n">
-        <v>-0.1371539384126663</v>
+        <v>0.04289922118186951</v>
       </c>
     </row>
     <row r="221">
@@ -2351,7 +2489,7 @@
         <v>1.859296441078186</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.1309342980384827</v>
+        <v>0.04289433360099792</v>
       </c>
     </row>
     <row r="222">
@@ -2359,7 +2497,7 @@
         <v>1.904522657394409</v>
       </c>
       <c r="B222" t="n">
-        <v>-0.1247168630361557</v>
+        <v>0.04288887605071068</v>
       </c>
     </row>
     <row r="223">
@@ -2367,7 +2505,7 @@
         <v>1.949748754501343</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.1185021251440048</v>
+        <v>0.04288284108042717</v>
       </c>
     </row>
     <row r="224">
@@ -2375,7 +2513,7 @@
         <v>1.994974851608276</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.1122900545597076</v>
+        <v>0.0428762398660183</v>
       </c>
     </row>
     <row r="225">
@@ -2383,7 +2521,7 @@
         <v>2.04020094871521</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.1060807704925537</v>
+        <v>0.04286904260516167</v>
       </c>
     </row>
     <row r="226">
@@ -2391,7 +2529,7 @@
         <v>2.085427045822144</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.09987471997737885</v>
+        <v>0.04286128282546997</v>
       </c>
     </row>
     <row r="227">
@@ -2399,7 +2537,7 @@
         <v>2.130653381347656</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.09367173910140991</v>
+        <v>0.04285292699933052</v>
       </c>
     </row>
     <row r="228">
@@ -2407,7 +2545,7 @@
         <v>2.17587947845459</v>
       </c>
       <c r="B228" t="n">
-        <v>-0.08747237920761108</v>
+        <v>0.04284400120377541</v>
       </c>
     </row>
     <row r="229">
@@ -2415,7 +2553,7 @@
         <v>2.221105575561523</v>
       </c>
       <c r="B229" t="n">
-        <v>-0.08127664029598236</v>
+        <v>0.04283448308706284</v>
       </c>
     </row>
     <row r="230">
@@ -2423,7 +2561,7 @@
         <v>2.266331672668457</v>
       </c>
       <c r="B230" t="n">
-        <v>-0.07508456707000732</v>
+        <v>0.0428243987262249</v>
       </c>
     </row>
     <row r="231">
@@ -2431,7 +2569,7 @@
         <v>2.311557769775391</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.06889663636684418</v>
+        <v>0.04281372204422951</v>
       </c>
     </row>
     <row r="232">
@@ -2439,7 +2577,7 @@
         <v>2.356783866882324</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.06271266937255859</v>
+        <v>0.04280247911810875</v>
       </c>
     </row>
     <row r="233">
@@ -2447,7 +2585,7 @@
         <v>2.402009963989258</v>
       </c>
       <c r="B233" t="n">
-        <v>-0.05653322860598564</v>
+        <v>0.04279064759612083</v>
       </c>
     </row>
     <row r="234">
@@ -2455,7 +2593,7 @@
         <v>2.447236299514771</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.05035830661654472</v>
+        <v>0.04277826845645905</v>
       </c>
     </row>
     <row r="235">
@@ -2463,7 +2601,7 @@
         <v>2.492462396621704</v>
       </c>
       <c r="B235" t="n">
-        <v>-0.04418789967894554</v>
+        <v>0.04276528209447861</v>
       </c>
     </row>
     <row r="236">
@@ -2471,7 +2609,7 @@
         <v>2.537688493728638</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.03802256658673286</v>
+        <v>0.0427517294883728</v>
       </c>
     </row>
     <row r="237">
@@ -2479,7 +2617,7 @@
         <v>2.582914590835571</v>
       </c>
       <c r="B237" t="n">
-        <v>-0.03186212107539177</v>
+        <v>0.04273760318756104</v>
       </c>
     </row>
     <row r="238">
@@ -2487,7 +2625,7 @@
         <v>2.628140687942505</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.02570701017975807</v>
+        <v>0.0427229106426239</v>
       </c>
     </row>
     <row r="239">
@@ -2495,7 +2633,7 @@
         <v>2.673366785049438</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.01955734565854073</v>
+        <v>0.04270761087536812</v>
       </c>
     </row>
     <row r="240">
@@ -2503,7 +2641,7 @@
         <v>2.718592882156372</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.01341302320361137</v>
+        <v>0.04269176721572876</v>
       </c>
     </row>
     <row r="241">
@@ -2511,7 +2649,7 @@
         <v>2.763818979263306</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.007274653762578964</v>
+        <v>0.04267538711428642</v>
       </c>
     </row>
     <row r="242">
@@ -2519,7 +2657,7 @@
         <v>2.809045314788818</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.001142013818025589</v>
+        <v>0.04265839979052544</v>
       </c>
     </row>
     <row r="243">
@@ -2527,7 +2665,7 @@
         <v>2.854271411895752</v>
       </c>
       <c r="B243" t="n">
-        <v>0.00498436763882637</v>
+        <v>0.04264083504676819</v>
       </c>
     </row>
     <row r="244">
@@ -2535,7 +2673,7 @@
         <v>2.899497509002686</v>
       </c>
       <c r="B244" t="n">
-        <v>0.01110464707016945</v>
+        <v>0.04262273013591766</v>
       </c>
     </row>
     <row r="245">
@@ -2543,7 +2681,7 @@
         <v>2.944723606109619</v>
       </c>
       <c r="B245" t="n">
-        <v>0.01721841469407082</v>
+        <v>0.04260407760739326</v>
       </c>
     </row>
     <row r="246">
@@ -2551,7 +2689,7 @@
         <v>2.989949703216553</v>
       </c>
       <c r="B246" t="n">
-        <v>0.02332567051053047</v>
+        <v>0.04258482530713081</v>
       </c>
     </row>
     <row r="247">
@@ -2559,7 +2697,7 @@
         <v>3.035175800323486</v>
       </c>
       <c r="B247" t="n">
-        <v>0.02942608669400215</v>
+        <v>0.04256505146622658</v>
       </c>
     </row>
     <row r="248">
@@ -2567,7 +2705,7 @@
         <v>3.08040189743042</v>
       </c>
       <c r="B248" t="n">
-        <v>0.03551970049738884</v>
+        <v>0.04254468902945518</v>
       </c>
     </row>
     <row r="249">
@@ -2575,7 +2713,7 @@
         <v>3.125628232955933</v>
       </c>
       <c r="B249" t="n">
-        <v>0.04160606861114502</v>
+        <v>0.04252377897500992</v>
       </c>
     </row>
     <row r="250">
@@ -2583,7 +2721,7 @@
         <v>3.170854330062866</v>
       </c>
       <c r="B250" t="n">
-        <v>0.04768544062972069</v>
+        <v>0.04250233247876167</v>
       </c>
     </row>
     <row r="251">
@@ -2591,7 +2729,7 @@
         <v>3.2160804271698</v>
       </c>
       <c r="B251" t="n">
-        <v>0.05375709757208824</v>
+        <v>0.04248037561774254</v>
       </c>
     </row>
     <row r="252">
@@ -2599,7 +2737,7 @@
         <v>3.261306524276733</v>
       </c>
       <c r="B252" t="n">
-        <v>0.05982125177979469</v>
+        <v>0.04245780408382416</v>
       </c>
     </row>
     <row r="253">
@@ -2607,7 +2745,7 @@
         <v>3.306532621383667</v>
       </c>
       <c r="B253" t="n">
-        <v>0.06587782502174377</v>
+        <v>0.04243473336100578</v>
       </c>
     </row>
     <row r="254">
@@ -2615,7 +2753,7 @@
         <v>3.351758718490601</v>
       </c>
       <c r="B254" t="n">
-        <v>0.07192638516426086</v>
+        <v>0.04241111129522324</v>
       </c>
     </row>
     <row r="255">
@@ -2623,7 +2761,7 @@
         <v>3.396984815597534</v>
       </c>
       <c r="B255" t="n">
-        <v>0.07796703279018402</v>
+        <v>0.04238693043589592</v>
       </c>
     </row>
     <row r="256">
@@ -2631,7 +2769,7 @@
         <v>3.442211151123047</v>
       </c>
       <c r="B256" t="n">
-        <v>0.08399936556816101</v>
+        <v>0.04236224666237831</v>
       </c>
     </row>
     <row r="257">
@@ -2639,7 +2777,7 @@
         <v>3.48743724822998</v>
       </c>
       <c r="B257" t="n">
-        <v>0.09002326428890228</v>
+        <v>0.04233703389763832</v>
       </c>
     </row>
     <row r="258">
@@ -2647,7 +2785,7 @@
         <v>3.532663345336914</v>
       </c>
       <c r="B258" t="n">
-        <v>0.09603884816169739</v>
+        <v>0.04231129214167595</v>
       </c>
     </row>
     <row r="259">
@@ -2655,7 +2793,7 @@
         <v>3.577889442443848</v>
       </c>
       <c r="B259" t="n">
-        <v>0.1020455658435822</v>
+        <v>0.04228498414158821</v>
       </c>
     </row>
     <row r="260">
@@ -2663,7 +2801,7 @@
         <v>3.623115539550781</v>
       </c>
       <c r="B260" t="n">
-        <v>0.1080436557531357</v>
+        <v>0.04225821048021317</v>
       </c>
     </row>
     <row r="261">
@@ -2671,7 +2809,7 @@
         <v>3.668341636657715</v>
       </c>
       <c r="B261" t="n">
-        <v>0.1140326261520386</v>
+        <v>0.04223088920116425</v>
       </c>
     </row>
     <row r="262">
@@ -2679,7 +2817,7 @@
         <v>3.713567733764648</v>
       </c>
       <c r="B262" t="n">
-        <v>0.1200124621391296</v>
+        <v>0.04220310598611832</v>
       </c>
     </row>
     <row r="263">
@@ -2687,7 +2825,7 @@
         <v>3.758794069290161</v>
       </c>
       <c r="B263" t="n">
-        <v>0.1259831488132477</v>
+        <v>0.04217477515339851</v>
       </c>
     </row>
     <row r="264">
@@ -2695,7 +2833,7 @@
         <v>3.804020166397095</v>
       </c>
       <c r="B264" t="n">
-        <v>0.1319442540407181</v>
+        <v>0.04214592650532722</v>
       </c>
     </row>
     <row r="265">
@@ -2703,7 +2841,7 @@
         <v>3.849246263504028</v>
       </c>
       <c r="B265" t="n">
-        <v>0.1378960460424423</v>
+        <v>0.04211656749248505</v>
       </c>
     </row>
     <row r="266">
@@ -2711,7 +2849,7 @@
         <v>3.894472360610962</v>
       </c>
       <c r="B266" t="n">
-        <v>0.1438378691673279</v>
+        <v>0.04208672791719437</v>
       </c>
     </row>
     <row r="267">
@@ -2719,7 +2857,7 @@
         <v>3.939698457717896</v>
       </c>
       <c r="B267" t="n">
-        <v>0.1497699320316315</v>
+        <v>0.0420563817024231</v>
       </c>
     </row>
     <row r="268">
@@ -2727,7 +2865,7 @@
         <v>3.984924554824829</v>
       </c>
       <c r="B268" t="n">
-        <v>0.15569207072258</v>
+        <v>0.04202554747462273</v>
       </c>
     </row>
     <row r="269">
@@ -2735,7 +2873,7 @@
         <v>4.030150890350342</v>
       </c>
       <c r="B269" t="n">
-        <v>0.161604106426239</v>
+        <v>0.04199426248669624</v>
       </c>
     </row>
     <row r="270">
@@ -2743,7 +2881,7 @@
         <v>4.075376987457275</v>
       </c>
       <c r="B270" t="n">
-        <v>0.1675057709217072</v>
+        <v>0.04196248948574066</v>
       </c>
     </row>
     <row r="271">
@@ -2751,7 +2889,7 @@
         <v>4.120603084564209</v>
       </c>
       <c r="B271" t="n">
-        <v>0.1733970642089844</v>
+        <v>0.0419301725924015</v>
       </c>
     </row>
     <row r="272">
@@ -2759,7 +2897,7 @@
         <v>4.165829181671143</v>
       </c>
       <c r="B272" t="n">
-        <v>0.1792775392532349</v>
+        <v>0.04189746454358101</v>
       </c>
     </row>
     <row r="273">
@@ -2767,7 +2905,7 @@
         <v>4.211055278778076</v>
       </c>
       <c r="B273" t="n">
-        <v>0.1851478219032288</v>
+        <v>0.04186424240469933</v>
       </c>
     </row>
     <row r="274">
@@ -2775,7 +2913,7 @@
         <v>4.25628137588501</v>
       </c>
       <c r="B274" t="n">
-        <v>0.1910068094730377</v>
+        <v>0.04183061048388481</v>
       </c>
     </row>
     <row r="275">
@@ -2783,7 +2921,7 @@
         <v>4.301507472991943</v>
       </c>
       <c r="B275" t="n">
-        <v>0.1968552023172379</v>
+        <v>0.0417964830994606</v>
       </c>
     </row>
     <row r="276">
@@ -2791,7 +2929,7 @@
         <v>4.346733570098877</v>
       </c>
       <c r="B276" t="n">
-        <v>0.2026923000812531</v>
+        <v>0.04176183789968491</v>
       </c>
     </row>
     <row r="277">
@@ -2799,7 +2937,7 @@
         <v>4.391959667205811</v>
       </c>
       <c r="B277" t="n">
-        <v>0.20851831138134</v>
+        <v>0.04172685369849205</v>
       </c>
     </row>
     <row r="278">
@@ -2807,7 +2945,7 @@
         <v>4.437185764312744</v>
       </c>
       <c r="B278" t="n">
-        <v>0.2143328636884689</v>
+        <v>0.04169135913252831</v>
       </c>
     </row>
     <row r="279">
@@ -2815,7 +2953,7 @@
         <v>4.482411861419678</v>
       </c>
       <c r="B279" t="n">
-        <v>0.2201361954212189</v>
+        <v>0.04165542870759964</v>
       </c>
     </row>
     <row r="280">
@@ -2823,7 +2961,7 @@
         <v>4.527637958526611</v>
       </c>
       <c r="B280" t="n">
-        <v>0.2259276211261749</v>
+        <v>0.04161908477544785</v>
       </c>
     </row>
     <row r="281">
@@ -2831,7 +2969,7 @@
         <v>4.572864532470703</v>
       </c>
       <c r="B281" t="n">
-        <v>0.2317075729370117</v>
+        <v>0.04158230125904083</v>
       </c>
     </row>
     <row r="282">
@@ -2839,7 +2977,7 @@
         <v>4.618090629577637</v>
       </c>
       <c r="B282" t="n">
-        <v>0.2374755144119263</v>
+        <v>0.04154506325721741</v>
       </c>
     </row>
     <row r="283">
@@ -2847,7 +2985,7 @@
         <v>4.66331672668457</v>
       </c>
       <c r="B283" t="n">
-        <v>0.2432316094636917</v>
+        <v>0.04150743037462234</v>
       </c>
     </row>
     <row r="284">
@@ -2855,7 +2993,7 @@
         <v>4.708542823791504</v>
       </c>
       <c r="B284" t="n">
-        <v>0.2489754855632782</v>
+        <v>0.04146938025951385</v>
       </c>
     </row>
     <row r="285">
@@ -2863,7 +3001,7 @@
         <v>4.753768920898438</v>
       </c>
       <c r="B285" t="n">
-        <v>0.2547071278095245</v>
+        <v>0.04143090173602104</v>
       </c>
     </row>
     <row r="286">
@@ -2871,7 +3009,7 @@
         <v>4.798995018005371</v>
       </c>
       <c r="B286" t="n">
-        <v>0.2604266405105591</v>
+        <v>0.04139203578233719</v>
       </c>
     </row>
     <row r="287">
@@ -2879,7 +3017,7 @@
         <v>4.844221115112305</v>
       </c>
       <c r="B287" t="n">
-        <v>0.2661335468292236</v>
+        <v>0.04135278612375259</v>
       </c>
     </row>
     <row r="288">
@@ -2887,7 +3025,7 @@
         <v>4.889447212219238</v>
       </c>
       <c r="B288" t="n">
-        <v>0.2718280255794525</v>
+        <v>0.04131307452917099</v>
       </c>
     </row>
     <row r="289">
@@ -2895,7 +3033,7 @@
         <v>4.934673309326172</v>
       </c>
       <c r="B289" t="n">
-        <v>0.2775098383426666</v>
+        <v>0.04127303510904312</v>
       </c>
     </row>
     <row r="290">
@@ -2903,7 +3041,7 @@
         <v>4.979899406433105</v>
       </c>
       <c r="B290" t="n">
-        <v>0.2831787467002869</v>
+        <v>0.04123258963227272</v>
       </c>
     </row>
     <row r="291">
@@ -2911,7 +3049,7 @@
         <v>5.025125503540039</v>
       </c>
       <c r="B291" t="n">
-        <v>0.2888349592685699</v>
+        <v>0.04119175300002098</v>
       </c>
     </row>
     <row r="292">
@@ -2919,7 +3057,7 @@
         <v>5.070351600646973</v>
       </c>
       <c r="B292" t="n">
-        <v>0.2944780588150024</v>
+        <v>0.04115051776170731</v>
       </c>
     </row>
     <row r="293">
@@ -2927,7 +3065,7 @@
         <v>5.115577697753906</v>
       </c>
       <c r="B293" t="n">
-        <v>0.3001081347465515</v>
+        <v>0.04110896959900856</v>
       </c>
     </row>
     <row r="294">
@@ -2935,7 +3073,7 @@
         <v>5.16080379486084</v>
       </c>
       <c r="B294" t="n">
-        <v>0.3057248592376709</v>
+        <v>0.04106700420379639</v>
       </c>
     </row>
     <row r="295">
@@ -2943,7 +3081,7 @@
         <v>5.206030368804932</v>
       </c>
       <c r="B295" t="n">
-        <v>0.3113283216953278</v>
+        <v>0.04102472215890884</v>
       </c>
     </row>
     <row r="296">
@@ -2951,7 +3089,7 @@
         <v>5.251256465911865</v>
       </c>
       <c r="B296" t="n">
-        <v>0.316918671131134</v>
+        <v>0.04098205268383026</v>
       </c>
     </row>
     <row r="297">
@@ -2959,7 +3097,7 @@
         <v>5.296482563018799</v>
       </c>
       <c r="B297" t="n">
-        <v>0.3224949836730957</v>
+        <v>0.04093900322914124</v>
       </c>
     </row>
     <row r="298">
@@ -2967,7 +3105,7 @@
         <v>5.341708660125732</v>
       </c>
       <c r="B298" t="n">
-        <v>0.3280580937862396</v>
+        <v>0.04089567437767982</v>
       </c>
     </row>
     <row r="299">
@@ -2975,7 +3113,7 @@
         <v>5.386934757232666</v>
       </c>
       <c r="B299" t="n">
-        <v>0.3336072862148285</v>
+        <v>0.04085199162364006</v>
       </c>
     </row>
     <row r="300">
@@ -2983,7 +3121,7 @@
         <v>5.4321608543396</v>
       </c>
       <c r="B300" t="n">
-        <v>0.3391428589820862</v>
+        <v>0.04080795124173164</v>
       </c>
     </row>
     <row r="301">
@@ -2991,7 +3129,7 @@
         <v>5.477386951446533</v>
       </c>
       <c r="B301" t="n">
-        <v>0.3446643054485321</v>
+        <v>0.04076362401247025</v>
       </c>
     </row>
     <row r="302">
@@ -2999,7 +3137,7 @@
         <v>5.522613048553467</v>
       </c>
       <c r="B302" t="n">
-        <v>0.3501719534397125</v>
+        <v>0.04071891307830811</v>
       </c>
     </row>
     <row r="303">
@@ -3007,7 +3145,7 @@
         <v>5.5678391456604</v>
       </c>
       <c r="B303" t="n">
-        <v>0.355665385723114</v>
+        <v>0.0406738854944706</v>
       </c>
     </row>
     <row r="304">
@@ -3015,7 +3153,7 @@
         <v>5.613065242767334</v>
       </c>
       <c r="B304" t="n">
-        <v>0.3611447215080261</v>
+        <v>0.040628582239151</v>
       </c>
     </row>
     <row r="305">
@@ -3023,7 +3161,7 @@
         <v>5.658291339874268</v>
       </c>
       <c r="B305" t="n">
-        <v>0.3666096031665802</v>
+        <v>0.04058293998241425</v>
       </c>
     </row>
     <row r="306">
@@ -3031,7 +3169,7 @@
         <v>5.703517436981201</v>
       </c>
       <c r="B306" t="n">
-        <v>0.3720605671405792</v>
+        <v>0.04053699970245361</v>
       </c>
     </row>
     <row r="307">
@@ -3039,7 +3177,7 @@
         <v>5.748743534088135</v>
       </c>
       <c r="B307" t="n">
-        <v>0.3774966299533844</v>
+        <v>0.04049081355333328</v>
       </c>
     </row>
     <row r="308">
@@ -3047,7 +3185,7 @@
         <v>5.793969631195068</v>
       </c>
       <c r="B308" t="n">
-        <v>0.382918506860733</v>
+        <v>0.0404442772269249</v>
       </c>
     </row>
     <row r="309">
@@ -3055,7 +3193,7 @@
         <v>5.83919620513916</v>
       </c>
       <c r="B309" t="n">
-        <v>0.3883256912231445</v>
+        <v>0.04039749503135681</v>
       </c>
     </row>
     <row r="310">
@@ -3063,7 +3201,7 @@
         <v>5.884422302246094</v>
       </c>
       <c r="B310" t="n">
-        <v>0.3937180042266846</v>
+        <v>0.04035042598843575</v>
       </c>
     </row>
     <row r="311">
@@ -3071,7 +3209,7 @@
         <v>5.929648399353027</v>
       </c>
       <c r="B311" t="n">
-        <v>0.399095743894577</v>
+        <v>0.04030304402112961</v>
       </c>
     </row>
     <row r="312">
@@ -3079,7 +3217,7 @@
         <v>5.974874496459961</v>
       </c>
       <c r="B312" t="n">
-        <v>0.4044585824012756</v>
+        <v>0.04025540873408318</v>
       </c>
     </row>
     <row r="313">
@@ -3087,7 +3225,7 @@
         <v>6.020100593566895</v>
       </c>
       <c r="B313" t="n">
-        <v>0.4098063707351685</v>
+        <v>0.04020746797323227</v>
       </c>
     </row>
     <row r="314">
@@ -3095,7 +3233,7 @@
         <v>6.065326690673828</v>
       </c>
       <c r="B314" t="n">
-        <v>0.4151394367218018</v>
+        <v>0.04015934839844704</v>
       </c>
     </row>
     <row r="315">
@@ -3103,7 +3241,7 @@
         <v>6.110552787780762</v>
       </c>
       <c r="B315" t="n">
-        <v>0.4204573929309845</v>
+        <v>0.04011090844869614</v>
       </c>
     </row>
     <row r="316">
@@ -3111,7 +3249,7 @@
         <v>6.155778884887695</v>
       </c>
       <c r="B316" t="n">
-        <v>0.42576003074646</v>
+        <v>0.04006224870681763</v>
       </c>
     </row>
     <row r="317">
@@ -3119,7 +3257,7 @@
         <v>6.201004981994629</v>
       </c>
       <c r="B317" t="n">
-        <v>0.4310473799705505</v>
+        <v>0.04001329466700554</v>
       </c>
     </row>
     <row r="318">
@@ -3127,7 +3265,7 @@
         <v>6.246231079101562</v>
       </c>
       <c r="B318" t="n">
-        <v>0.4363196492195129</v>
+        <v>0.03996414691209793</v>
       </c>
     </row>
     <row r="319">
@@ -3135,7 +3273,7 @@
         <v>6.291457176208496</v>
       </c>
       <c r="B319" t="n">
-        <v>0.4415766596794128</v>
+        <v>0.03991472721099854</v>
       </c>
     </row>
     <row r="320">
@@ -3143,7 +3281,7 @@
         <v>6.33668327331543</v>
       </c>
       <c r="B320" t="n">
-        <v>0.4468179643154144</v>
+        <v>0.03986512124538422</v>
       </c>
     </row>
     <row r="321">
@@ -3151,7 +3289,7 @@
         <v>6.381909370422363</v>
       </c>
       <c r="B321" t="n">
-        <v>0.4520438313484192</v>
+        <v>0.03981523960828781</v>
       </c>
     </row>
     <row r="322">
@@ -3159,7 +3297,7 @@
         <v>6.427135467529297</v>
       </c>
       <c r="B322" t="n">
-        <v>0.4572543501853943</v>
+        <v>0.03976517170667648</v>
       </c>
     </row>
     <row r="323">
@@ -3167,7 +3305,7 @@
         <v>6.472362041473389</v>
       </c>
       <c r="B323" t="n">
-        <v>0.4624492526054382</v>
+        <v>0.03971489518880844</v>
       </c>
     </row>
     <row r="324">
@@ -3175,7 +3313,7 @@
         <v>6.517588138580322</v>
       </c>
       <c r="B324" t="n">
-        <v>0.4676282405853271</v>
+        <v>0.03966440260410309</v>
       </c>
     </row>
     <row r="325">
@@ -3183,7 +3321,7 @@
         <v>6.562814235687256</v>
       </c>
       <c r="B325" t="n">
-        <v>0.4727916717529297</v>
+        <v>0.03961366787552834</v>
       </c>
     </row>
     <row r="326">
@@ -3191,7 +3329,7 @@
         <v>6.608040332794189</v>
       </c>
       <c r="B326" t="n">
-        <v>0.4779393672943115</v>
+        <v>0.03956274315714836</v>
       </c>
     </row>
     <row r="327">
@@ -3199,7 +3337,7 @@
         <v>6.653266429901123</v>
       </c>
       <c r="B327" t="n">
-        <v>0.4830711185932159</v>
+        <v>0.03951164707541466</v>
       </c>
     </row>
     <row r="328">
@@ -3207,7 +3345,7 @@
         <v>6.698492527008057</v>
       </c>
       <c r="B328" t="n">
-        <v>0.4881868660449982</v>
+        <v>0.03946034610271454</v>
       </c>
     </row>
     <row r="329">
@@ -3215,7 +3353,7 @@
         <v>6.74371862411499</v>
       </c>
       <c r="B329" t="n">
-        <v>0.4932869970798492</v>
+        <v>0.039408840239048</v>
       </c>
     </row>
     <row r="330">
@@ -3223,7 +3361,7 @@
         <v>6.788944721221924</v>
       </c>
       <c r="B330" t="n">
-        <v>0.4983706474304199</v>
+        <v>0.03935715556144714</v>
       </c>
     </row>
     <row r="331">
@@ -3231,7 +3369,7 @@
         <v>6.834170818328857</v>
       </c>
       <c r="B331" t="n">
-        <v>0.5034385323524475</v>
+        <v>0.03930528089404106</v>
       </c>
     </row>
     <row r="332">
@@ -3239,7 +3377,7 @@
         <v>6.879396915435791</v>
       </c>
       <c r="B332" t="n">
-        <v>0.5084902048110962</v>
+        <v>0.03925326466560364</v>
       </c>
     </row>
     <row r="333">
@@ -3247,7 +3385,7 @@
         <v>6.924623012542725</v>
       </c>
       <c r="B333" t="n">
-        <v>0.5135259628295898</v>
+        <v>0.03920108079910278</v>
       </c>
     </row>
     <row r="334">
@@ -3255,7 +3393,7 @@
         <v>6.969849109649658</v>
       </c>
       <c r="B334" t="n">
-        <v>0.5185453295707703</v>
+        <v>0.03914864361286163</v>
       </c>
     </row>
     <row r="335">
@@ -3263,7 +3401,7 @@
         <v>7.015075206756592</v>
       </c>
       <c r="B335" t="n">
-        <v>0.5235485434532166</v>
+        <v>0.03909614682197571</v>
       </c>
     </row>
     <row r="336">
@@ -3271,7 +3409,7 @@
         <v>7.060301303863525</v>
       </c>
       <c r="B336" t="n">
-        <v>0.5285353064537048</v>
+        <v>0.03904346749186516</v>
       </c>
     </row>
     <row r="337">
@@ -3279,7 +3417,7 @@
         <v>7.105527400970459</v>
       </c>
       <c r="B337" t="n">
-        <v>0.5335058569908142</v>
+        <v>0.03899063169956207</v>
       </c>
     </row>
     <row r="338">
@@ -3287,7 +3425,7 @@
         <v>7.150753974914551</v>
       </c>
       <c r="B338" t="n">
-        <v>0.5384598970413208</v>
+        <v>0.03893765807151794</v>
       </c>
     </row>
     <row r="339">
@@ -3295,7 +3433,7 @@
         <v>7.195980072021484</v>
       </c>
       <c r="B339" t="n">
-        <v>0.5433977246284485</v>
+        <v>0.0388844832777977</v>
       </c>
     </row>
     <row r="340">
@@ -3303,7 +3441,7 @@
         <v>7.241206169128418</v>
       </c>
       <c r="B340" t="n">
-        <v>0.5483191013336182</v>
+        <v>0.0388311967253685</v>
       </c>
     </row>
     <row r="341">
@@ -3311,7 +3449,7 @@
         <v>7.286432266235352</v>
       </c>
       <c r="B341" t="n">
-        <v>0.5532236099243164</v>
+        <v>0.03877776116132736</v>
       </c>
     </row>
     <row r="342">
@@ -3319,7 +3457,7 @@
         <v>7.331658363342285</v>
       </c>
       <c r="B342" t="n">
-        <v>0.5581119060516357</v>
+        <v>0.03872423991560936</v>
       </c>
     </row>
     <row r="343">
@@ -3327,7 +3465,7 @@
         <v>7.376884460449219</v>
       </c>
       <c r="B343" t="n">
-        <v>0.5629836916923523</v>
+        <v>0.03867058828473091</v>
       </c>
     </row>
     <row r="344">
@@ -3335,7 +3473,7 @@
         <v>7.422110557556152</v>
       </c>
       <c r="B344" t="n">
-        <v>0.5678387880325317</v>
+        <v>0.03861680626869202</v>
       </c>
     </row>
     <row r="345">
@@ -3343,7 +3481,7 @@
         <v>7.467336654663086</v>
       </c>
       <c r="B345" t="n">
-        <v>0.5726771354675293</v>
+        <v>0.03856286406517029</v>
       </c>
     </row>
     <row r="346">
@@ -3351,7 +3489,7 @@
         <v>7.51256275177002</v>
       </c>
       <c r="B346" t="n">
-        <v>0.5774989128112793</v>
+        <v>0.0385088324546814</v>
       </c>
     </row>
     <row r="347">
@@ -3359,7 +3497,7 @@
         <v>7.557788848876953</v>
       </c>
       <c r="B347" t="n">
-        <v>0.582304060459137</v>
+        <v>0.03845463693141937</v>
       </c>
     </row>
     <row r="348">
@@ -3367,7 +3505,7 @@
         <v>7.603014945983887</v>
       </c>
       <c r="B348" t="n">
-        <v>0.5870925188064575</v>
+        <v>0.03840038552880287</v>
       </c>
     </row>
     <row r="349">
@@ -3375,7 +3513,7 @@
         <v>7.64824104309082</v>
       </c>
       <c r="B349" t="n">
-        <v>0.5918640494346619</v>
+        <v>0.0383460558950901</v>
       </c>
     </row>
     <row r="350">
@@ -3383,7 +3521,7 @@
         <v>7.693467140197754</v>
       </c>
       <c r="B350" t="n">
-        <v>0.5966187119483948</v>
+        <v>0.03829161822795868</v>
       </c>
     </row>
     <row r="351">
@@ -3391,7 +3529,7 @@
         <v>7.738693237304688</v>
       </c>
       <c r="B351" t="n">
-        <v>0.6013568043708801</v>
+        <v>0.03823700919747353</v>
       </c>
     </row>
     <row r="352">
@@ -3399,7 +3537,7 @@
         <v>7.783919811248779</v>
       </c>
       <c r="B352" t="n">
-        <v>0.6060783267021179</v>
+        <v>0.0381823368370533</v>
       </c>
     </row>
     <row r="353">
@@ -3407,7 +3545,7 @@
         <v>7.829145908355713</v>
       </c>
       <c r="B353" t="n">
-        <v>0.6107825040817261</v>
+        <v>0.03812763094902039</v>
       </c>
     </row>
     <row r="354">
@@ -3415,7 +3553,7 @@
         <v>7.874372005462646</v>
       </c>
       <c r="B354" t="n">
-        <v>0.6154702305793762</v>
+        <v>0.03807277977466583</v>
       </c>
     </row>
     <row r="355">
@@ -3423,7 +3561,7 @@
         <v>7.91959810256958</v>
       </c>
       <c r="B355" t="n">
-        <v>0.6201406121253967</v>
+        <v>0.03801783174276352</v>
       </c>
     </row>
     <row r="356">
@@ -3431,7 +3569,7 @@
         <v>7.964824199676514</v>
       </c>
       <c r="B356" t="n">
-        <v>0.6247943043708801</v>
+        <v>0.03796284273266792</v>
       </c>
     </row>
     <row r="357">
@@ -3439,7 +3577,7 @@
         <v>8.010049819946289</v>
       </c>
       <c r="B357" t="n">
-        <v>0.6294310688972473</v>
+        <v>0.03790774941444397</v>
       </c>
     </row>
     <row r="358">
@@ -3447,7 +3585,7 @@
         <v>8.055275917053223</v>
       </c>
       <c r="B358" t="n">
-        <v>0.6340507864952087</v>
+        <v>0.03785257413983345</v>
       </c>
     </row>
     <row r="359">
@@ -3455,7 +3593,7 @@
         <v>8.100502967834473</v>
       </c>
       <c r="B359" t="n">
-        <v>0.6386539340019226</v>
+        <v>0.03779733926057816</v>
       </c>
     </row>
     <row r="360">
@@ -3463,7 +3601,7 @@
         <v>8.145729064941406</v>
       </c>
       <c r="B360" t="n">
-        <v>0.6432398557662964</v>
+        <v>0.03774213790893555</v>
       </c>
     </row>
     <row r="361">
@@ -3471,7 +3609,7 @@
         <v>8.19095516204834</v>
       </c>
       <c r="B361" t="n">
-        <v>0.6478089094161987</v>
+        <v>0.03768676891922951</v>
       </c>
     </row>
     <row r="362">
@@ -3479,7 +3617,7 @@
         <v>8.236181259155273</v>
       </c>
       <c r="B362" t="n">
-        <v>0.6523608565330505</v>
+        <v>0.03763128817081451</v>
       </c>
     </row>
     <row r="363">
@@ -3487,7 +3625,7 @@
         <v>8.281407356262207</v>
       </c>
       <c r="B363" t="n">
-        <v>0.6568953394889832</v>
+        <v>0.03757581859827042</v>
       </c>
     </row>
     <row r="364">
@@ -3495,7 +3633,7 @@
         <v>8.326633453369141</v>
       </c>
       <c r="B364" t="n">
-        <v>0.6614134907722473</v>
+        <v>0.03752027451992035</v>
       </c>
     </row>
     <row r="365">
@@ -3503,7 +3641,7 @@
         <v>8.371859550476074</v>
       </c>
       <c r="B365" t="n">
-        <v>0.6659145951271057</v>
+        <v>0.03746466338634491</v>
       </c>
     </row>
     <row r="366">
@@ -3511,7 +3649,7 @@
         <v>8.417085647583008</v>
       </c>
       <c r="B366" t="n">
-        <v>0.6703982949256897</v>
+        <v>0.03740905225276947</v>
       </c>
     </row>
     <row r="367">
@@ -3519,7 +3657,7 @@
         <v>8.462311744689941</v>
       </c>
       <c r="B367" t="n">
-        <v>0.6748650670051575</v>
+        <v>0.03735336288809776</v>
       </c>
     </row>
     <row r="368">
@@ -3527,7 +3665,7 @@
         <v>8.507537841796875</v>
       </c>
       <c r="B368" t="n">
-        <v>0.6793147921562195</v>
+        <v>0.03729758784174919</v>
       </c>
     </row>
     <row r="369">
@@ -3535,7 +3673,7 @@
         <v>8.552763938903809</v>
       </c>
       <c r="B369" t="n">
-        <v>0.6837475299835205</v>
+        <v>0.03724179044365883</v>
       </c>
     </row>
     <row r="370">
@@ -3543,7 +3681,7 @@
         <v>8.597990036010742</v>
       </c>
       <c r="B370" t="n">
-        <v>0.688163161277771</v>
+        <v>0.03718592971563339</v>
       </c>
     </row>
     <row r="371">
@@ -3551,7 +3689,7 @@
         <v>8.643216133117676</v>
       </c>
       <c r="B371" t="n">
-        <v>0.6925615668296814</v>
+        <v>0.03713008761405945</v>
       </c>
     </row>
     <row r="372">
@@ -3559,7 +3697,7 @@
         <v>8.688442230224609</v>
       </c>
       <c r="B372" t="n">
-        <v>0.6969432830810547</v>
+        <v>0.03707417473196983</v>
       </c>
     </row>
     <row r="373">
@@ -3567,7 +3705,7 @@
         <v>8.733668327331543</v>
       </c>
       <c r="B373" t="n">
-        <v>0.7013078927993774</v>
+        <v>0.03701823204755783</v>
       </c>
     </row>
     <row r="374">
@@ -3575,7 +3713,7 @@
         <v>8.778894424438477</v>
       </c>
       <c r="B374" t="n">
-        <v>0.705655038356781</v>
+        <v>0.03696226328611374</v>
       </c>
     </row>
     <row r="375">
@@ -3583,7 +3721,7 @@
         <v>8.82412052154541</v>
       </c>
       <c r="B375" t="n">
-        <v>0.7099852561950684</v>
+        <v>0.03690624982118607</v>
       </c>
     </row>
     <row r="376">
@@ -3591,7 +3729,7 @@
         <v>8.869346618652344</v>
       </c>
       <c r="B376" t="n">
-        <v>0.71429842710495</v>
+        <v>0.03685026988387108</v>
       </c>
     </row>
     <row r="377">
@@ -3599,7 +3737,7 @@
         <v>8.914572715759277</v>
       </c>
       <c r="B377" t="n">
-        <v>0.7185947299003601</v>
+        <v>0.03679417446255684</v>
       </c>
     </row>
     <row r="378">
@@ -3607,7 +3745,7 @@
         <v>8.959798812866211</v>
       </c>
       <c r="B378" t="n">
-        <v>0.722873866558075</v>
+        <v>0.03673812374472618</v>
       </c>
     </row>
     <row r="379">
@@ -3615,7 +3753,7 @@
         <v>9.005024909973145</v>
       </c>
       <c r="B379" t="n">
-        <v>0.7271358370780945</v>
+        <v>0.03668199852108955</v>
       </c>
     </row>
     <row r="380">
@@ -3623,7 +3761,7 @@
         <v>9.050251007080078</v>
       </c>
       <c r="B380" t="n">
-        <v>0.7313810586929321</v>
+        <v>0.03662592545151711</v>
       </c>
     </row>
     <row r="381">
@@ -3631,7 +3769,7 @@
         <v>9.095477104187012</v>
       </c>
       <c r="B381" t="n">
-        <v>0.7356091141700745</v>
+        <v>0.0365697480738163</v>
       </c>
     </row>
     <row r="382">
@@ -3639,7 +3777,7 @@
         <v>9.140703201293945</v>
       </c>
       <c r="B382" t="n">
-        <v>0.7398199439048767</v>
+        <v>0.036513552069664</v>
       </c>
     </row>
     <row r="383">
@@ -3647,7 +3785,7 @@
         <v>9.185929298400879</v>
       </c>
       <c r="B383" t="n">
-        <v>0.7440138459205627</v>
+        <v>0.03645745664834976</v>
       </c>
     </row>
     <row r="384">
@@ -3655,7 +3793,7 @@
         <v>9.231155395507812</v>
       </c>
       <c r="B384" t="n">
-        <v>0.7481908202171326</v>
+        <v>0.03640126064419746</v>
       </c>
     </row>
     <row r="385">
@@ -3663,7 +3801,7 @@
         <v>9.276381492614746</v>
       </c>
       <c r="B385" t="n">
-        <v>0.7523509860038757</v>
+        <v>0.03634504601359367</v>
       </c>
     </row>
     <row r="386">
@@ -3671,7 +3809,7 @@
         <v>9.32160758972168</v>
       </c>
       <c r="B386" t="n">
-        <v>0.7564937472343445</v>
+        <v>0.03628889843821526</v>
       </c>
     </row>
     <row r="387">
@@ -3679,7 +3817,7 @@
         <v>9.36683464050293</v>
       </c>
       <c r="B387" t="n">
-        <v>0.7606196999549866</v>
+        <v>0.03623264282941818</v>
       </c>
     </row>
     <row r="388">
@@ -3687,7 +3825,7 @@
         <v>9.412060737609863</v>
       </c>
       <c r="B388" t="n">
-        <v>0.7647286057472229</v>
+        <v>0.03617646172642708</v>
       </c>
     </row>
     <row r="389">
@@ -3695,7 +3833,7 @@
         <v>9.457286834716797</v>
       </c>
       <c r="B389" t="n">
-        <v>0.7688207030296326</v>
+        <v>0.03612019866704941</v>
       </c>
     </row>
     <row r="390">
@@ -3703,7 +3841,7 @@
         <v>9.50251293182373</v>
       </c>
       <c r="B390" t="n">
-        <v>0.7728957533836365</v>
+        <v>0.03606399148702621</v>
       </c>
     </row>
     <row r="391">
@@ -3711,7 +3849,7 @@
         <v>9.547739028930664</v>
       </c>
       <c r="B391" t="n">
-        <v>0.7769539356231689</v>
+        <v>0.03600781038403511</v>
       </c>
     </row>
     <row r="392">
@@ -3719,7 +3857,7 @@
         <v>9.592965126037598</v>
       </c>
       <c r="B392" t="n">
-        <v>0.7809951901435852</v>
+        <v>0.03595159202814102</v>
       </c>
     </row>
     <row r="393">
@@ -3727,7 +3865,7 @@
         <v>9.638191223144531</v>
       </c>
       <c r="B393" t="n">
-        <v>0.78501957654953</v>
+        <v>0.03589535132050514</v>
       </c>
     </row>
     <row r="394">
@@ -3735,7 +3873,7 @@
         <v>9.683417320251465</v>
       </c>
       <c r="B394" t="n">
-        <v>0.7890270352363586</v>
+        <v>0.03583912551403046</v>
       </c>
     </row>
     <row r="395">
@@ -3743,7 +3881,7 @@
         <v>9.728643417358398</v>
       </c>
       <c r="B395" t="n">
-        <v>0.7930176854133606</v>
+        <v>0.03578287735581398</v>
       </c>
     </row>
     <row r="396">
@@ -3751,7 +3889,7 @@
         <v>9.773869514465332</v>
       </c>
       <c r="B396" t="n">
-        <v>0.7969912886619568</v>
+        <v>0.03572671115398407</v>
       </c>
     </row>
     <row r="397">
@@ -3759,7 +3897,7 @@
         <v>9.819095611572266</v>
       </c>
       <c r="B397" t="n">
-        <v>0.8009481430053711</v>
+        <v>0.0356704518198967</v>
       </c>
     </row>
     <row r="398">
@@ -3767,7 +3905,7 @@
         <v>9.864321708679199</v>
       </c>
       <c r="B398" t="n">
-        <v>0.8048886656761169</v>
+        <v>0.0356142520904541</v>
       </c>
     </row>
     <row r="399">
@@ -3775,7 +3913,7 @@
         <v>9.909547805786133</v>
       </c>
       <c r="B399" t="n">
-        <v>0.8088117241859436</v>
+        <v>0.03555805236101151</v>
       </c>
     </row>
     <row r="400">
@@ -3783,7 +3921,7 @@
         <v>9.954773902893066</v>
       </c>
       <c r="B400" t="n">
-        <v>0.8127183318138123</v>
+        <v>0.03550188615918159</v>
       </c>
     </row>
     <row r="401">
@@ -3791,7 +3929,7 @@
         <v>10</v>
       </c>
       <c r="B401" t="n">
-        <v>0.8166082501411438</v>
+        <v>0.03544564172625542</v>
       </c>
     </row>
   </sheetData>
